--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -27376,6 +27376,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -11731,7 +11731,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -11941,7 +11941,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -12061,7 +12061,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -12661,7 +12661,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -12721,7 +12721,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -12961,7 +12961,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -13411,7 +13411,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAI, main </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -13471,7 +13471,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -13501,7 +13501,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -13561,7 +13561,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -13921,7 +13921,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -13981,7 +13981,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -14041,7 +14041,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -14221,7 +14221,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -14521,7 +14521,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -14581,7 +14581,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -14611,7 +14611,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -14761,7 +14761,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -14821,7 +14821,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -14971,7 +14971,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -15481,7 +15481,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -15511,7 +15511,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -15721,7 +15721,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -15811,7 +15811,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -15901,7 +15901,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -16261,7 +16261,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -16351,7 +16351,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -16411,7 +16411,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -16501,7 +16501,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -16561,7 +16561,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -16621,7 +16621,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -16681,7 +16681,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -16741,7 +16741,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -16771,7 +16771,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -16861,7 +16861,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -16951,7 +16951,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -16981,7 +16981,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -17011,7 +17011,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -17041,7 +17041,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -17131,7 +17131,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -17251,7 +17251,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -17341,7 +17341,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -17461,7 +17461,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -17701,7 +17701,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -17791,7 +17791,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -17911,7 +17911,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -17941,7 +17941,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -18091,7 +18091,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -18121,7 +18121,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -18151,7 +18151,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -18211,7 +18211,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -18301,7 +18301,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -18331,7 +18331,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -18361,7 +18361,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -18421,7 +18421,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -18451,7 +18451,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -18481,7 +18481,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -18511,7 +18511,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -18571,7 +18571,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -18601,7 +18601,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -18661,7 +18661,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -18781,7 +18781,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -18811,7 +18811,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -18901,7 +18901,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -18931,7 +18931,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -18961,7 +18961,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -19141,7 +19141,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -19171,7 +19171,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -19231,7 +19231,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -19321,7 +19321,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -19381,7 +19381,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -19411,7 +19411,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -19471,7 +19471,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -19531,7 +19531,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -19561,7 +19561,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -19591,7 +19591,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -19621,7 +19621,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
@@ -20041,7 +20041,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -20071,7 +20071,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -20131,7 +20131,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
@@ -20251,7 +20251,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -20281,7 +20281,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -20311,7 +20311,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -20341,7 +20341,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -20371,7 +20371,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -20401,7 +20401,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -20461,7 +20461,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -20491,7 +20491,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -20581,7 +20581,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
@@ -20611,7 +20611,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -20671,7 +20671,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -20701,7 +20701,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -20731,7 +20731,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -20761,7 +20761,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -20821,7 +20821,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -20851,7 +20851,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -20911,7 +20911,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -20971,7 +20971,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -21031,7 +21031,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -21061,7 +21061,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -21121,7 +21121,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -21151,7 +21151,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -21241,7 +21241,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -21271,7 +21271,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -21331,7 +21331,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -21361,7 +21361,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
@@ -21391,7 +21391,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -21451,7 +21451,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
@@ -21481,7 +21481,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -21511,7 +21511,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -21541,7 +21541,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -21571,7 +21571,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
@@ -21721,7 +21721,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
@@ -21751,7 +21751,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
@@ -21781,7 +21781,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
@@ -21811,7 +21811,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
@@ -21841,7 +21841,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -21871,7 +21871,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
@@ -21901,7 +21901,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -21931,7 +21931,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -21961,7 +21961,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
@@ -21991,7 +21991,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -22021,7 +22021,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -22051,7 +22051,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
@@ -22111,7 +22111,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
@@ -22141,7 +22141,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
@@ -22171,7 +22171,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
@@ -22261,7 +22261,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
@@ -22291,7 +22291,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
@@ -22321,7 +22321,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -22381,7 +22381,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -22471,7 +22471,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
@@ -22501,7 +22501,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
@@ -22531,7 +22531,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -22561,7 +22561,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -22591,7 +22591,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -22621,7 +22621,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM, main </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
@@ -22651,7 +22651,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
@@ -22711,7 +22711,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -22741,7 +22741,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
@@ -22801,7 +22801,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -22831,7 +22831,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
@@ -22891,7 +22891,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -22921,7 +22921,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -22951,7 +22951,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
@@ -22981,7 +22981,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -23041,7 +23041,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -23101,7 +23101,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
@@ -23131,7 +23131,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
@@ -23221,7 +23221,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
@@ -23251,7 +23251,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -23281,7 +23281,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -23311,7 +23311,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -23341,7 +23341,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -23371,7 +23371,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -23461,7 +23461,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
@@ -23491,7 +23491,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
@@ -23521,7 +23521,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
@@ -23641,7 +23641,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -23671,7 +23671,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
@@ -23701,7 +23701,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -23731,7 +23731,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
@@ -23761,7 +23761,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
@@ -23791,7 +23791,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
@@ -23881,7 +23881,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
@@ -23941,7 +23941,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -24061,7 +24061,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E790" t="inlineStr">
@@ -24151,7 +24151,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
@@ -24241,7 +24241,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
@@ -24271,7 +24271,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
@@ -24301,7 +24301,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -24331,7 +24331,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
@@ -24451,7 +24451,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
@@ -24481,7 +24481,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
@@ -24511,7 +24511,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
@@ -24541,7 +24541,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E804" t="inlineStr">
@@ -24571,7 +24571,7 @@
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
@@ -24601,7 +24601,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
@@ -24631,7 +24631,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
@@ -24661,7 +24661,7 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E809" t="inlineStr">
@@ -24721,7 +24721,7 @@
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E810" t="inlineStr">
@@ -24751,7 +24751,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
@@ -24781,7 +24781,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E812" t="inlineStr">
@@ -24811,7 +24811,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
@@ -24841,7 +24841,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E814" t="inlineStr">
@@ -24871,7 +24871,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
@@ -24901,7 +24901,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, main </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM, main </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
@@ -24961,7 +24961,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
@@ -24991,7 +24991,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
@@ -25021,7 +25021,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
@@ -25051,7 +25051,7 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
@@ -25081,7 +25081,7 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
@@ -25111,7 +25111,7 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
@@ -25141,7 +25141,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
@@ -25201,7 +25201,7 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
@@ -25231,7 +25231,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
@@ -25261,7 +25261,7 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
@@ -25291,7 +25291,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
@@ -25321,7 +25321,7 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E830" t="inlineStr">
@@ -25351,7 +25351,7 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
@@ -25381,7 +25381,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
@@ -25411,7 +25411,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E833" t="inlineStr">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E834" t="inlineStr">
@@ -25471,7 +25471,7 @@
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E835" t="inlineStr">
@@ -25501,7 +25501,7 @@
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E836" t="inlineStr">
@@ -25531,7 +25531,7 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E837" t="inlineStr">
@@ -25561,7 +25561,7 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
@@ -25591,7 +25591,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
@@ -25621,7 +25621,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E840" t="inlineStr">
@@ -25651,7 +25651,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
@@ -25681,7 +25681,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
@@ -25711,7 +25711,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
@@ -25741,7 +25741,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
@@ -25771,7 +25771,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E846" t="inlineStr">
@@ -25831,7 +25831,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E847" t="inlineStr">
@@ -25861,7 +25861,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E848" t="inlineStr">
@@ -25891,7 +25891,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
@@ -25921,7 +25921,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
@@ -25951,7 +25951,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
@@ -26011,7 +26011,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
@@ -26041,7 +26041,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E854" t="inlineStr">
@@ -26071,7 +26071,7 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E855" t="inlineStr">
@@ -26101,7 +26101,7 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
@@ -26131,7 +26131,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E858" t="inlineStr">
@@ -26191,7 +26191,7 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
@@ -26221,7 +26221,7 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E860" t="inlineStr">
@@ -26251,7 +26251,7 @@
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E861" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
@@ -26311,7 +26311,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E863" t="inlineStr">
@@ -26341,7 +26341,7 @@
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E864" t="inlineStr">
@@ -26371,7 +26371,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
@@ -26401,7 +26401,7 @@
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E866" t="inlineStr">
@@ -26431,7 +26431,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
@@ -26461,7 +26461,7 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E868" t="inlineStr">
@@ -26491,7 +26491,7 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E869" t="inlineStr">
@@ -26521,7 +26521,7 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
@@ -26551,7 +26551,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
@@ -26611,7 +26611,7 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
@@ -26641,7 +26641,7 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E874" t="inlineStr">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
@@ -26701,7 +26701,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
@@ -26731,7 +26731,7 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E877" t="inlineStr">
@@ -26761,7 +26761,7 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
@@ -26791,7 +26791,7 @@
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E879" t="inlineStr">
@@ -26821,7 +26821,7 @@
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
@@ -26911,7 +26911,7 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
@@ -26971,7 +26971,7 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E885" t="inlineStr">
@@ -27001,7 +27001,7 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E886" t="inlineStr">
@@ -27031,7 +27031,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
@@ -27061,7 +27061,7 @@
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E888" t="inlineStr">
@@ -27091,7 +27091,7 @@
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E889" t="inlineStr">
@@ -27121,7 +27121,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E891" t="inlineStr">
@@ -27181,7 +27181,7 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
@@ -27211,7 +27211,7 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
@@ -27241,7 +27241,7 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
@@ -27271,7 +27271,7 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E895" t="inlineStr">
@@ -27301,7 +27301,7 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
@@ -27331,7 +27331,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
@@ -27361,7 +27361,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML, main </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E898" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F900"/>
+  <dimension ref="A1:F901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23148,16 +23148,16 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stepan Holub, Robert Veroff </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Formalizing a Fragment of Combinatorics on Words. </t>
+          <t xml:space="preserve"> A Wos Challenge Met. </t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -23166,28 +23166,28 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-58741-7_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10817-021-09614-y </t>
         </is>
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Unveiling Dynamics and Complexity - 13th Conference on Computability in Europe, CiE 2017, Turku, Finland, June 12-16, 2017, Proceedings: 24-31 (2017).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 66: 565-574 (2022).</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ranganathan Padmanabhan, Robert Veroff </t>
+          <t xml:space="preserve">Stepan Holub, Robert Veroff </t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Geometric Procedure with Prover9. </t>
+          <t xml:space="preserve"> Formalizing a Fragment of Combinatorics on Words. </t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -23196,24 +23196,24 @@
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-36675-8_7 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-58741-7_3 </t>
         </is>
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning and Mathematics - Essays in Memory of William W. McCune: 139-150 (2013).</t>
+          <t xml:space="preserve"> Unveiling Dynamics and Complexity - 13th Conference on Computability in Europe, CiE 2017, Turku, Finland, June 12-16, 2017, Proceedings: 24-31 (2017).</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michael K. Kinyon, Robert Veroff, Petr Vojtechovský </t>
+          <t xml:space="preserve">Ranganathan Padmanabhan, Robert Veroff </t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Loops with Abelian Inner Mapping Groups: An Application of Automated Deduction. </t>
+          <t xml:space="preserve"> A Geometric Procedure with Prover9. </t>
         </is>
       </c>
       <c r="C760" t="n">
@@ -23226,28 +23226,28 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-36675-8_8 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-36675-8_7 </t>
         </is>
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning and Mathematics - Essays in Memory of William W. McCune: 151-164 (2013).</t>
+          <t xml:space="preserve"> Automated Reasoning and Mathematics - Essays in Memory of William W. McCune: 139-150 (2013).</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francesco Paoli, Matthew Spinks, Robert Veroff </t>
+          <t xml:space="preserve">Michael K. Kinyon, Robert Veroff, Petr Vojtechovský </t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abelian Logic and the Logics of Pointed Lattice-Ordered Varieties. </t>
+          <t xml:space="preserve"> Loops with Abelian Inner Mapping Groups: An Application of Automated Deduction. </t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -23256,24 +23256,24 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s11787-008-0034-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-36675-8_8 </t>
         </is>
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logica Universalis 2: 209-233 (2008).</t>
+          <t xml:space="preserve"> Automated Reasoning and Mathematics - Essays in Memory of William W. McCune: 151-164 (2013).</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matthew Spinks, Robert Veroff </t>
+          <t xml:space="preserve">Francesco Paoli, Matthew Spinks, Robert Veroff </t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constructive Logic with Strong Negation is a Substructural Logic. I. </t>
+          <t xml:space="preserve"> Abelian Logic and the Logics of Pointed Lattice-Ordered Varieties. </t>
         </is>
       </c>
       <c r="C762" t="n">
@@ -23286,12 +23286,12 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s11225-008-9113-x </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s11787-008-0034-2 </t>
         </is>
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stud Logica 88: 325-348 (2008).</t>
+          <t xml:space="preserve"> Logica Universalis 2: 209-233 (2008).</t>
         </is>
       </c>
     </row>
@@ -23303,7 +23303,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constructive Logic with Strong Negation is a Substructural Logic. II. </t>
+          <t xml:space="preserve"> Constructive Logic with Strong Negation is a Substructural Logic. I. </t>
         </is>
       </c>
       <c r="C763" t="n">
@@ -23316,28 +23316,28 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s11225-008-9138-1 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s11225-008-9113-x </t>
         </is>
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stud Logica 89: 401-425 (2008).</t>
+          <t xml:space="preserve"> Stud Logica 88: 325-348 (2008).</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frank Gilfeather, Vikas Hamine, Paul Helman, Julie Hutt, Terry Loring, C. Rick Lyons, Robert Veroff </t>
+          <t xml:space="preserve">Matthew Spinks, Robert Veroff </t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Learning and modeling biosignatures from tissue images. </t>
+          <t xml:space="preserve"> Constructive Logic with Strong Negation is a Substructural Logic. II. </t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -23346,28 +23346,28 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q33282059 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s11225-008-9138-1 </t>
         </is>
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Biol. Medicine 37: 1539-1552 (2007).</t>
+          <t xml:space="preserve"> Stud Logica 89: 401-425 (2008).</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff, Matthew Spinks </t>
+          <t xml:space="preserve">Frank Gilfeather, Vikas Hamine, Paul Helman, Julie Hutt, Terry Loring, C. Rick Lyons, Robert Veroff </t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Axiomatizing the Skew Boolean Propositional Calculus. </t>
+          <t xml:space="preserve"> Learning and modeling biosignatures from tissue images. </t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -23376,28 +23376,28 @@
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10817-006-9029-y </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q33282059 </t>
         </is>
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 37: 3-20 (2006).</t>
+          <t xml:space="preserve"> Comput. Biol. Medicine 37: 1539-1552 (2007).</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michael Beeson, Robert Veroff, Larry Wos </t>
+          <t xml:space="preserve">Robert Veroff, Matthew Spinks </t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Double-Negation Elimination in Some Propositional Logics. </t>
+          <t xml:space="preserve"> Axiomatizing the Skew Boolean Propositional Calculus. </t>
         </is>
       </c>
       <c r="C766" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -23406,28 +23406,28 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s11225-005-8469-4 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10817-006-9029-y </t>
         </is>
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stud Logica 80: 195-234 (2005).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 37: 3-20 (2006).</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paul Helman, Robert Veroff, Susan R. Atlas, Cheryl Willman </t>
+          <t xml:space="preserve">Michael Beeson, Robert Veroff, Larry Wos </t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Bayesian Network Classification Methodology for Gene Expression Data. </t>
+          <t xml:space="preserve"> Double-Negation Elimination in Some Propositional Logics. </t>
         </is>
       </c>
       <c r="C767" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -23436,28 +23436,28 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q33209551 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s11225-005-8469-4 </t>
         </is>
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Comput. Biol. 11: 581-615 (2004).</t>
+          <t xml:space="preserve"> Stud Logica 80: 195-234 (2005).</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Paul Helman, Robert Veroff, Susan R. Atlas, Cheryl Willman </t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Shortest 2-Basis for Boolean Algebra in Terms of the Sheffer Stroke. </t>
+          <t xml:space="preserve"> A Bayesian Network Classification Methodology for Gene Expression Data. </t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -23466,24 +23466,24 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1023/A:1027322305654 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q33209551 </t>
         </is>
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 31: 1-9 (2003).</t>
+          <t xml:space="preserve"> J. Comput. Biol. 11: 581-615 (2004).</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michael Beeson, Robert Veroff, Larry Wos </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Double-Negation Elimination in Some Propositional Logics </t>
+          <t xml:space="preserve"> A Shortest 2-Basis for Boolean Algebra in Terms of the Sheffer Stroke. </t>
         </is>
       </c>
       <c r="C769" t="n">
@@ -23496,28 +23496,28 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/cs/0301026 </t>
+          <t xml:space="preserve"> https://doi.org/10.1023/A:1027322305654 </t>
         </is>
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR cs.LO/0301026 (2003).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 31: 1-9 (2003).</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t xml:space="preserve">William McCune, Robert Veroff, Branden Fitelson, Kenneth Harris, Andrew Feist, Larry Wos </t>
+          <t xml:space="preserve">Michael Beeson, Robert Veroff, Larry Wos </t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Short Single Axioms for Boolean Algebra. </t>
+          <t xml:space="preserve"> Double-Negation Elimination in Some Propositional Logics </t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -23526,28 +23526,28 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q60061107 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/cs/0301026 </t>
         </is>
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 29: 1-16 (2002).</t>
+          <t xml:space="preserve"> arXiv CoRR cs.LO/0301026 (2003).</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paul Helman, Robert Veroff </t>
+          <t xml:space="preserve">William McCune, Robert Veroff, Branden Fitelson, Kenneth Harris, Andrew Feist, Larry Wos </t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The application of automated reasoning to formal models of combinatorial optimization. </t>
+          <t xml:space="preserve"> Short Single Axioms for Boolean Algebra. </t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -23556,24 +23556,24 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/S0096-3003(99)00249-0 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q60061107 </t>
         </is>
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Math. Comput. 120: 175-194 (2001).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 29: 1-16 (2002).</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Paul Helman, Robert Veroff </t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Finding Shortest Proofs: An Application of Linked Inference Rules. </t>
+          <t xml:space="preserve"> The application of automated reasoning to formal models of combinatorial optimization. </t>
         </is>
       </c>
       <c r="C772" t="n">
@@ -23586,12 +23586,12 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1023/A:1010635625063 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/S0096-3003(99)00249-0 </t>
         </is>
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 27: 123-139 (2001).</t>
+          <t xml:space="preserve"> Appl. Math. Comput. 120: 175-194 (2001).</t>
         </is>
       </c>
     </row>
@@ -23603,7 +23603,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving Open Questions and Other Challenge Problems Using Proof Sketches. </t>
+          <t xml:space="preserve"> Finding Shortest Proofs: An Application of Linked Inference Rules. </t>
         </is>
       </c>
       <c r="C773" t="n">
@@ -23616,28 +23616,28 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1023/A:1010639725972 </t>
+          <t xml:space="preserve"> https://doi.org/10.1023/A:1010635625063 </t>
         </is>
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 27: 157-174 (2001).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 27: 123-139 (2001).</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gregory H. Chisholm, Steven T. Eckmann, Christopher M. Lain, Robert Veroff </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Understanding Integrated Circuits. </t>
+          <t xml:space="preserve"> Solving Open Questions and Other Challenge Problems Using Proof Sketches. </t>
         </is>
       </c>
       <c r="C774" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -23646,28 +23646,28 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/54.765201 </t>
+          <t xml:space="preserve"> https://doi.org/10.1023/A:1010639725972 </t>
         </is>
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Des. Test Comput. 16: 26-37 (1999).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 27: 157-174 (2001).</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Gregory H. Chisholm, Steven T. Eckmann, Christopher M. Lain, Robert Veroff </t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Using Hints to Increase the Effectiveness of an Automated Reasoning Program: Case Studies. </t>
+          <t xml:space="preserve"> Understanding Integrated Circuits. </t>
         </is>
       </c>
       <c r="C775" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -23676,28 +23676,28 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/BF00252178 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/54.765201 </t>
         </is>
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 16: 223-239 (1996).</t>
+          <t xml:space="preserve"> IEEE Des. Test Comput. 16: 26-37 (1999).</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t xml:space="preserve">Larry Wos, Robert Veroff </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logical basis for the automation of reasoning: Case studies. </t>
+          <t xml:space="preserve"> Using Hints to Increase the Effectiveness of an Automated Reasoning Program: Case Studies. </t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -23706,28 +23706,28 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/BF00252178 </t>
         </is>
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Handbook of Logic in Artificial Intelligence and Logic Programming, Volume2, Deduction Methodologies: 1-40 (1994).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 16: 223-239 (1996).</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Larry Wos, Robert Veroff </t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Linked Inference Principle, I: The Formal Treatment. </t>
+          <t xml:space="preserve"> Logical basis for the automation of reasoning: Case studies. </t>
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -23736,28 +23736,28 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/BF00244283 </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 8: 213-274 (1992).</t>
+          <t xml:space="preserve"> Handbook of Logic in Artificial Intelligence and Logic Programming, Volume2, Deduction Methodologies: 1-40 (1994).</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paul Helman, Robert Veroff, Frank R. Carrano </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intermediate problem solving and data structures - walls and mirrors (2. ed.). </t>
+          <t xml:space="preserve"> The Linked Inference Principle, I: The Formal Treatment. </t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -23766,28 +23766,28 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/BF00244283 </t>
         </is>
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Benjamin/Cummings series in computer science, Benjamin/Cummings (1991).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 8: 213-274 (1992).</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paul Helman, Robert Veroff </t>
+          <t xml:space="preserve">Paul Helman, Robert Veroff, Frank R. Carrano </t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Deductive Databases. </t>
+          <t xml:space="preserve"> Intermediate problem solving and data structures - walls and mirrors (2. ed.). </t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -23796,28 +23796,28 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/BF00244512 </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 4: 29-68 (1988).</t>
+          <t xml:space="preserve"> Benjamin/Cummings series in computer science, Benjamin/Cummings (1991).</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t xml:space="preserve">Larry Wos, Steve Winker, Barry Smith, Robert Veroff, Lawrence J. Henschen </t>
+          <t xml:space="preserve">Paul Helman, Robert Veroff </t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A New Use of an Automated Reasoning Assistant: Open Questions in Equivalential Calculus and the Study of Infinite Domains. </t>
+          <t xml:space="preserve"> Designing Deductive Databases. </t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -23826,24 +23826,24 @@
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/0004-3702(84)90054-7 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/BF00244512 </t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. 22: 303-356 (1984).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 4: 29-68 (1988).</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t xml:space="preserve">Larry Wos, Robert Veroff, Barry Smith, William McCune </t>
+          <t xml:space="preserve">Larry Wos, Steve Winker, Barry Smith, Robert Veroff, Lawrence J. Henschen </t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Linked Inference Principle, II: The User's Viewpoint. </t>
+          <t xml:space="preserve"> A New Use of an Automated Reasoning Assistant: Open Questions in Equivalential Calculus and the Study of Infinite Domains. </t>
         </is>
       </c>
       <c r="C781" t="n">
@@ -23856,28 +23856,28 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-0-387-34768-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/0004-3702(84)90054-7 </t>
         </is>
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7th International Conference on Automated Deduction, Napa, California, USA, May 14-16, 1984, Proceedings: 316-332 (1984).</t>
+          <t xml:space="preserve"> Artif. Intell. 22: 303-356 (1984).</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t xml:space="preserve">Larry Henschen, Barry Smith, Robert Veroff, Steve Winker, Larry Wos </t>
+          <t xml:space="preserve">Larry Wos, Robert Veroff, Barry Smith, William McCune </t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Questions concerning possible shortest single axioms for the equivalential calculus: an application of automated theorem proving to infinite domains. </t>
+          <t xml:space="preserve"> The Linked Inference Principle, II: The User's Viewpoint. </t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -23886,28 +23886,28 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1305/ndjfl/1093870311 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-0-387-34768-4_19 </t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Notre Dame J. Formal Log. 24: 205-223 (1983).</t>
+          <t xml:space="preserve"> 7th International Conference on Automated Deduction, Napa, California, USA, May 14-16, 1984, Proceedings: 316-332 (1984).</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff, Lawrence J. Henschen </t>
+          <t xml:space="preserve">Larry Henschen, Barry Smith, Robert Veroff, Steve Winker, Larry Wos </t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Automatic Transformations to Program Verification. </t>
+          <t xml:space="preserve"> Questions concerning possible shortest single axioms for the equivalential calculus: an application of automated theorem proving to infinite domains. </t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -23916,28 +23916,28 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ijcai.org/Proceedings/81-1/Papers/087.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.1305/ndjfl/1093870311 </t>
         </is>
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 7th International Joint Conference on Artificial Intelligence, IJCAI '81, Vancouver, BC, Canada, August 24-28, 1981: 472-479 (1981).</t>
+          <t xml:space="preserve"> Notre Dame J. Formal Log. 24: 205-223 (1983).</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zarathustra Amadeus Goertzel </t>
+          <t xml:space="preserve">Robert Veroff, Lawrence J. Henschen </t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make E Smart Again (Short Paper). </t>
+          <t xml:space="preserve"> Application of Automatic Transformations to Program Verification. </t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>2020</v>
+        <v>1981</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -23946,12 +23946,12 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-51054-1_26 </t>
+          <t xml:space="preserve"> http://ijcai.org/Proceedings/81-1/Papers/087.pdf </t>
         </is>
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning - 10th International Joint Conference, IJCAR 2020, Paris, France, July 1-4, 2020, Proceedings, Part II: 408-415 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the 7th International Joint Conference on Artificial Intelligence, IJCAI '81, Vancouver, BC, Canada, August 24-28, 1981: 472-479 (1981).</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23963,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make E Smart Again. </t>
+          <t xml:space="preserve"> Make E Smart Again (Short Paper). </t>
         </is>
       </c>
       <c r="C785" t="n">
@@ -23976,28 +23976,28 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.08858 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-51054-1_26 </t>
         </is>
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
+          <t xml:space="preserve"> Automated Reasoning - 10th International Joint Conference, IJCAR 2020, Paris, France, July 1-4, 2020, Proceedings, Part II: 408-415 (2020).</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Zarathustra Amadeus Goertzel </t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Definitional Quantifiers Realise Semantic Reasoning for Proof by Induction. </t>
+          <t xml:space="preserve"> Make E Smart Again. </t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -24006,12 +24006,12 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-09827-7_4 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.08858 </t>
         </is>
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tests and Proofs - 16th International Conference, TAP 2022, Held as Part of STAF 2022, Nantes, France, July 5, 2022, Proceedings: 48-66 (2022).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
         </is>
       </c>
     </row>
@@ -24023,11 +24023,11 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Definitional Quantifiers Realise Semantic Reasoning for Proof by Induction. </t>
         </is>
       </c>
       <c r="C787" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -24036,12 +24036,12 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-09827-7_4 </t>
         </is>
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
+          <t xml:space="preserve"> Tests and Proofs - 16th International Conference, TAP 2022, Held as Part of STAF 2022, Nantes, France, July 5, 2022, Proceedings: 48-66 (2022).</t>
         </is>
       </c>
     </row>
@@ -24053,11 +24053,11 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
+          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C788" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -24066,12 +24066,12 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
+          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
         </is>
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
         </is>
       </c>
     </row>
@@ -24083,7 +24083,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
         </is>
       </c>
       <c r="C789" t="n">
@@ -24096,12 +24096,12 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
+          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
+          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C790" t="n">
@@ -24126,12 +24126,12 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
         </is>
       </c>
     </row>
@@ -24143,7 +24143,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
         </is>
       </c>
       <c r="C791" t="n">
@@ -24156,12 +24156,12 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
         </is>
       </c>
     </row>
@@ -24173,7 +24173,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
         </is>
       </c>
       <c r="C792" t="n">
@@ -24186,12 +24186,12 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
         </is>
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
         </is>
       </c>
     </row>
@@ -24203,7 +24203,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
+          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C793" t="n">
@@ -24216,12 +24216,12 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
         </is>
       </c>
     </row>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
         </is>
       </c>
       <c r="C794" t="n">
@@ -24246,12 +24246,12 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
         </is>
       </c>
     </row>
@@ -24263,11 +24263,11 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -24276,12 +24276,12 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
         </is>
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24293,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C796" t="n">
@@ -24306,12 +24306,12 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
         </is>
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
+          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
         </is>
       </c>
     </row>
@@ -24323,7 +24323,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
         </is>
       </c>
       <c r="C797" t="n">
@@ -24336,12 +24336,12 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
         </is>
       </c>
     </row>
@@ -24353,7 +24353,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C798" t="n">
@@ -24366,12 +24366,12 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
         </is>
       </c>
     </row>
@@ -24383,7 +24383,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Game of Theorems. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C799" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
         </is>
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
         </is>
       </c>
     </row>
@@ -24413,7 +24413,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
+          <t xml:space="preserve"> Designing Game of Theorems. </t>
         </is>
       </c>
       <c r="C800" t="n">
@@ -24426,28 +24426,28 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -24456,24 +24456,24 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C802" t="n">
@@ -24486,12 +24486,12 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
         </is>
       </c>
     </row>
@@ -24516,24 +24516,24 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
         </is>
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C804" t="n">
@@ -24546,24 +24546,24 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
+          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C805" t="n">
@@ -24576,28 +24576,28 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -24606,24 +24606,24 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C807" t="n">
@@ -24636,12 +24636,12 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
         </is>
       </c>
     </row>
@@ -24653,11 +24653,11 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proof Strategy Language. </t>
+          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -24666,24 +24666,24 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
         </is>
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
+          <t xml:space="preserve"> Proof Strategy Language. </t>
         </is>
       </c>
       <c r="C809" t="n">
@@ -24696,24 +24696,24 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
+          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
+          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
+          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
+          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
         </is>
       </c>
       <c r="C810" t="n">
@@ -24726,24 +24726,24 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
+          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
+          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
         </is>
       </c>
       <c r="C811" t="n">
@@ -24756,24 +24756,24 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
+          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
+          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
         </is>
       </c>
       <c r="C812" t="n">
@@ -24786,24 +24786,24 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
+          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
         </is>
       </c>
       <c r="C813" t="n">
@@ -24816,24 +24816,24 @@
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
         </is>
       </c>
       <c r="C814" t="n">
@@ -24846,28 +24846,28 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
+          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
+          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -24876,28 +24876,28 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
+          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
+          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -24906,28 +24906,28 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
+          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
+          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
+          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -24936,28 +24936,28 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
+          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
+          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -24966,84 +24966,84 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
+          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
+          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>2018</v>
+        <v>1996</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C821" t="n">
@@ -25056,7 +25056,7 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
@@ -25068,16 +25068,16 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -25086,12 +25086,12 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -25107,7 +25107,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -25116,24 +25116,24 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C824" t="n">
@@ -25146,28 +25146,28 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -25176,28 +25176,28 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -25206,24 +25206,24 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C827" t="n">
@@ -25236,28 +25236,28 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C828" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -25266,24 +25266,24 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C829" t="n">
@@ -25296,24 +25296,24 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C830" t="n">
@@ -25326,28 +25326,28 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -25356,24 +25356,24 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C832" t="n">
@@ -25386,24 +25386,24 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C833" t="n">
@@ -25416,24 +25416,24 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C834" t="n">
@@ -25446,28 +25446,28 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C835" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -25476,24 +25476,24 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C836" t="n">
@@ -25506,24 +25506,24 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C837" t="n">
@@ -25536,24 +25536,24 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -25566,28 +25566,28 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -25596,24 +25596,24 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C840" t="n">
@@ -25626,24 +25626,24 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C841" t="n">
@@ -25656,24 +25656,24 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C842" t="n">
@@ -25686,24 +25686,24 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C843" t="n">
@@ -25716,24 +25716,24 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -25746,24 +25746,24 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C845" t="n">
@@ -25776,28 +25776,28 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C846" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -25806,12 +25806,12 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -25823,7 +25823,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -25836,12 +25836,12 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -25853,7 +25853,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C848" t="n">
@@ -25866,24 +25866,24 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C849" t="n">
@@ -25896,28 +25896,28 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C850" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -25926,28 +25926,28 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -25956,28 +25956,28 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -25986,24 +25986,24 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C853" t="n">
@@ -26016,24 +26016,24 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C854" t="n">
@@ -26046,28 +26046,28 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -26076,24 +26076,24 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C856" t="n">
@@ -26106,28 +26106,28 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C857" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -26136,24 +26136,24 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C858" t="n">
@@ -26166,24 +26166,24 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C859" t="n">
@@ -26196,28 +26196,28 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C860" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -26226,28 +26226,28 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C861" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -26256,24 +26256,24 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C862" t="n">
@@ -26286,24 +26286,24 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C863" t="n">
@@ -26321,23 +26321,23 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -26346,24 +26346,24 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C865" t="n">
@@ -26376,24 +26376,24 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C866" t="n">
@@ -26406,28 +26406,28 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C867" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -26436,24 +26436,24 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C868" t="n">
@@ -26466,24 +26466,24 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C869" t="n">
@@ -26496,24 +26496,24 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -26526,24 +26526,24 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,24 +26556,24 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -26586,24 +26586,24 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C873" t="n">
@@ -26616,28 +26616,28 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C874" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -26646,24 +26646,24 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -26676,24 +26676,24 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -26706,24 +26706,24 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,24 +26736,24 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -26766,24 +26766,24 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -26796,28 +26796,28 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -26826,24 +26826,24 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -26856,24 +26856,24 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,28 +26886,28 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -26916,28 +26916,28 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C884" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -26946,28 +26946,28 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C885" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -26976,24 +26976,24 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -27006,24 +27006,24 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C887" t="n">
@@ -27036,28 +27036,28 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C888" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -27066,12 +27066,12 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
@@ -27083,7 +27083,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C889" t="n">
@@ -27096,28 +27096,28 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C890" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -27126,12 +27126,12 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
@@ -27143,7 +27143,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C891" t="n">
@@ -27156,24 +27156,24 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -27186,24 +27186,24 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -27216,28 +27216,28 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C894" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -27246,28 +27246,28 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C895" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -27276,12 +27276,12 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
@@ -27293,11 +27293,11 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C896" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -27306,24 +27306,24 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C897" t="n">
@@ -27336,28 +27336,28 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -27366,28 +27366,28 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -27396,40 +27396,70 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
           <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
-      <c r="B900" t="inlineStr">
+      <c r="B901" t="inlineStr">
         <is>
           <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
-      <c r="C900" t="n">
+      <c r="C901" t="n">
         <v>2014</v>
       </c>
-      <c r="D900" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E900" t="inlineStr">
+      <c r="D901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
-      <c r="F900" t="inlineStr">
+      <c r="F901" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F901"/>
+  <dimension ref="A1:F902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24053,11 +24053,11 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Genetic Algorithm for Program Synthesis. </t>
         </is>
       </c>
       <c r="C788" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -24066,12 +24066,12 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2211.11937 </t>
         </is>
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2211.11937 (2022).</t>
         </is>
       </c>
     </row>
@@ -24083,11 +24083,11 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
+          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -24096,12 +24096,12 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
+          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
         </is>
       </c>
       <c r="C790" t="n">
@@ -24126,12 +24126,12 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
+          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
+          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
         </is>
       </c>
     </row>
@@ -24143,7 +24143,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C791" t="n">
@@ -24156,12 +24156,12 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
         </is>
       </c>
     </row>
@@ -24173,7 +24173,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
         </is>
       </c>
       <c r="C792" t="n">
@@ -24186,12 +24186,12 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
         </is>
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
         </is>
       </c>
     </row>
@@ -24203,7 +24203,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
         </is>
       </c>
       <c r="C793" t="n">
@@ -24216,12 +24216,12 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
         </is>
       </c>
     </row>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
+          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C794" t="n">
@@ -24246,12 +24246,12 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
         </is>
       </c>
     </row>
@@ -24263,7 +24263,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
         </is>
       </c>
       <c r="C795" t="n">
@@ -24276,12 +24276,12 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
         </is>
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
         </is>
       </c>
     </row>
@@ -24293,11 +24293,11 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -24306,12 +24306,12 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
         </is>
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
         </is>
       </c>
     </row>
@@ -24323,7 +24323,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C797" t="n">
@@ -24336,12 +24336,12 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
+          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
         </is>
       </c>
     </row>
@@ -24353,7 +24353,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
         </is>
       </c>
       <c r="C798" t="n">
@@ -24366,12 +24366,12 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
         </is>
       </c>
     </row>
@@ -24383,7 +24383,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C799" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
         </is>
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
         </is>
       </c>
     </row>
@@ -24413,7 +24413,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Game of Theorems. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C800" t="n">
@@ -24426,12 +24426,12 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
         </is>
       </c>
     </row>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
+          <t xml:space="preserve"> Designing Game of Theorems. </t>
         </is>
       </c>
       <c r="C801" t="n">
@@ -24456,28 +24456,28 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -24486,24 +24486,24 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C803" t="n">
@@ -24516,12 +24516,12 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
         </is>
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
         </is>
       </c>
     </row>
@@ -24546,24 +24546,24 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C805" t="n">
@@ -24576,24 +24576,24 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
+          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C806" t="n">
@@ -24606,28 +24606,28 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -24636,24 +24636,24 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C808" t="n">
@@ -24666,12 +24666,12 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
         </is>
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
         </is>
       </c>
     </row>
@@ -24683,11 +24683,11 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proof Strategy Language. </t>
+          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -24696,24 +24696,24 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
+          <t xml:space="preserve"> Proof Strategy Language. </t>
         </is>
       </c>
       <c r="C810" t="n">
@@ -24726,24 +24726,24 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
+          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
+          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
+          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
+          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
         </is>
       </c>
       <c r="C811" t="n">
@@ -24756,24 +24756,24 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
+          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
+          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
         </is>
       </c>
       <c r="C812" t="n">
@@ -24786,24 +24786,24 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
+          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
+          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
         </is>
       </c>
       <c r="C813" t="n">
@@ -24816,24 +24816,24 @@
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
+          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
         </is>
       </c>
       <c r="C814" t="n">
@@ -24846,24 +24846,24 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
         </is>
       </c>
       <c r="C815" t="n">
@@ -24876,28 +24876,28 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
+          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
+          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -24906,28 +24906,28 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
+          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
+          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -24936,28 +24936,28 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
+          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
+          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
+          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -24966,28 +24966,28 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
+          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
+          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -24996,84 +24996,84 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
+          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
+          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>2018</v>
+        <v>1996</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C822" t="n">
@@ -25086,7 +25086,7 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
@@ -25098,16 +25098,16 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -25116,12 +25116,12 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -25137,7 +25137,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -25146,24 +25146,24 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C825" t="n">
@@ -25176,28 +25176,28 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -25206,28 +25206,28 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C827" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -25236,24 +25236,24 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C828" t="n">
@@ -25266,28 +25266,28 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -25296,24 +25296,24 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C830" t="n">
@@ -25326,24 +25326,24 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C831" t="n">
@@ -25356,28 +25356,28 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -25386,24 +25386,24 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C833" t="n">
@@ -25416,24 +25416,24 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C834" t="n">
@@ -25446,24 +25446,24 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C835" t="n">
@@ -25476,28 +25476,28 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -25506,24 +25506,24 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C837" t="n">
@@ -25536,24 +25536,24 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -25566,24 +25566,24 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C839" t="n">
@@ -25596,28 +25596,28 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -25626,24 +25626,24 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C841" t="n">
@@ -25656,24 +25656,24 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C842" t="n">
@@ -25686,24 +25686,24 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C843" t="n">
@@ -25716,24 +25716,24 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -25746,24 +25746,24 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C845" t="n">
@@ -25776,24 +25776,24 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C846" t="n">
@@ -25806,28 +25806,28 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C847" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -25836,12 +25836,12 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -25853,7 +25853,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C848" t="n">
@@ -25866,12 +25866,12 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -25883,7 +25883,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C849" t="n">
@@ -25896,24 +25896,24 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C850" t="n">
@@ -25926,28 +25926,28 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -25956,28 +25956,28 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -25986,28 +25986,28 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -26016,24 +26016,24 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C854" t="n">
@@ -26046,24 +26046,24 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C855" t="n">
@@ -26076,28 +26076,28 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -26106,24 +26106,24 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C857" t="n">
@@ -26136,28 +26136,28 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C858" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -26166,24 +26166,24 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C859" t="n">
@@ -26196,24 +26196,24 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C860" t="n">
@@ -26226,28 +26226,28 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C861" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -26256,28 +26256,28 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C862" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -26286,24 +26286,24 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C863" t="n">
@@ -26316,24 +26316,24 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C864" t="n">
@@ -26351,23 +26351,23 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -26376,24 +26376,24 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C866" t="n">
@@ -26406,24 +26406,24 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -26436,28 +26436,28 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C868" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -26466,24 +26466,24 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C869" t="n">
@@ -26496,24 +26496,24 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -26526,24 +26526,24 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,24 +26556,24 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -26586,24 +26586,24 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C873" t="n">
@@ -26616,24 +26616,24 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C874" t="n">
@@ -26646,28 +26646,28 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C875" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -26676,24 +26676,24 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -26706,24 +26706,24 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,24 +26736,24 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -26766,24 +26766,24 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -26796,24 +26796,24 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C880" t="n">
@@ -26826,28 +26826,28 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C881" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -26856,24 +26856,24 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,24 +26886,24 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C883" t="n">
@@ -26916,28 +26916,28 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C884" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -26946,28 +26946,28 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C885" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -26976,28 +26976,28 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C886" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -27006,24 +27006,24 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C887" t="n">
@@ -27036,24 +27036,24 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C888" t="n">
@@ -27066,28 +27066,28 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C889" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -27096,12 +27096,12 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
@@ -27113,7 +27113,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C890" t="n">
@@ -27126,28 +27126,28 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C891" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -27156,12 +27156,12 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
@@ -27173,7 +27173,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -27186,24 +27186,24 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -27216,24 +27216,24 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C894" t="n">
@@ -27246,28 +27246,28 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C895" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -27276,28 +27276,28 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C896" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -27306,12 +27306,12 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
@@ -27323,11 +27323,11 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -27336,24 +27336,24 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C898" t="n">
@@ -27366,28 +27366,28 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -27396,28 +27396,28 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C900" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -27426,40 +27426,70 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
           <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
-      <c r="B901" t="inlineStr">
+      <c r="B902" t="inlineStr">
         <is>
           <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
-      <c r="C901" t="n">
+      <c r="C902" t="n">
         <v>2014</v>
       </c>
-      <c r="D901" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E901" t="inlineStr">
+      <c r="D902" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
-      <c r="F901" t="inlineStr">
+      <c r="F902" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MPTP 0.1: System Description. </t>
+          <t xml:space="preserve"> Translating Mizar for First Order Theorem Provers. </t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -6216,12 +6216,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/S1571-0661(04)80659-5 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36469-2_16 </t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Electron. Notes Theor. Comput. Sci. 86: 147-152 (2003).</t>
+          <t xml:space="preserve"> Mathematical Knowledge Management, Second International Conference, MKM 2003, Bertinoro, Italy, February 16-18, 2003, Proceedings: 203-215 (2003).</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Translating Mizar for First Order Theorem Provers. </t>
+          <t xml:space="preserve"> MPTP 0.1: System Description. </t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -6246,12 +6246,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36469-2_16 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/S1571-0661(04)80659-5 </t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mathematical Knowledge Management, Second International Conference, MKM 2003, Bertinoro, Italy, February 16-18, 2003, Proceedings: 203-215 (2003).</t>
+          <t xml:space="preserve"> 4th International Workshop on First-Order Theorem Proving, FTP 2003, in connection with RDP 2003, Federated Conference on Rewriting, Deduction and Programming, Valencia, Spain, June 12-14, 2003: 147-152 (2003).</t>
         </is>
       </c>
     </row>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F903"/>
+  <dimension ref="A1:F904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24108,16 +24108,16 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Zijin Xu, Ningli Wang, Daniel Sebastian Goc, James Bang </t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Property-Based Conjecturing for Automated Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -24126,12 +24126,12 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2212.11151 </t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2212.11151 (2022).</t>
         </is>
       </c>
     </row>
@@ -24143,11 +24143,11 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
+          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -24156,12 +24156,12 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
+          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
         </is>
       </c>
     </row>
@@ -24173,7 +24173,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
         </is>
       </c>
       <c r="C792" t="n">
@@ -24186,12 +24186,12 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
+          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
         </is>
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
+          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
         </is>
       </c>
     </row>
@@ -24203,7 +24203,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C793" t="n">
@@ -24216,12 +24216,12 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
         </is>
       </c>
     </row>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
         </is>
       </c>
       <c r="C794" t="n">
@@ -24246,12 +24246,12 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
         </is>
       </c>
     </row>
@@ -24263,7 +24263,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
         </is>
       </c>
       <c r="C795" t="n">
@@ -24276,12 +24276,12 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
         </is>
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24293,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
+          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C796" t="n">
@@ -24306,12 +24306,12 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
         </is>
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
         </is>
       </c>
     </row>
@@ -24323,7 +24323,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
         </is>
       </c>
       <c r="C797" t="n">
@@ -24336,12 +24336,12 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
         </is>
       </c>
     </row>
@@ -24353,11 +24353,11 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C798" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -24366,12 +24366,12 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
         </is>
       </c>
     </row>
@@ -24383,7 +24383,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C799" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
         </is>
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
+          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
         </is>
       </c>
     </row>
@@ -24413,7 +24413,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
         </is>
       </c>
       <c r="C800" t="n">
@@ -24426,12 +24426,12 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
         </is>
       </c>
     </row>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C801" t="n">
@@ -24456,12 +24456,12 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
         </is>
       </c>
     </row>
@@ -24473,7 +24473,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Game of Theorems. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C802" t="n">
@@ -24486,12 +24486,12 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
         </is>
       </c>
     </row>
@@ -24503,7 +24503,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
+          <t xml:space="preserve"> Designing Game of Theorems. </t>
         </is>
       </c>
       <c r="C803" t="n">
@@ -24516,28 +24516,28 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
         </is>
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -24546,24 +24546,24 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C805" t="n">
@@ -24576,12 +24576,12 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
         </is>
       </c>
     </row>
@@ -24606,24 +24606,24 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C807" t="n">
@@ -24636,24 +24636,24 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
+          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C808" t="n">
@@ -24666,28 +24666,28 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
         </is>
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -24696,24 +24696,24 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C810" t="n">
@@ -24726,12 +24726,12 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
         </is>
       </c>
     </row>
@@ -24743,11 +24743,11 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proof Strategy Language. </t>
+          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -24756,24 +24756,24 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
+          <t xml:space="preserve"> Proof Strategy Language. </t>
         </is>
       </c>
       <c r="C812" t="n">
@@ -24786,24 +24786,24 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
+          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
+          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
+          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
+          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
         </is>
       </c>
       <c r="C813" t="n">
@@ -24816,24 +24816,24 @@
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
+          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
+          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
         </is>
       </c>
       <c r="C814" t="n">
@@ -24846,24 +24846,24 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
+          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
+          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
         </is>
       </c>
       <c r="C815" t="n">
@@ -24876,24 +24876,24 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
+          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
         </is>
       </c>
       <c r="C816" t="n">
@@ -24906,24 +24906,24 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
         </is>
       </c>
       <c r="C817" t="n">
@@ -24936,28 +24936,28 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
+          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
+          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -24966,28 +24966,28 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
+          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
+          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -24996,28 +24996,28 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
+          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
+          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
+          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -25026,28 +25026,28 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
+          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
+          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -25056,84 +25056,84 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
+          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
+          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>2018</v>
+        <v>1996</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C824" t="n">
@@ -25146,7 +25146,7 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
@@ -25158,16 +25158,16 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -25176,12 +25176,12 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -25197,7 +25197,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -25206,24 +25206,24 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C827" t="n">
@@ -25236,28 +25236,28 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C828" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -25266,28 +25266,28 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -25296,24 +25296,24 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C830" t="n">
@@ -25326,28 +25326,28 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -25356,24 +25356,24 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C832" t="n">
@@ -25386,24 +25386,24 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C833" t="n">
@@ -25416,28 +25416,28 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C834" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -25446,24 +25446,24 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C835" t="n">
@@ -25476,24 +25476,24 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C836" t="n">
@@ -25506,24 +25506,24 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C837" t="n">
@@ -25536,28 +25536,28 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C838" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -25566,24 +25566,24 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C839" t="n">
@@ -25596,24 +25596,24 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C840" t="n">
@@ -25626,24 +25626,24 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C841" t="n">
@@ -25656,28 +25656,28 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -25686,24 +25686,24 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C843" t="n">
@@ -25716,24 +25716,24 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -25746,24 +25746,24 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C845" t="n">
@@ -25776,24 +25776,24 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C846" t="n">
@@ -25806,24 +25806,24 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -25836,24 +25836,24 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C848" t="n">
@@ -25866,28 +25866,28 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -25896,12 +25896,12 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -25913,7 +25913,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C850" t="n">
@@ -25926,12 +25926,12 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -25943,7 +25943,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C851" t="n">
@@ -25956,24 +25956,24 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C852" t="n">
@@ -25986,28 +25986,28 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -26016,28 +26016,28 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -26046,28 +26046,28 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -26076,24 +26076,24 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C856" t="n">
@@ -26106,24 +26106,24 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C857" t="n">
@@ -26136,28 +26136,28 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C858" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -26166,24 +26166,24 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C859" t="n">
@@ -26196,28 +26196,28 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C860" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -26226,24 +26226,24 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C861" t="n">
@@ -26256,24 +26256,24 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C862" t="n">
@@ -26286,28 +26286,28 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C863" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -26316,28 +26316,28 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -26346,24 +26346,24 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C865" t="n">
@@ -26376,24 +26376,24 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C866" t="n">
@@ -26411,23 +26411,23 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C867" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -26436,24 +26436,24 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C868" t="n">
@@ -26466,24 +26466,24 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C869" t="n">
@@ -26496,28 +26496,28 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C870" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -26526,24 +26526,24 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,24 +26556,24 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -26586,24 +26586,24 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C873" t="n">
@@ -26616,24 +26616,24 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C874" t="n">
@@ -26646,24 +26646,24 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -26676,24 +26676,24 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -26706,28 +26706,28 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C877" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -26736,24 +26736,24 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -26766,24 +26766,24 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -26796,24 +26796,24 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C880" t="n">
@@ -26826,24 +26826,24 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -26856,24 +26856,24 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,28 +26886,28 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -26916,24 +26916,24 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C884" t="n">
@@ -26946,24 +26946,24 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C885" t="n">
@@ -26976,28 +26976,28 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C886" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -27006,28 +27006,28 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C887" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -27036,28 +27036,28 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C888" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -27066,24 +27066,24 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C889" t="n">
@@ -27096,24 +27096,24 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C890" t="n">
@@ -27126,28 +27126,28 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C891" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -27156,12 +27156,12 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
@@ -27173,7 +27173,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -27186,28 +27186,28 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C893" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -27216,12 +27216,12 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C894" t="n">
@@ -27246,24 +27246,24 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -27276,24 +27276,24 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -27306,28 +27306,28 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -27336,28 +27336,28 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -27366,12 +27366,12 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
@@ -27383,11 +27383,11 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -27396,24 +27396,24 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C900" t="n">
@@ -27426,28 +27426,28 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C901" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -27456,28 +27456,28 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C902" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -27486,40 +27486,70 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
           <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
-      <c r="B903" t="inlineStr">
+      <c r="B904" t="inlineStr">
         <is>
           <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
-      <c r="C903" t="n">
+      <c r="C904" t="n">
         <v>2014</v>
       </c>
-      <c r="D903" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E903" t="inlineStr">
+      <c r="D904" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
-      <c r="F903" t="inlineStr">
+      <c r="F904" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -8898,7 +8898,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nikolaos Passalis, S. Pedrazzi, Robert Babuska, Wolfram Burgard, D. Dias, F. Ferro, Moncef Gabbouj, O. Green, Alexandros Iosifidis, E. Kayacan, Jens Kober, O. Michel, N. Nikolaidis, Paraskevi Nousi, R. Pieters, Maria Tzelepi, Abhinav Valada, Anastasios Tefas </t>
+          <t xml:space="preserve">Nikolaos Passalis, S. Pedrazzi, Robert Babuska, Wolfram Burgard, D. Dias, F. Ferro, Moncef Gabbouj, O. Green, Alexandros Iosifidis, E. Kayacan, Jens Kober, O. Michel, Nikos Nikolaidis, Paraskevi Nousi, R. Pieters, Maria Tzelepi, Abhinav Valada, Anastasios Tefas </t>
         </is>
       </c>
       <c r="B283" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -5898,12 +5898,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Josef Urban, Grzegorz Bancerek </t>
+          <t xml:space="preserve">Josef Urban </t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Presenting and Explaining Mizar. </t>
+          <t xml:space="preserve"> MaLARea: a Metasystem for Automated Reasoning in Large Theories. </t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -5916,24 +5916,24 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.entcs.2006.09.022 </t>
+          <t xml:space="preserve"> http://ceur-ws.org/Vol-257/05_Urban.pdf </t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Electron. Notes Theor. Comput. Sci. 174: 63-74 (2007).</t>
+          <t xml:space="preserve"> Proceedings of the CADE-21 Workshop on Empirically Successful Automated Reasoning in Large Theories, Bremen, Germany, 17th July 2007: (2007).</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Josef Urban </t>
+          <t xml:space="preserve">Josef Urban, Geoff Sutcliffe </t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MaLARea: a Metasystem for Automated Reasoning in Large Theories. </t>
+          <t xml:space="preserve"> ATP Cross-Verification of the Mizar MPTP Challenge Problems. </t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -5946,24 +5946,24 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-257/05_Urban.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-75560-9_39 </t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the CADE-21 Workshop on Empirically Successful Automated Reasoning in Large Theories, Bremen, Germany, 17th July 2007: (2007).</t>
+          <t xml:space="preserve"> Logic for Programming, Artificial Intelligence, and Reasoning, 14th International Conference, LPAR 2007, Yerevan, Armenia, October 15-19, 2007, Proceedings: 546-560 (2007).</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Josef Urban, Geoff Sutcliffe </t>
+          <t xml:space="preserve">Geoff Sutcliffe, Josef Urban, Stephan Schulz </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATP Cross-Verification of the Mizar MPTP Challenge Problems. </t>
+          <t xml:space="preserve"> Proceedings of the CADE-21 Workshop on Empirically Successful Automated Reasoning in Large Theories, Bremen, Germany, 17th July 2007 </t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -5976,28 +5976,28 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-75560-9_39 </t>
+          <t xml:space="preserve"> https://nbn-resolving.org/urn:nbn:de:0074-257-8 </t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logic for Programming, Artificial Intelligence, and Reasoning, 14th International Conference, LPAR 2007, Yerevan, Armenia, October 15-19, 2007, Proceedings: 546-560 (2007).</t>
+          <t xml:space="preserve"> CEUR Workshop Proceedings 257 (2007).</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geoff Sutcliffe, Josef Urban, Stephan Schulz </t>
+          <t xml:space="preserve">Josef Urban </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the CADE-21 Workshop on Empirically Successful Automated Reasoning in Large Theories, Bremen, Germany, 17th July 2007 </t>
+          <t xml:space="preserve"> Momm - Fast Interreduction and Retrieval in Large Libraries of Formalized Mathematics. </t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://nbn-resolving.org/urn:nbn:de:0074-257-8 </t>
+          <t xml:space="preserve"> https://doi.org/10.1142/S0218213006002588 </t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CEUR Workshop Proceedings 257 (2007).</t>
+          <t xml:space="preserve"> Int. J. Artif. Intell. Tools 15: 109-130 (2006).</t>
         </is>
       </c>
     </row>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Momm - Fast Interreduction and Retrieval in Large Libraries of Formalized Mathematics. </t>
+          <t xml:space="preserve"> MizarMode - an integrated proof assistance tool for the Mizar way of formalizing mathematics. </t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1142/S0218213006002588 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.jal.2005.10.004 </t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Int. J. Artif. Intell. Tools 15: 109-130 (2006).</t>
+          <t xml:space="preserve"> J. Appl. Log. 4: 414-427 (2006).</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MizarMode - an integrated proof assistance tool for the Mizar way of formalizing mathematics. </t>
+          <t xml:space="preserve"> MPTP 0.2: Design, Implementation, and Initial Experiments. </t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -6066,24 +6066,24 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.jal.2005.10.004 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10817-006-9032-3 </t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Appl. Log. 4: 414-427 (2006).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 37: 21-43 (2006).</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Josef Urban </t>
+          <t xml:space="preserve">Josef Urban, Grzegorz Bancerek </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MPTP 0.2: Design, Implementation, and Initial Experiments. </t>
+          <t xml:space="preserve"> Presenting and Explaining Mizar. </t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -6096,12 +6096,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10817-006-9032-3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.entcs.2006.09.022 </t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 37: 21-43 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the 7th Workshop on User Interfaces for Theorem Provers, UITP@FLoC 2006, Seattle, WA, USA, August 21, 2006: 63-74 (2006).</t>
         </is>
       </c>
     </row>
@@ -21318,12 +21318,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chad E. Brown </t>
+          <t xml:space="preserve">Feryal Fulya Horozal, Chad E. Brown </t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Encoding Functional Relations in Scunak. </t>
+          <t xml:space="preserve"> Formal Representation of Mathematics in a Dependently Typed Set Theory. </t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -21336,28 +21336,28 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.entcs.2007.01.022 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-73086-6_22 </t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Electron. Notes Theor. Comput. Sci. 174: 127-139 (2007).</t>
+          <t xml:space="preserve"> Towards Mechanized Mathematical Assistants, 14th Symposium, Calculemus 2007, 6th International Conference, MKM 2007, Hagenberg, Austria, June 27-30, 2007, Proceedings: 265-279 (2007).</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feryal Fulya Horozal, Chad E. Brown </t>
+          <t xml:space="preserve">Peter B. Andrews, Chad E. Brown </t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Formal Representation of Mathematics in a Dependently Typed Set Theory. </t>
+          <t xml:space="preserve"> TPS: A hybrid automatic-interactive system for developing proofs. </t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -21366,24 +21366,24 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-73086-6_22 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.jal.2005.10.002 </t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Mechanized Mathematical Assistants, 14th Symposium, Calculemus 2007, 6th International Conference, MKM 2007, Hagenberg, Austria, June 27-30, 2007, Proceedings: 265-279 (2007).</t>
+          <t xml:space="preserve"> J. Appl. Log. 4: 367-395 (2006).</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter B. Andrews, Chad E. Brown </t>
+          <t xml:space="preserve">Chad E. Brown </t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TPS: A hybrid automatic-interactive system for developing proofs. </t>
+          <t xml:space="preserve"> Combining Type Theory and Untyped Set Theory. </t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -21396,24 +21396,24 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.jal.2005.10.002 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11814771_19 </t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Appl. Log. 4: 367-395 (2006).</t>
+          <t xml:space="preserve"> Automated Reasoning, Third International Joint Conference, IJCAR 2006, Seattle, WA, USA, August 17-20, 2006, Proceedings: 205-219 (2006).</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chad E. Brown </t>
+          <t xml:space="preserve">Christoph Benzmüller, Chad E. Brown, Michael Kohlhase </t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Combining Type Theory and Untyped Set Theory. </t>
+          <t xml:space="preserve"> Cut-Simulation in Impredicative Logics. </t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -21426,24 +21426,24 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11814771_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11814771_20 </t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning, Third International Joint Conference, IJCAR 2006, Seattle, WA, USA, August 17-20, 2006, Proceedings: 205-219 (2006).</t>
+          <t xml:space="preserve"> Automated Reasoning, Third International Joint Conference, IJCAR 2006, Seattle, WA, USA, August 17-20, 2006, Proceedings: 220-234 (2006).</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christoph Benzmüller, Chad E. Brown, Michael Kohlhase </t>
+          <t xml:space="preserve">Chad E. Brown </t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cut-Simulation in Impredicative Logics. </t>
+          <t xml:space="preserve"> Verifying and Invalidating Textbook Proofs Using Scunak. </t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -21456,12 +21456,12 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11814771_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11812289_10 </t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning, Third International Joint Conference, IJCAR 2006, Seattle, WA, USA, August 17-20, 2006, Proceedings: 220-234 (2006).</t>
+          <t xml:space="preserve"> Mathematical Knowledge Management, 5th International Conference, MKM 2006, Wokingham, UK, August 11-12, 2006, Proceedings: 110-123 (2006).</t>
         </is>
       </c>
     </row>
@@ -21473,7 +21473,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verifying and Invalidating Textbook Proofs Using Scunak. </t>
+          <t xml:space="preserve"> Encoding Functional Relations in Scunak. </t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -21486,12 +21486,12 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11812289_10 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.entcs.2007.01.022 </t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mathematical Knowledge Management, 5th International Conference, MKM 2006, Wokingham, UK, August 11-12, 2006, Proceedings: 110-123 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the First International Workshop on Logical Frameworks and Meta-Languages: Theory and Practice, LFMTP@FLoC 2006, Seattle, WA, USA, August 16, 2006: 127-139 (2006).</t>
         </is>
       </c>
     </row>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F905"/>
+  <dimension ref="A1:F906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24078,12 +24078,12 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Kazuyuki Kaneda, Yuki Sato, Ayanari Sibayama, Kiyoshi Horie, Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Definitional Quantifiers Realise Semantic Reasoning for Proof by Induction. </t>
+          <t xml:space="preserve"> An Underwater Environment Measuring System and Three-Dimensional Visualization of Underwater Structure Using Underwater Drone and 5G Network. </t>
         </is>
       </c>
       <c r="C789" t="n">
@@ -24096,12 +24096,12 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-09827-7_4 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/GCCE56475.2022.10014198 </t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tests and Proofs - 16th International Conference, TAP 2022, Held as Part of STAF 2022, Nantes, France, July 5, 2022, Proceedings: 48-66 (2022).</t>
+          <t xml:space="preserve"> 11th IEEE Global Conference on Consumer Electronics, GCCE 2022, Osaka, Japan, October 18-21, 2022: 860-861 (2022).</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm for Program Synthesis. </t>
+          <t xml:space="preserve"> Definitional Quantifiers Realise Semantic Reasoning for Proof by Induction. </t>
         </is>
       </c>
       <c r="C790" t="n">
@@ -24126,24 +24126,24 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2211.11937 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-09827-7_4 </t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2211.11937 (2022).</t>
+          <t xml:space="preserve"> Tests and Proofs - 16th International Conference, TAP 2022, Held as Part of STAF 2022, Nantes, France, July 5, 2022, Proceedings: 48-66 (2022).</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Zijin Xu, Ningli Wang, Daniel Sebastian Goc, James Bang </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Property-Based Conjecturing for Automated Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Genetic Algorithm for Program Synthesis. </t>
         </is>
       </c>
       <c r="C791" t="n">
@@ -24156,28 +24156,28 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2212.11151 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2211.11937 </t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2212.11151 (2022).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2211.11937 (2022).</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Zijin Xu, Ningli Wang, Daniel Sebastian Goc, James Bang </t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Property-Based Conjecturing for Automated Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -24186,12 +24186,12 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2212.11151 </t>
         </is>
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2212.11151 (2022).</t>
         </is>
       </c>
     </row>
@@ -24203,11 +24203,11 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
+          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -24216,12 +24216,12 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
+          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
         </is>
       </c>
     </row>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
         </is>
       </c>
       <c r="C794" t="n">
@@ -24246,12 +24246,12 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
+          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
+          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
         </is>
       </c>
     </row>
@@ -24263,7 +24263,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C795" t="n">
@@ -24276,12 +24276,12 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
         </is>
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24293,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
         </is>
       </c>
       <c r="C796" t="n">
@@ -24306,12 +24306,12 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
         </is>
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
         </is>
       </c>
     </row>
@@ -24323,7 +24323,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
         </is>
       </c>
       <c r="C797" t="n">
@@ -24336,12 +24336,12 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
         </is>
       </c>
     </row>
@@ -24353,7 +24353,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
+          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C798" t="n">
@@ -24366,12 +24366,12 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
         </is>
       </c>
     </row>
@@ -24383,7 +24383,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
         </is>
       </c>
       <c r="C799" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
         </is>
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
         </is>
       </c>
     </row>
@@ -24413,11 +24413,11 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -24426,12 +24426,12 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
         </is>
       </c>
     </row>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C801" t="n">
@@ -24456,12 +24456,12 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
+          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
         </is>
       </c>
     </row>
@@ -24473,7 +24473,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
         </is>
       </c>
       <c r="C802" t="n">
@@ -24486,12 +24486,12 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
         </is>
       </c>
     </row>
@@ -24503,7 +24503,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C803" t="n">
@@ -24516,12 +24516,12 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
         </is>
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Game of Theorems. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C804" t="n">
@@ -24546,12 +24546,12 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
         </is>
       </c>
     </row>
@@ -24563,7 +24563,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
+          <t xml:space="preserve"> Designing Game of Theorems. </t>
         </is>
       </c>
       <c r="C805" t="n">
@@ -24576,28 +24576,28 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -24606,24 +24606,24 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C807" t="n">
@@ -24636,12 +24636,12 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
         </is>
       </c>
     </row>
@@ -24666,24 +24666,24 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
         </is>
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C809" t="n">
@@ -24696,24 +24696,24 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
+          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C810" t="n">
@@ -24726,28 +24726,28 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -24756,24 +24756,24 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C812" t="n">
@@ -24786,12 +24786,12 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
         </is>
       </c>
     </row>
@@ -24803,11 +24803,11 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proof Strategy Language. </t>
+          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
         </is>
       </c>
       <c r="C813" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -24816,24 +24816,24 @@
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
+          <t xml:space="preserve"> Proof Strategy Language. </t>
         </is>
       </c>
       <c r="C814" t="n">
@@ -24846,24 +24846,24 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
+          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
+          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
+          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
+          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
         </is>
       </c>
       <c r="C815" t="n">
@@ -24876,24 +24876,24 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
+          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
+          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
         </is>
       </c>
       <c r="C816" t="n">
@@ -24906,24 +24906,24 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
+          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
+          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
         </is>
       </c>
       <c r="C817" t="n">
@@ -24936,24 +24936,24 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
+          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
         </is>
       </c>
       <c r="C818" t="n">
@@ -24966,24 +24966,24 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
         </is>
       </c>
       <c r="C819" t="n">
@@ -24996,28 +24996,28 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
+          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
+          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -25026,28 +25026,28 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
+          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
+          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -25056,28 +25056,28 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
+          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
+          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
+          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -25086,28 +25086,28 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
+          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
+          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -25116,84 +25116,84 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
+          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
+          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
         </is>
       </c>
       <c r="C824" t="n">
-        <v>2018</v>
+        <v>1996</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C826" t="n">
@@ -25206,7 +25206,7 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
@@ -25218,16 +25218,16 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C827" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -25236,12 +25236,12 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -25257,7 +25257,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -25266,24 +25266,24 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C829" t="n">
@@ -25296,28 +25296,28 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -25326,28 +25326,28 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -25356,24 +25356,24 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C832" t="n">
@@ -25386,28 +25386,28 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C833" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -25416,24 +25416,24 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C834" t="n">
@@ -25446,24 +25446,24 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C835" t="n">
@@ -25476,28 +25476,28 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -25506,24 +25506,24 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C837" t="n">
@@ -25536,24 +25536,24 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -25566,24 +25566,24 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C839" t="n">
@@ -25596,28 +25596,28 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -25626,24 +25626,24 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C841" t="n">
@@ -25656,24 +25656,24 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C842" t="n">
@@ -25686,24 +25686,24 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C843" t="n">
@@ -25716,28 +25716,28 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C844" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -25746,24 +25746,24 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C845" t="n">
@@ -25776,24 +25776,24 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C846" t="n">
@@ -25806,24 +25806,24 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -25836,24 +25836,24 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C848" t="n">
@@ -25866,24 +25866,24 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C849" t="n">
@@ -25896,24 +25896,24 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C850" t="n">
@@ -25926,28 +25926,28 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -25956,12 +25956,12 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -25973,7 +25973,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C852" t="n">
@@ -25986,12 +25986,12 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -26003,7 +26003,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C853" t="n">
@@ -26016,24 +26016,24 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C854" t="n">
@@ -26046,28 +26046,28 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -26076,28 +26076,28 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -26106,28 +26106,28 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C857" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -26136,24 +26136,24 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C858" t="n">
@@ -26166,24 +26166,24 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C859" t="n">
@@ -26196,28 +26196,28 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C860" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -26226,24 +26226,24 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C861" t="n">
@@ -26256,28 +26256,28 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C862" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -26286,24 +26286,24 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C863" t="n">
@@ -26316,24 +26316,24 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C864" t="n">
@@ -26346,28 +26346,28 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -26376,28 +26376,28 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C866" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -26406,24 +26406,24 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -26436,24 +26436,24 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C868" t="n">
@@ -26471,23 +26471,23 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -26496,24 +26496,24 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -26526,24 +26526,24 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,28 +26556,28 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C872" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -26586,24 +26586,24 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C873" t="n">
@@ -26616,24 +26616,24 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C874" t="n">
@@ -26646,24 +26646,24 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -26676,24 +26676,24 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -26706,24 +26706,24 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,24 +26736,24 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -26766,28 +26766,28 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C879" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -26796,24 +26796,24 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C880" t="n">
@@ -26826,24 +26826,24 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -26856,24 +26856,24 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,24 +26886,24 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C883" t="n">
@@ -26916,24 +26916,24 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C884" t="n">
@@ -26946,28 +26946,28 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C885" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -26976,24 +26976,24 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -27006,24 +27006,24 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C887" t="n">
@@ -27036,28 +27036,28 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C888" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -27066,28 +27066,28 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C889" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -27096,28 +27096,28 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C890" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -27126,24 +27126,24 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C891" t="n">
@@ -27156,24 +27156,24 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -27186,28 +27186,28 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C893" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -27216,12 +27216,12 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C894" t="n">
@@ -27246,28 +27246,28 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C895" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -27276,12 +27276,12 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
@@ -27293,7 +27293,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -27306,24 +27306,24 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C897" t="n">
@@ -27336,24 +27336,24 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C898" t="n">
@@ -27366,28 +27366,28 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -27396,28 +27396,28 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C900" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -27426,12 +27426,12 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
@@ -27443,11 +27443,11 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C901" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -27456,24 +27456,24 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C902" t="n">
@@ -27486,28 +27486,28 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C903" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -27516,28 +27516,28 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C904" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -27546,40 +27546,70 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
           <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
-      <c r="B905" t="inlineStr">
+      <c r="B906" t="inlineStr">
         <is>
           <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
-      <c r="C905" t="n">
+      <c r="C906" t="n">
         <v>2014</v>
       </c>
-      <c r="D905" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E905" t="inlineStr">
+      <c r="D906" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
-      <c r="F905" t="inlineStr">
+      <c r="F906" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F913"/>
+  <dimension ref="A1:F906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24198,16 +24198,16 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kazuyuki Kaneda, Yuki Sato, Ayanari Sibayama, Kiyoshi Horie, Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Underwater Environment Measuring System and Three-Dimensional Visualization of Underwater Structure Using Underwater Drone and 5G Network. </t>
+          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -24216,12 +24216,12 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/GCCE56475.2022.10014198 </t>
+          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11th IEEE Global Conference on Consumer Electronics, GCCE 2022, Osaka, Japan, October 18-21, 2022: 860-861 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
         </is>
       </c>
     </row>
@@ -24233,11 +24233,11 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Definitional Quantifiers Realise Semantic Reasoning for Proof by Induction. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
         </is>
       </c>
       <c r="C794" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -24246,12 +24246,12 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-09827-7_4 </t>
+          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tests and Proofs - 16th International Conference, TAP 2022, Held as Part of STAF 2022, Nantes, France, July 5, 2022, Proceedings: 48-66 (2022).</t>
+          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
         </is>
       </c>
     </row>
@@ -24263,11 +24263,11 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm for Program Synthesis. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -24276,28 +24276,28 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2211.11937 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
         </is>
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2211.11937 (2022).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Zijin Xu, Ningli Wang, Daniel Sebastian Goc, James Bang </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Property-Based Conjecturing for Automated Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -24306,12 +24306,12 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2212.11151 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
         </is>
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2212.11151 (2022).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
         </is>
       </c>
     </row>
@@ -24323,11 +24323,11 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
         </is>
       </c>
       <c r="C797" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -24336,12 +24336,12 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
         </is>
       </c>
     </row>
@@ -24353,7 +24353,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
+          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C798" t="n">
@@ -24366,12 +24366,12 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
         </is>
       </c>
     </row>
@@ -24383,7 +24383,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
         </is>
       </c>
       <c r="C799" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
         </is>
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
         </is>
       </c>
     </row>
@@ -24413,7 +24413,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
+          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C800" t="n">
@@ -24426,12 +24426,12 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
         </is>
       </c>
     </row>
@@ -24443,11 +24443,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -24456,12 +24456,12 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
         </is>
       </c>
     </row>
@@ -24473,11 +24473,11 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -24486,12 +24486,12 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
         </is>
       </c>
     </row>
@@ -24503,11 +24503,11 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
+          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -24516,12 +24516,12 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
         </is>
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
         </is>
       </c>
     </row>
@@ -24533,11 +24533,11 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -24546,12 +24546,12 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
         </is>
       </c>
     </row>
@@ -24563,7 +24563,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Designing Game of Theorems. </t>
         </is>
       </c>
       <c r="C805" t="n">
@@ -24576,12 +24576,12 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
         </is>
       </c>
     </row>
@@ -24593,7 +24593,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
+          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
         </is>
       </c>
       <c r="C806" t="n">
@@ -24606,28 +24606,28 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
+          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -24636,28 +24636,28 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -24666,28 +24666,28 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
         </is>
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Game of Theorems. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -24696,28 +24696,28 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
+          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C810" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -24726,24 +24726,24 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
         </is>
       </c>
       <c r="C811" t="n">
@@ -24756,28 +24756,28 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -24786,28 +24786,28 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
+          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
         </is>
       </c>
       <c r="C813" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -24816,28 +24816,28 @@
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Proof Strategy Language. </t>
         </is>
       </c>
       <c r="C814" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -24846,28 +24846,28 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
+          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
+          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -24876,28 +24876,28 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -24906,28 +24906,28 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
+          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
+          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -24936,24 +24936,24 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proof Strategy Language. </t>
+          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
         </is>
       </c>
       <c r="C818" t="n">
@@ -24966,24 +24966,24 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
         </is>
       </c>
       <c r="C819" t="n">
@@ -24996,24 +24996,24 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
+          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
+          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
         </is>
       </c>
       <c r="C820" t="n">
@@ -25026,298 +25026,298 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
+          <t xml:space="preserve">Zhangir Azerbayev, Bartosz Piotrowski, Hailey Schoelkopf, Edward W. Ayers, Dragomir Radev, Jeremy Avigad </t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
+          <t xml:space="preserve"> ProofNet: Autoformalizing and Formally Proving Undergraduate-Level Mathematics. </t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2302.12433 </t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2302.12433 (2023).</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C824" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Nobuyoshi Taguchi, Takakazu Ishimatsu, Hirofumi Inoue </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Development of a Compact Autonomous Underwater vehicle Using Varivec Propeller. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2002.p0112 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 14: 112-117 (2002).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu, Jamal Tariq Mian </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AUV with Variable Vector Propeller. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.20965/jrm.2000.p0060 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Robotics Mechatronics 12: 60-65 (2000).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Morphological Approach to Fish Discrimination. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C827" t="n">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1998/papers/1998306.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1998, November 17-19, 1998, Chiba, Japan: 306-309 (1998).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Takeshi Nakazono, Takakazu Ishimatsu </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Implementation of Features Extraction Using Morphological Filter. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C828" t="n">
-        <v>1996</v>
+        <v>2015</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://b2.cvl.iis.u-tokyo.ac.jp/mva/proceedings/CommemorativeDVD/1996/papers/1996426.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of IAPR Workshop on Machine Vision Applications, MVA 1996, November 12-14, 1996, Tokyo, Japan: 426-429 (1996).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> ML </t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -25326,28 +25326,28 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -25356,28 +25356,28 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -25386,28 +25386,28 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C833" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -25416,28 +25416,28 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C834" t="n">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -25446,28 +25446,28 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C835" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -25476,28 +25476,28 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -25506,28 +25506,28 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C837" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -25536,28 +25536,28 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C838" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -25566,28 +25566,28 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -25596,28 +25596,28 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -25626,28 +25626,28 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C841" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -25656,28 +25656,28 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -25686,28 +25686,28 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C843" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -25716,12 +25716,12 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
@@ -25733,11 +25733,11 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C844" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -25746,12 +25746,12 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
@@ -25763,11 +25763,11 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C845" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -25776,12 +25776,12 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
@@ -25793,11 +25793,11 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C846" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -25806,28 +25806,28 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C847" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -25836,28 +25836,28 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C848" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -25866,28 +25866,28 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -25896,28 +25896,28 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C850" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -25926,12 +25926,12 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
@@ -25943,11 +25943,11 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -25956,28 +25956,28 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -25986,28 +25986,28 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -26016,28 +26016,28 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -26046,28 +26046,28 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -26076,28 +26076,28 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -26106,28 +26106,28 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C857" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -26136,28 +26136,28 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C858" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -26166,28 +26166,28 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C859" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -26196,28 +26196,28 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C860" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -26226,28 +26226,28 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C861" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -26256,28 +26256,28 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C862" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -26286,28 +26286,28 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C863" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -26316,28 +26316,28 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -26346,28 +26346,28 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -26376,28 +26376,28 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C866" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -26406,28 +26406,28 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C867" t="n">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -26436,28 +26436,28 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C868" t="n">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -26466,28 +26466,28 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -26496,28 +26496,28 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C870" t="n">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -26526,28 +26526,28 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C871" t="n">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -26556,28 +26556,28 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C872" t="n">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -26586,28 +26586,28 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C873" t="n">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -26616,28 +26616,28 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C874" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -26646,28 +26646,28 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C875" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -26676,28 +26676,28 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C876" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -26706,28 +26706,28 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C877" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -26736,28 +26736,28 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C878" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -26766,28 +26766,28 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C879" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -26796,28 +26796,28 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -26826,28 +26826,28 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C881" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -26856,28 +26856,28 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C882" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -26886,28 +26886,28 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -26916,28 +26916,28 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C884" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -26946,28 +26946,28 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C885" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -26976,28 +26976,28 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C886" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -27006,28 +27006,28 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C887" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -27036,28 +27036,28 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C888" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -27066,28 +27066,28 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C889" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -27096,28 +27096,28 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C890" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -27126,28 +27126,28 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C891" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -27156,28 +27156,28 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C892" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -27186,28 +27186,28 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C893" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -27216,28 +27216,28 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C894" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -27246,28 +27246,28 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C895" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -27276,28 +27276,28 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C896" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -27306,28 +27306,28 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -27336,28 +27336,28 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -27366,28 +27366,28 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -27396,28 +27396,28 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C900" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -27426,28 +27426,28 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C901" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -27456,28 +27456,28 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
         </is>
       </c>
       <c r="C902" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -27486,24 +27486,24 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
       <c r="C903" t="n">
@@ -27516,28 +27516,28 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
         </is>
       </c>
       <c r="C904" t="n">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -27546,24 +27546,24 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
         </is>
       </c>
       <c r="C905" t="n">
@@ -27576,28 +27576,28 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Martin Vastl, Daniel Zeman, Rudolf Rosa </t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task. </t>
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -27606,220 +27606,10 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.03920 </t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
-        </is>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
-        </is>
-      </c>
-      <c r="C907" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D907" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E907" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
-        </is>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
-        </is>
-      </c>
-      <c r="B908" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
-        </is>
-      </c>
-      <c r="C908" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D908" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E908" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
-        </is>
-      </c>
-      <c r="F908" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
-        </is>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
-        </is>
-      </c>
-      <c r="B909" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
-        </is>
-      </c>
-      <c r="C909" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D909" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E909" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
-        </is>
-      </c>
-      <c r="F909" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
-        </is>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
-        </is>
-      </c>
-      <c r="B910" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
-        </is>
-      </c>
-      <c r="C910" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D910" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E910" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
-        </is>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
-        </is>
-      </c>
-      <c r="B911" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
-        </is>
-      </c>
-      <c r="C911" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D911" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E911" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
-        </is>
-      </c>
-      <c r="F911" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
-        </is>
-      </c>
-      <c r="B912" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
-        </is>
-      </c>
-      <c r="C912" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D912" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E912" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
-        </is>
-      </c>
-      <c r="F912" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin Vastl, Daniel Zeman, Rudolf Rosa </t>
-        </is>
-      </c>
-      <c r="B913" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task. </t>
-        </is>
-      </c>
-      <c r="C913" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D913" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E913" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.03920 </t>
-        </is>
-      </c>
-      <c r="F913" t="inlineStr">
         <is>
           <t xml:space="preserve"> arXiv CoRR abs/2010.03920 (2020).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-1785/W23.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-1785/W23.pdf </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-760/paper2.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-760/paper2.pdf </t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-767/paper-09.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-767/paper-09.pdf </t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-767 </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-767 </t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-418/paper1.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-418/paper1.pdf </t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-257/05_Urban.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-257/05_Urban.pdf </t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-3185/abstract697.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-3185/abstract697.pdf </t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-2908/short6.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2908/short6.pdf </t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-2908/paper7.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2908/paper7.pdf </t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-2011/paper4.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2011/paper4.pdf </t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-2011/paper5.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2011/paper5.pdf </t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-1617/paper8.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-1617/paper8.pdf </t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-3201/paper10.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-3201/paper10.pdf </t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-2752/paper2.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2752/paper2.pdf </t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -19206,7 +19206,7 @@
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-2752/paper3.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2752/paper3.pdf </t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -19776,7 +19776,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-1889/paper6.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-1889/paper6.pdf </t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -22986,7 +22986,7 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-3226/paper8.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-3226/paper8.pdf </t>
         </is>
       </c>
       <c r="F752" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-3226/paper12.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-3226/paper12.pdf </t>
         </is>
       </c>
       <c r="F753" t="inlineStr">
@@ -23046,7 +23046,7 @@
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-2962/paper49.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2962/paper49.pdf </t>
         </is>
       </c>
       <c r="F754" t="inlineStr">
@@ -23106,7 +23106,7 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ceur-ws.org/Vol-2718/paper30.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2718/paper30.pdf </t>
         </is>
       </c>
       <c r="F756" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -9018,7 +9018,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nikolaos Passalis, S. Pedrazzi, Robert Babuska, Wolfram Burgard, D. Dias, F. Ferro, Moncef Gabbouj, O. Green, Alexandros Iosifidis, E. Kayacan, Jens Kober, O. Michel, Nikos Nikolaidis, Paraskevi Nousi, R. Pieters, Maria Tzelepi, Abhinav Valada, Anastasios Tefas </t>
+          <t xml:space="preserve">Nikolaos Passalis, S. Pedrazzi, Robert Babuska, Wolfram Burgard, D. Dias, F. Ferro, Moncef Gabbouj, O. Green, Alexandros Iosifidis, E. Kayacan, Jens Kober, O. Michel, Nikos Nikolaidis, Paraskevi Nousi, Roel Pieters, Maria Tzelepi, Abhinav Valada, Anastasios Tefas </t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -9048,7 +9048,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nikolaos Passalis, S. Pedrazzi, Robert Babuska, Wolfram Burgard, D. Dias, F. Ferro, Moncef Gabbouj, O. Green, Alexandros Iosifidis, E. Kayacan, Jens Kober, O. Michel, Nikolaos Nikolaidis, Paraskevi Nousi, R. Pieters, Maria Tzelepi, Abhinav Valada, Anastasios Tefas </t>
+          <t xml:space="preserve">Nikolaos Passalis, S. Pedrazzi, Robert Babuska, Wolfram Burgard, D. Dias, F. Ferro, Moncef Gabbouj, O. Green, Alexandros Iosifidis, E. Kayacan, Jens Kober, O. Michel, Nikolaos Nikolaidis, Paraskevi Nousi, Roel Pieters, Maria Tzelepi, Abhinav Valada, Anastasios Tefas </t>
         </is>
       </c>
       <c r="B288" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/SYNASC.2017.00036 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/SYNASC.2017.00036 </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ICASSP.2009.4960686 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ICASSP.2009.4960686 </t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/IAT.2005.42 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/IAT.2005.42 </t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/SPLINE.2007.36 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/SPLINE.2007.36 </t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
@@ -26016,7 +26016,7 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
@@ -26076,7 +26076,7 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
@@ -26376,7 +26376,7 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
@@ -27306,7 +27306,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -18348,7 +18348,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lucas Bordeaux, Mikolás Janota, João P. Marques Silva, Pierre Marquis </t>
+          <t xml:space="preserve">Lucas Bordeaux, Mikolás Janota, João Marques-Silva, Pierre Marquis </t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -18408,7 +18408,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mikolás Janota, João P. Marques Silva </t>
+          <t xml:space="preserve">Mikolás Janota, João Marques-Silva </t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -18468,7 +18468,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mikolás Janota, João P. Marques Silva </t>
+          <t xml:space="preserve">Mikolás Janota, João Marques-Silva </t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -18498,7 +18498,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t xml:space="preserve">Huan Chen, Mikolás Janota, João P. Marques Silva </t>
+          <t xml:space="preserve">Huan Chen, Mikolás Janota, João Marques-Silva </t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -18588,7 +18588,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mikolás Janota, Goetz Botterweck, Radu Grigore, João P. Marques Silva </t>
+          <t xml:space="preserve">Mikolás Janota, Goetz Botterweck, Radu Grigore, João Marques-Silva </t>
         </is>
       </c>
       <c r="B606" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2301.11479 (2023).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2301-11479', 'AU': ['Gauthier, Thibault', 'Olsák, Miroslav', 'Urban, Josef'], 'TI': 'Alien Coding.', 'JO': 'CoRR', 'VL': 'abs/2301.11479', 'PY': '2023//', 'DO': '10.48550/arXiv.2301.11479', 'UR': 'https://doi.org/10.48550/arXiv.2301.11479'}</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2303.06686 (2023).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2303-06686', 'AU': ['Jakubuv, Jan', 'Chvalovský, Karel', 'Goertzel, Zarathustra Amadeus', 'Kaliszyk, Cezary', 'Olsák, Mirek', 'Piotrowski, Bartosz', 'Schulz, Stephan', 'Suda, Martin', 'Urban, Josef'], 'TI': 'MizAR 60 for Mizar 50.', 'JO': 'CoRR', 'VL': 'abs/2303.06686', 'PY': '2023//', 'DO': '10.48550/arXiv.2303.06686', 'UR': 'https://doi.org/10.48550/arXiv.2303.06686'}</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2201.12266 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2201-12266', 'AU': ['Trommler, Kimberley Parsons', 'Hafner, Matthias', 'Kellerer, Wolfgang', 'Merz, Peter', 'Schuster, Sigurd', 'Urban, Josef', 'Baeder, Uwe', 'Gunzelmann, Bertram', 'Kornbichler, Andreas'], 'TI': 'Six Questions about 6G.', 'JO': 'CoRR', 'VL': 'abs/2201.12266', 'PY': '2022//', 'UR': 'https://arxiv.org/abs/2201.12266'}</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2203.13094 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2203-13094', 'AU': ['Trommler, Kimberley Parsons', 'Hafner, Matthias', 'Kellerer, Wolfgang', 'Merz, Peter', 'Schuster, Sigurd', 'Urban, Josef', 'Baeder, Uwe', 'Gunzelmann, Bertram', 'Kornbichler, Andreas'], 'TI': 'PREVIEW VERSION: Six Insights into 6G: Orientation and Input for Developing Your Strategic 6G Research Plan.', 'JO': 'CoRR', 'VL': 'abs/2203.13094', 'PY': '2022//', 'DO': '10.48550/arXiv.2203.13094', 'UR': 'https://doi.org/10.48550/arXiv.2203.13094'}</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2205.01981 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2205-01981', 'AU': ['Goertzel, Zarathustra Amadeus', 'Jakubuv, Jan', 'Kaliszyk, Cezary', 'Olsák, Miroslav', 'Piepenbrock, Jelle', 'Urban, Josef'], 'TI': 'The Isabelle ENIGMA.', 'JO': 'CoRR', 'VL': 'abs/2205.01981', 'PY': '2022//', 'DO': '10.48550/arXiv.2205.01981', 'UR': 'https://doi.org/10.48550/arXiv.2205.01981'}</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2210.03590 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2210-03590', 'AU': ['Piepenbrock, Jelle', 'Urban, Josef', 'Korovin, Konstantin', 'Olsák, Miroslav', 'Heskes, Tom', 'Janota, Mikolas'], 'TI': 'Machine Learning Meets The Herbrand Universe.', 'JO': 'CoRR', 'VL': 'abs/2210.03590', 'PY': '2022//', 'DO': '10.48550/arXiv.2210.03590', 'UR': 'https://doi.org/10.48550/arXiv.2210.03590'}</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.05547 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2102-05547', 'AU': ['Piepenbrock, Jelle', 'Heskes, Tom', 'Janota, Mikolás', 'Urban, Josef'], 'TI': 'Learning Equational Theorem Proving.', 'JO': 'CoRR', 'VL': 'abs/2102.05547', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2102.05547'}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2104.05207 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2104-05207', 'AU': ['Zhang, Liao', 'Blaauwbroek, Lasse', 'Piotrowski, Bartosz', 'Cerný, Prokop', 'Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Online Machine Learning Techniques for Coq: A Comparison.', 'JO': 'CoRR', 'VL': 'abs/2104.05207', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2104.05207'}</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2105.14706 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2105-14706', 'AU': ['Zombori, Zsolt', 'Urban, Josef', 'Olsák, Miroslav'], 'TI': 'The Role of Entropy in Guiding a Connection Prover.', 'JO': 'CoRR', 'VL': 'abs/2105.14706', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2105.14706'}</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2106.14195 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2106-14195', 'AU': ['Macke, Jaroslav', 'Sedlár, Jirí', 'Olsák, Miroslav', 'Urban, Josef', 'Sivic, Josef'], 'TI': 'Learning to solve geometric construction problems from images.', 'JO': 'CoRR', 'VL': 'abs/2106.14195', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2106.14195'}</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2107.06750 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2107-06750', 'AU': ['Goertzel, Zarathustra Amadeus', 'Chvalovský, Karel', 'Jakubuv, Jan', 'Olsák, Miroslav', 'Urban, Josef'], 'TI': 'Fast and Slow Enigmas and Parental Guidance.', 'JO': 'CoRR', 'VL': 'abs/2107.06750', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2107.06750'}</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2107.10034 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2107-10034', 'AU': ['Chvalovský, Karel', 'Jakubuv, Jan', 'Olsák, Miroslav', 'Urban, Josef'], 'TI': 'Learning Theorem Proving Components.', 'JO': 'CoRR', 'VL': 'abs/2107.10034', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2107.10034'}</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2002.05406 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2002-05406', 'AU': ['Jakubuv, Jan', 'Chvalovský, Karel', 'Olsák, Miroslav', 'Piotrowski, Bartosz', 'Suda, Martin', 'Urban, Josef'], 'TI': 'ENIGMA Anonymous: Symbol-Independent Inference Guiding Machine (system description).', 'JO': 'CoRR', 'VL': 'abs/2002.05406', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2002.05406'}</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2003.09140 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2003-09140', 'AU': ['Blaauwbroek, Lasse', 'Urban, Josef', 'Geuvers, Herman'], 'TI': 'Tactic Learning and Proving for the Coq Proof Assistant.', 'JO': 'CoRR', 'VL': 'abs/2003.09140', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2003.09140'}</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.06997 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2004-06997', 'AU': ['Zombori, Zsolt', 'Urban, Josef', 'Brown, Chad E.'], 'TI': 'Prolog Technology Reinforcement Learning Prover.', 'JO': 'CoRR', 'VL': 'abs/2004.06997', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2004.06997'}</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.08212 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2004-08212', 'AU': ['Piotrowski, Bartosz', 'Urban, Josef'], 'TI': 'Stateful Premise Selection by Recurrent Neural Networks.', 'JO': 'CoRR', 'VL': 'abs/2004.08212', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2004.08212'}</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.14664 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2005-14664', 'AU': ['Urban, Josef', 'Jakubuv, Jan'], 'TI': 'First Neural Conjecturing Datasets and Experiments.', 'JO': 'CoRR', 'VL': 'abs/2005.14664', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2005.14664'}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2008.00120 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2008-00120', 'AU': ['Blaauwbroek, Lasse', 'Urban, Josef', 'Geuvers, Herman'], 'TI': 'The Tactician (extended version): A Seamless, Interactive Tactic Learner and Prover for Coq.', 'JO': 'CoRR', 'VL': 'abs/2008.00120', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2008.00120'}</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1903.02539 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1903-02539', 'AU': ['Brown, Chad E.', 'Gauthier, Thibault', 'Kaliszyk, Cezary', 'Sutcliffe, Geoff', 'Urban, Josef'], 'TI': 'GRUNGE: A Grand Unified ATP Challenge.', 'JO': 'CoRR', 'VL': 'abs/1903.02539', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1903.02539'}</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1903.03182 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1903-03182', 'AU': ['Chvalovský, Karel', 'Jakubuv, Jan', 'Suda, Martin', 'Urban, Josef'], 'TI': 'ENIGMA-NG: Efficient Neural and Gradient-Boosted Inference Guidance for E.', 'JO': 'CoRR', 'VL': 'abs/1903.03182', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1903.03182'}</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.01677 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1904-01677', 'AU': ['Jakubuv, Jan', 'Urban, Josef'], 'TI': 'Hammering Mizar by Learning Clause Guidance.', 'JO': 'CoRR', 'VL': 'abs/1904.01677', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1904.01677'}</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1905.07961 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1905-07961', 'AU': ['Piotrowski, Bartosz', 'Urban, Josef'], 'TI': 'Guiding Theorem Proving by Recurrent Neural Networks.', 'JO': 'CoRR', 'VL': 'abs/1905.07961', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1905.07961'}</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1905.09565 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1905-09565', 'AU': ['Goertzel, Zarathustra Amadeus', 'Jakubuv, Jan', 'Urban, Josef'], 'TI': 'ENIGMAWatch: ProofWatch Meets ENIGMA.', 'JO': 'CoRR', 'VL': 'abs/1905.09565', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1905.09565'}</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1905.13100 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1905-13100', 'AU': ['Zombori, Zsolt', 'Csiszárik, Adrián', 'Michalewski, Henryk', 'Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Towards Finding Longer Proofs.', 'JO': 'CoRR', 'VL': 'abs/1905.13100', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1905.13100'}</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.04873 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1911-04873', 'AU': ['Piotrowski, Bartosz', 'Urban, Josef', 'Brown, Chad E.', 'Kaliszyk, Cezary'], 'TI': 'Can Neural Networks Learn Symbolic Rewriting?', 'JO': 'CoRR', 'VL': 'abs/1911.04873', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1911.04873'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.12073 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1911-12073', 'AU': ['Olsák, Miroslav', 'Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Property Invariant Embedding for Automated Reasoning.', 'JO': 'CoRR', 'VL': 'abs/1911.12073', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1911.12073'}</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1912.02636 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1912-02636', 'AU': ['Wang, Qingxiang', 'Brown, Chad E.', 'Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Exploration of Neural Machine Translation in Autoformalization of Mathematics in Mizar.', 'JO': 'CoRR', 'VL': 'abs/1912.02636', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1912.02636'}</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1802.03375 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1802-03375', 'AU': ['Piotrowski, Bartosz', 'Urban, Josef'], 'TI': 'ATPboost: Learning Premise Selection in Binary Setting with ATP Feedback.', 'JO': 'CoRR', 'VL': 'abs/1802.03375', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1802.03375'}</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1802.04007 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1802-04007', 'AU': ['Goertzel, Zarathustra Amadeus', 'Jakubuv, Jan', 'Schulz, Stephan', 'Urban, Josef'], 'TI': 'ProofWatch: Watchlist Guidance for Large Theories in E.', 'JO': 'CoRR', 'VL': 'abs/1802.04007', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1802.04007'}</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1804.00595 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1804-00595', 'AU': ['Gauthier, Thibault', 'Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Learning to Reason with HOL4 tactics.', 'JO': 'CoRR', 'VL': 'abs/1804.00595', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1804.00595'}</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1804.00596 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1804-00596', 'AU': ['Gauthier, Thibault', 'Kaliszyk, Cezary', 'Urban, Josef', 'Kumar, Ramana', 'Norrish, Michael'], 'TI': 'Learning to Prove with Tactics.', 'JO': 'CoRR', 'VL': 'abs/1804.00596', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1804.00596'}</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1805.03107 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1805-03107', 'AU': ['Färber, Michael', 'Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Machine Learning Guidance and Proof Certification for Connection Tableaux.', 'JO': 'CoRR', 'VL': 'abs/1805.03107', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1805.03107'}</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1805.06502 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1805-06502', 'AU': ['Wang, Qingxiang', 'Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'First Experiments with Neural Translation of Informal to Formal Mathematics.', 'JO': 'CoRR', 'VL': 'abs/1805.06502', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1805.06502'}</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1805.07563 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1805-07563', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef', 'Michalewski, Henryk', 'Olsák, Mirek'], 'TI': 'Reinforcement Learning of Theorem Proving.', 'JO': 'CoRR', 'VL': 'abs/1805.07563', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1805.07563'}</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.06532 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JakubuvU17', 'AU': ['Jakubuv, Jan', 'Urban, Josef'], 'TI': 'ENIGMA: Efficient Learning-based Inference Guiding Machine.', 'JO': 'CoRR', 'VL': 'abs/1701.06532', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1701.06532'}</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1605.06996 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/BrownU16', 'AU': ['Brown, Chad E.', 'Urban, Josef'], 'TI': 'Extracting Higher-Order Goals from the Mizar Mathematical Library.', 'JO': 'CoRR', 'VL': 'abs/1605.06996', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1605.06996'}</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.03888 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JakubuvU16', 'AU': ['Jakubuv, Jan', 'Urban, Josef'], 'TI': 'Extending E Prover with Similarity Based Clause Selection Strategies.', 'JO': 'CoRR', 'VL': 'abs/1606.03888', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1606.03888'}</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.04442 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/AlemiCISU16', 'AU': ['Alemi, Alexander A.', 'Chollet, François', 'Irving, Geoffrey', 'Szegedy, Christian', 'Urban, Josef'], 'TI': 'DeepMath - Deep Sequence Models for Premise Selection.', 'JO': 'CoRR', 'VL': 'abs/1606.04442', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1606.04442'}</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1611.05990 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/FarberKU16', 'AU': ['Färber, Michael', 'Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Monte Carlo Connection Prover.', 'JO': 'CoRR', 'VL': 'abs/1611.05990', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1611.05990'}</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1611.08733 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JakubuvU16a', 'AU': ['Jakubuv, Jan', 'Urban, Josef'], 'TI': 'BliStrTune: Hierarchical Invention of Theorem Proving Strategies.', 'JO': 'CoRR', 'VL': 'abs/1611.08733', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1611.08733'}</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1611.09703 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykUV16', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef', 'Vyskocil, Jirí'], 'TI': 'Semantic Parsing of Mathematics by Context-based Learning from Aligned Corpora and Theorem Proving.', 'JO': 'CoRR', 'VL': 'abs/1611.09703', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1611.09703'}</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informal CICM 2015 - Informal Work in Progress Proceedings, Washington, DC, USA, July 13-17, 2015 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:conf/mkm/CommelinU15', 'AU': ['Commelin, Johan', 'Urban, Josef'], 'TI': 'Auto-hyperlinking the Stacks Project.', 'BT': 'CICM 2015 - Informal Work in Progress Proceedings, Washington, DC, USA, July 13-17, 2015', 'SP': '19', 'EP': '24', 'PY': '2015//', 'UR': 'https://cicm-conference.org/2015/CICM2015-wip.pdf#page=19'}</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1501.02155 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/HalesABDHHKMMNNNOPRSTTTUVZ15', 'AU': ['Hales, Thomas C.', 'Adams, Mark', 'Bauer, Gertrud', 'Dang, Dat Tat', 'Harrison, John', 'Hoang, Truong Le', 'Kaliszyk, Cezary', 'Magron, Victor', 'McLaughlin, Sean', 'Nguyen, Thang Tat', 'Nguyen, Truong Quang', 'Nipkow, Tobias', 'Obua, Steven', 'Pleso, Joseph', 'Rute, Jason M.', 'Solovyev, Alexey', 'Ta, An Hoai Thi', 'Tran, Trung Nam', 'Trieu, Diep Thi', 'Urban, Josef', 'Vu, Ky Khac', 'Zumkeller, Roland'], 'TI': 'A formal proof of the Kepler conjecture.', 'JO': 'CoRR', 'VL': 'abs/1501.02155', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1501.02155'}</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1402.2359 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykUV14', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef', 'Vyskocil, Jirí'], 'TI': 'Machine Learner for Automated Reasoning 0.4 and 0.5.', 'JO': 'CoRR', 'VL': 'abs/1402.2359', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1402.2359'}</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1402.3578 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykU14', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Learning-assisted Theorem Proving with Millions of Lemmas.', 'JO': 'CoRR', 'VL': 'abs/1402.3578', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1402.3578'}</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1405.3451 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykUVG14', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef', 'Vyskocil, Jirí', 'Geuvers, Herman'], 'TI': 'Developing Corpus-based Translation Methods between Informal and Formal Mathematics: Project Description.', 'JO': 'CoRR', 'VL': 'abs/1405.3451', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1405.3451'}</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1410.5467 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykMU14', 'AU': ['Kaliszyk, Cezary', 'Mamane, Lionel', 'Urban, Josef'], 'TI': 'Machine Learning of Coq Proof Guidance: First Experiments.', 'JO': 'CoRR', 'VL': 'abs/1410.5467', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1410.5467'}</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1410.5476 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykUV14a', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef', 'Vyskocil, Jirí'], 'TI': 'Certified Connection Tableaux Proofs for HOL Light and TPTP.', 'JO': 'CoRR', 'VL': 'abs/1410.5476', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1410.5476'}</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1301.2683 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1301-2683', 'AU': ['Urban, Josef'], 'TI': 'BliStr: The Blind Strategymaker', 'JO': 'CoRR', 'VL': 'abs/1301.2683', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1301.2683'}</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1305.5710 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1305-5710', 'AU': ['Tankink, Carst', 'Kaliszyk, Cezary', 'Urban, Josef', 'Geuvers, Herman'], 'TI': 'Formal Mathematics on Display: A Wiki for Flyspeck', 'JO': 'CoRR', 'VL': 'abs/1305.5710', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1305.5710'}</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1308.2116 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KuhlweinU13', 'AU': ['Kühlwein, Daniel', 'Urban, Josef'], 'TI': 'MaLeS: A Framework for Automatic Tuning of Automated Theorem Provers.', 'JO': 'CoRR', 'VL': 'abs/1308.2116', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1308.2116'}</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1309.4962 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykU13', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'HOL(y)Hammer: Online ATP Service for HOL Light.', 'JO': 'CoRR', 'VL': 'abs/1309.4962', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1309.4962'}</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1310.2797 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykU13a', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Lemma Mining over HOL Light.', 'JO': 'CoRR', 'VL': 'abs/1310.2797', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1310.2797'}</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1310.2805 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KaliszykU13b', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'MizAR 40 for Mizar 40.', 'JO': 'CoRR', 'VL': 'abs/1310.2805', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1310.2805'}</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1204.5094 (2012).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1204-5094', 'AU': ['Tankink, Carst', 'Lange, Christoph', 'Urban, Josef'], 'TI': 'Point-and-write --- Documenting Formal Mathematics by Reference', 'JO': 'CoRR', 'VL': 'abs/1204.5094', 'PY': '2012//', 'UR': 'http://arxiv.org/abs/1204.5094'}</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1206.0141 (2012).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1206-0141', 'AU': ['Urban, Josef'], 'TI': 'Parallelizing Mizar', 'JO': 'CoRR', 'VL': 'abs/1206.0141', 'PY': '2012//', 'UR': 'http://arxiv.org/abs/1206.0141'}</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1209.3914 (2012).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1209-3914', 'AU': ['Urban, Josef', 'Vyskocil, Jirí'], 'TI': 'Theorem Proving in Large Formal Mathematics as an Emerging AI Field', 'JO': 'CoRR', 'VL': 'abs/1209.3914', 'PY': '2012//', 'UR': 'http://arxiv.org/abs/1209.3914'}</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1211.7012 (2012).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1211-7012', 'AU': ['Kaliszyk, Cezary', 'Urban, Josef'], 'TI': 'Learning-assisted Automated Reasoning with Flyspeck', 'JO': 'CoRR', 'VL': 'abs/1211.7012', 'PY': '2012//', 'UR': 'http://arxiv.org/abs/1211.7012'}</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1107.3209 (2011).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1107-3209', 'AU': ['Alama, Jesse', 'Brink, Kasper', 'Mamane, Lionel', 'Urban, Josef'], 'TI': 'Large Formal Wikis: Issues and Solutions', 'JO': 'CoRR', 'VL': 'abs/1107.3209', 'PY': '2011//', 'UR': 'http://arxiv.org/abs/1107.3209'}</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1107.3212 (2011).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1107-3212', 'AU': ['Alama, Jesse', 'Kohlhase, Michael', 'Naumowicz, Adam', 'Rudnicki, Piotr', 'Urban, Josef', 'Mamane, Lionel'], 'TI': 'Licensing the Mizar Mathematical Library', 'JO': 'CoRR', 'VL': 'abs/1107.3212', 'PY': '2011//', 'UR': 'http://arxiv.org/abs/1107.3212'}</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1108.3446 (2011).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1108-3446', 'AU': ['Alama, Jesse', 'Kühlwein, Daniel', 'Tsivtsivadze, Evgeni', 'Urban, Josef', 'Heskes, Tom'], 'TI': 'Premise Selection for Mathematics by Corpus Analysis and Kernel Methods', 'JO': 'CoRR', 'VL': 'abs/1108.3446', 'PY': '2011//', 'UR': 'http://arxiv.org/abs/1108.3446'}</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1109.0616 (2011).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1109-0616', 'AU': ['Urban, Josef', 'Rudnicki, Piotr', 'Sutcliffe, Geoff'], 'TI': 'ATP and Presentation Service for Mizar Formalizations', 'JO': 'CoRR', 'VL': 'abs/1109.0616', 'PY': '2011//', 'UR': 'http://arxiv.org/abs/1109.0616'}</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1109.3687 (2011).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1109-3687', 'AU': ['Alama, Jesse', 'Mamane, Lionel', 'Urban, Josef'], 'TI': 'Dependencies in Formal Mathematics', 'JO': 'CoRR', 'VL': 'abs/1109.3687', 'PY': '2011//', 'UR': 'http://arxiv.org/abs/1109.3687'}</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1005.4552 (2010).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1005-4552', 'AU': ['Urban, Josef', 'Alama, Jesse', 'Rudnicki, Piotr', 'Geuvers, Herman'], 'TI': 'A Wiki for Mizar: Motivation, Considerations, and Initial Prototype', 'JO': 'CoRR', 'VL': 'abs/1005.4552', 'PY': '2010//', 'UR': 'http://arxiv.org/abs/1005.4552'}</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1005.4592 (2010).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1005-4592', 'AU': ['Urban, Josef', 'Sutcliffe, Geoff'], 'TI': 'Automated Reasoning and Presentation Support for Formalizing Mathematics in Mizar', 'JO': 'CoRR', 'VL': 'abs/1005.4592', 'PY': '2010//', 'UR': 'http://arxiv.org/abs/1005.4592'}</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2207.04857 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2207-04857', 'AU': ['Herel, David', 'Zogatova, Dominika', 'Kripner, Matej', 'Mikolov, Tomás'], 'TI': 'Emergence of Novelty in Evolutionary Algorithms.', 'JO': 'CoRR', 'VL': 'abs/2207.04857', 'PY': '2022//', 'DO': '10.48550/arXiv.2207.04857', 'UR': 'https://doi.org/10.48550/arXiv.2207.04857'}</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2210.02549 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2210-02549', 'AU': ['Cisneros, Hugo', 'Sivic, Josef', 'Mikolov, Tomás'], 'TI': 'Benchmarking Learning Efficiency in Deep Reservoir Computing.', 'JO': 'CoRR', 'VL': 'abs/2210.02549', 'PY': '2022//', 'DO': '10.48550/arXiv.2210.02549', 'UR': 'https://doi.org/10.48550/arXiv.2210.02549'}</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2211.04205 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2211-04205', 'AU': ['Herel, David', 'Cisneros, Hugo', 'Mikolov, Tomás'], 'TI': 'Preserving Semantics in Textual Adversarial Attacks.', 'JO': 'CoRR', 'VL': 'abs/2211.04205', 'PY': '2022//', 'DO': '10.48550/arXiv.2211.04205', 'UR': 'https://doi.org/10.48550/arXiv.2211.04205'}</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.08245 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2103-08245', 'AU': ['Kruszewski, Germán', 'Mikolov, Tomás'], 'TI': 'Emergence of self-reproducing metabolisms as recursive algorithms in an Artificial Chemistry.', 'JO': 'CoRR', 'VL': 'abs/2103.08245', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2103.08245'}</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2104.01008 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2104-01008', 'AU': ['Cisneros, Hugo', 'Sivic, Josef', 'Mikolov, Tomás'], 'TI': 'Visualizing computation in large-scale cellular automata.', 'JO': 'CoRR', 'VL': 'abs/2104.01008', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2104.01008'}</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2108.00415 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2108-00415', 'AU': ['Hudcová, Barbora', 'Mikolov, Tomás'], 'TI': 'Computational Hierarchy of Elementary Cellular Automata.', 'JO': 'CoRR', 'VL': 'abs/2108.00415', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2108.00415'}</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2108.01573 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2108-01573', 'AU': ['Hudcová, Barbora', 'Mikolov, Tomás'], 'TI': 'Classification of Discrete Dynamical Systems Based on Transients.', 'JO': 'CoRR', 'VL': 'abs/2108.01573', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2108.01573'}</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2003.07916 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2003-07916', 'AU': ['Kruszewski, Germán', 'Mikolov, Tomás'], 'TI': 'Combinatory Chemistry: Towards a Simple Model of Emergent Evolution.', 'JO': 'CoRR', 'VL': 'abs/2003.07916', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2003.07916'}</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.03340 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2004-03340', 'AU': ['Kruszewski, Germán', 'Sorodoc, Ionut-Teodor', 'Mikolov, Tomás'], 'TI': 'Class-Agnostic Continual Learning of Alternating Languages and Domains.', 'JO': 'CoRR', 'VL': 'abs/2004.03340', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2004.03340'}</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2008.13503 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2008-13503', 'AU': ['Hudcová, Barbora', 'Mikolov, Tomás'], 'TI': 'Classification of Complex Systems Based on Transients.', 'JO': 'CoRR', 'VL': 'abs/2008.13503', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2008.13503'}</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.04861 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1910-04861', 'AU': ['Yang, Carl', 'Hoang, Do Huy', 'Mikolov, Tomás', 'Han, Jiawei'], 'TI': 'Place Deduplication with Embeddings.', 'JO': 'CoRR', 'VL': 'abs/1910.04861', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1910.04861'}</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.06241 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1910-06241', 'AU': ['Bojanowski, Piotr', 'Celebi, Onur', 'Mikolov, Tomás', 'Grave, Edouard', 'Joulin, Armand'], 'TI': 'Updating Pre-trained Word Vectors and Text Classifiers using Monolingual Alignment.', 'JO': 'CoRR', 'VL': 'abs/1910.06241', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1910.06241'}</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.01086 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1911-01086', 'AU': ['Cisneros, Hugo', 'Sivic, Josef', 'Mikolov, Tomás'], 'TI': 'Evolving Structures in Complex Systems.', 'JO': 'CoRR', 'VL': 'abs/1911.01086', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1911.01086'}</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1802.02892 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1802-02892', 'AU': ['Kiela, Douwe', 'Grave, Edouard', 'Joulin, Armand', 'Mikolov, Tomás'], 'TI': 'Efficient Large-Scale Multi-Modal Classification.', 'JO': 'CoRR', 'VL': 'abs/1802.02892', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1802.02892'}</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1802.06893 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1802-06893', 'AU': ['Grave, Edouard', 'Bojanowski, Piotr', 'Gupta, Prakhar', 'Joulin, Armand', 'Mikolov, Tomás'], 'TI': 'Learning Word Vectors for 157 Languages.', 'JO': 'CoRR', 'VL': 'abs/1802.06893', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1802.06893'}</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1804.07745 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1804-07745', 'AU': ['Joulin, Armand', 'Bojanowski, Piotr', 'Mikolov, Tomás', 'Grave, Edouard'], 'TI': 'Improving Supervised Bilingual Mapping of Word Embeddings.', 'JO': 'CoRR', 'VL': 'abs/1804.07745', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1804.07745'}</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.08954 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/BaroniJJKLSM17', 'AU': ['Baroni, Marco', 'Joulin, Armand', 'Jabri, Allan', 'Kruszewski, Germán', 'Lazaridou, Angeliki', 'Simonic, Klemen', 'Mikolov, Tomás'], 'TI': 'CommAI: Evaluating the first steps towards a useful general AI.', 'JO': 'CoRR', 'VL': 'abs/1701.08954', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1701.08954'}</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1703.08864 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/OrorbiaMR17', 'AU': ['Ororbia, Alexander G., II', 'Mikolov, Tomás', 'Reitter, David'], 'TI': 'Learning Simpler Language Models with the Delta Recurrent Neural Network Framework.', 'JO': 'CoRR', 'VL': 'abs/1703.08864', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1703.08864'}</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1710.10881 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1710-10881', 'AU': ['Joulin, Armand', 'Grave, Edouard', 'Bojanowski, Piotr', 'Nickel, Maximilian', 'Mikolov, Tomás'], 'TI': 'Fast Linear Model for Knowledge Graph Embeddings.', 'JO': 'CoRR', 'VL': 'abs/1710.10881', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1710.10881'}</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1712.09405 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1712-09405', 'AU': ['Mikolov, Tomás', 'Grave, Edouard', 'Bojanowski, Piotr', 'Puhrsch, Christian', 'Joulin, Armand'], 'TI': 'Advances in Pre-Training Distributed Word Representations.', 'JO': 'CoRR', 'VL': 'abs/1712.09405', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1712.09405'}</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1607.01759 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JoulinGBM16', 'AU': ['Joulin, Armand', 'Grave, Edouard', 'Bojanowski, Piotr', 'Mikolov, Tomás'], 'TI': 'Bag of Tricks for Efficient Text Classification.', 'JO': 'CoRR', 'VL': 'abs/1607.01759', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1607.01759'}</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1607.04606 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/BojanowskiGJM16', 'AU': ['Bojanowski, Piotr', 'Grave, Edouard', 'Joulin, Armand', 'Mikolov, Tomás'], 'TI': 'Enriching Word Vectors with Subword Information.', 'JO': 'CoRR', 'VL': 'abs/1607.04606', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1607.04606'}</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1611.06188 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JerniteGJM16', 'AU': ['Jernite, Yacine', 'Grave, Edouard', 'Joulin, Armand', 'Mikolov, Tomás'], 'TI': 'Variable Computation in Recurrent Neural Networks.', 'JO': 'CoRR', 'VL': 'abs/1611.06188', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1611.06188'}</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1612.03651 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JoulinGBDJM16', 'AU': ['Joulin, Armand', 'Grave, Edouard', 'Bojanowski, Piotr', 'Douze, Matthijs', 'Jégou, Hervé', 'Mikolov, Tomás'], 'TI': 'FastText.zip: Compressing text classification models.', 'JO': 'CoRR', 'VL': 'abs/1612.03651', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1612.03651'}</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1503.01007 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JoulinM15', 'AU': ['Joulin, Armand', 'Mikolov, Tomás'], 'TI': 'Inferring Algorithmic Patterns with Stack-Augmented Recurrent Nets.', 'JO': 'CoRR', 'VL': 'abs/1503.01007', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1503.01007'}</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1511.06303 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/BojanowskiJM15', 'AU': ['Bojanowski, Piotr', 'Joulin, Armand', 'Mikolov, Tomás'], 'TI': 'Alternative structures for character-level RNNs.', 'JO': 'CoRR', 'VL': 'abs/1511.06303', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1511.06303'}</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1511.07275 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/ZarembaMJF15', 'AU': ['Zaremba, Wojciech', 'Mikolov, Tomás', 'Joulin, Armand', 'Fergus, Rob'], 'TI': 'Learning Simple Algorithms from Examples.', 'JO': 'CoRR', 'VL': 'abs/1511.07275', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1511.07275'}</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1511.08130 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/MikolovJB15', 'AU': ['Mikolov, Tomás', 'Joulin, Armand', 'Baroni, Marco'], 'TI': 'A Roadmap towards Machine Intelligence.', 'JO': 'CoRR', 'VL': 'abs/1511.08130', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1511.08130'}</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1405.4053 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/LeM14', 'AU': ['Le, Quoc V.', 'Mikolov, Tomás'], 'TI': 'Distributed Representations of Sentences and Documents.', 'JO': 'CoRR', 'VL': 'abs/1405.4053', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1405.4053'}</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1309.4168 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/MikolovLS13', 'AU': ['Mikolov, Tomás', 'Le, Quoc V.', 'Sutskever, Ilya'], 'TI': 'Exploiting Similarities among Languages for Machine Translation.', 'JO': 'CoRR', 'VL': 'abs/1309.4168', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1309.4168'}</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1310.4546 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/MikolovSCCD13', 'AU': ['Mikolov, Tomás', 'Sutskever, Ilya', 'Chen, Kai', 'Corrado, Greg', 'Dean, Jeffrey'], 'TI': 'Distributed Representations of Words and Phrases and their Compositionality.', 'JO': 'CoRR', 'VL': 'abs/1310.4546', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1310.4546'}</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1312.3005 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/ChelbaMSGBK13', 'AU': ['Chelba, Ciprian', 'Mikolov, Tomás', 'Schuster, Mike', 'Ge, Qi', 'Brants, Thorsten', 'Koehn, Phillipp'], 'TI': 'One Billion Word Benchmark for Measuring Progress in Statistical Language Modeling.', 'JO': 'CoRR', 'VL': 'abs/1312.3005', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1312.3005'}</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1211.5063 (2012).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1211-5063', 'AU': ['Pascanu, Razvan', 'Mikolov, Tomás', 'Bengio, Yoshua'], 'TI': 'Understanding the exploding gradient problem', 'JO': 'CoRR', 'VL': 'abs/1211.5063', 'PY': '2012//', 'UR': 'http://arxiv.org/abs/1211.5063'}</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2302.00773 (2023).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2302-00773', 'AU': ['Kubalík, Jirí', 'Derner, Erik', 'Babuska, Robert'], 'TI': 'Neural Networks for Symbolic Regression.', 'JO': 'CoRR', 'VL': 'abs/2302.00773', 'PY': '2023//', 'DO': '10.48550/arXiv.2302.00773', 'UR': 'https://doi.org/10.48550/arXiv.2302.00773'}</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2203.00403 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2203-00403', 'AU': ['Passalis, Nikolaos', 'Pedrazzi, S.', 'Babuska, Robert', 'Burgard, Wolfram', 'Dias, D.', 'Ferro, F.', 'Gabbouj, Moncef', 'Green, O.', 'Iosifidis, Alexandros', 'Kayacan, E.', 'Kober, Jens', 'Michel, O.', 'Nikolaidis, Nikolaos', 'Nousi, Paraskevi', 'Pieters, Roel', 'Tzelepi, Maria', 'Valada, Abhinav', 'Tefas, Anastasios'], 'TI': 'OpenDR: An Open Toolkit for Enabling High Performance, Low Footprint Deep Learning for Robotics.', 'JO': 'CoRR', 'VL': 'abs/2203.00403', 'PY': '2022//', 'DO': '10.48550/arXiv.2203.00403', 'UR': 'https://doi.org/10.48550/arXiv.2203.00403'}</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2203.02381 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2203-02381', 'AU': ['Lodel, Max', 'Brito, Bruno', 'Serra-Gómez, Álvaro', 'Ferranti, Laura', 'Babuska, Robert', 'Alonso-Mora, Javier'], 'TI': 'Where to Look Next: Learning Viewpoint Recommendations for Informative Trajectory Planning.', 'JO': 'CoRR', 'VL': 'abs/2203.02381', 'PY': '2022//', 'DO': '10.48550/arXiv.2203.02381', 'UR': 'https://doi.org/10.48550/arXiv.2203.02381'}</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2203.10157 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2203-10157', 'AU': ['Kulhánek, Jonás', 'Derner, Erik', 'Sattler, Torsten', 'Babuska, Robert'], 'TI': 'ViewFormer: NeRF-free Neural Rendering from Few Images Using Transformers.', 'JO': 'CoRR', 'VL': 'abs/2203.10157', 'PY': '2022//', 'DO': '10.48550/arXiv.2203.10157', 'UR': 'https://doi.org/10.48550/arXiv.2203.10157'}</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2205.15764 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2205-15764', 'AU': ['Vastl, Martin', 'Kulhánek, Jonás', 'Kubalík, Jirí', 'Derner, Erik', 'Babuska, Robert'], 'TI': 'SymFormer: End-to-end symbolic regression using transformer-based architecture.', 'JO': 'CoRR', 'VL': 'abs/2205.15764', 'PY': '2022//', 'DO': '10.48550/arXiv.2205.15764', 'UR': 'https://doi.org/10.48550/arXiv.2205.15764'}</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.07976 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2209-07976', 'AU': ['Sedlár, Jirí', 'Stépánová, Karla', 'Tuna, Matús', 'Skoviera, Radoslav', 'Behrens, Jan Kristof', 'Sejnova, Gabriela', 'Sivic, Josef', 'Babuska, Robert'], 'TI': 'Imitrob: Imitation Learning Dataset for Training and Evaluating 6D Object Pose Estimators.', 'JO': 'CoRR', 'VL': 'abs/2209.07976', 'PY': '2022//', 'DO': '10.48550/arXiv.2209.07976', 'UR': 'https://doi.org/10.48550/arXiv.2209.07976'}</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.12319 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2102-12319', 'AU': ['Mazhar, Osama', 'Kober, Jens', 'Babuska, Robert'], 'TI': 'GEM: Glare or Gloom, I Can Still See You - End-to-End Multimodal Object Detector.', 'JO': 'CoRR', 'VL': 'abs/2102.12319', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2102.12319'}</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.01272 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2103-01272', 'AU': ['Haan, Taeke de', 'Kulkarni, Padmaja', 'Babuska, Robert'], 'TI': 'Geometry-Based Grasping of Vine Tomatoes.', 'JO': 'CoRR', 'VL': 'abs/2103.01272', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2103.01272'}</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2103.09043 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2103-09043', 'AU': ['Kooi, Jacob E.', 'Babuska, Robert'], 'TI': 'Inclined Quadrotor Landing using Deep Reinforcement Learning.', 'JO': 'CoRR', 'VL': 'abs/2103.09043', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2103.09043'}</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.11947 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2004-11947', 'AU': ['Kubalík, Jirí', 'Derner, Erik', 'Babuska, Robert'], 'TI': 'Symbolic Regression Driven by Training Data and Prior Knowledge.', 'JO': 'CoRR', 'VL': 'abs/2004.11947', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2004.11947'}</t>
         </is>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10903 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2010-10903', 'AU': ['Kulhánek, Jonás', 'Derner, Erik', 'Babuska, Robert'], 'TI': 'Visual Navigation in Real-World Indoor Environments Using End-to-End Deep Reinforcement Learning.', 'JO': 'CoRR', 'VL': 'abs/2010.10903', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2010.10903'}</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2011.12690 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2011-12690', 'AU': ['Heijden, Bas van der', 'Ferranti, Laura', 'Kober, Jens', 'Babuska, Robert'], 'TI': 'DeepKoCo: Efficient latent planning with an invariant Koopman representation.', 'JO': 'CoRR', 'VL': 'abs/2011.12690', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2011.12690'}</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1901.08335 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1901-08335', 'AU': ['Skoviera, Radoslav', 'Stépánová, Karla', 'Tesar, Michael', 'Sejnova, Gabriela', 'Sedlár, Jirí', 'Vavrecka, Michal', 'Babuska, Robert', 'Sivic, Josef'], 'TI': 'Teaching robots to imitate a human with no on-teacher sensors. What are the key challenges?', 'JO': 'CoRR', 'VL': 'abs/1901.08335', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1901.08335'}</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1903.09688 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1903-09688', 'AU': ['Kubalík, Jirí', 'Zegklitz, Jan', 'Derner, Erik', 'Babuska, Robert'], 'TI': 'Symbolic Regression Methods for Reinforcement Learning.', 'JO': 'CoRR', 'VL': 'abs/1903.09688', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1903.09688'}</t>
         </is>
       </c>
     </row>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1903.11483 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1903-11483', 'AU': ['Derner, Erik', 'Kubalík, Jirí', 'Ancona, Nicola', 'Babuska, Robert'], 'TI': 'Symbolic Regression for Constructing Analytic Models in Reinforcement Learning.', 'JO': 'CoRR', 'VL': 'abs/1903.11483', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1903.11483'}</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1908.03627 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1908-03627', 'AU': ['Kulhánek, Jonás', 'Derner, Erik', 'Bruin, Tim de', 'Babuska, Robert'], 'TI': 'Vision-based Navigation Using Deep Reinforcement Learning.', 'JO': 'CoRR', 'VL': 'abs/1908.03627', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1908.03627'}</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1504.02125 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/RuelensCVSBB15', 'AU': ['Ruelens, Frederik', 'Claessens, Bert', 'Vandael, Stijn', 'Schutter, Bart De', 'Babuska, Robert', 'Belmans, Ronnie'], 'TI': 'Residential Demand Response Applications Using Batch Reinforcement Learning.', 'JO': 'CoRR', 'VL': 'abs/1504.02125', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1504.02125'}</t>
         </is>
       </c>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1512.00408 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/RuelensCQSBB15', 'AU': ['Ruelens, Frederik', 'Claessens, Bert', 'Quaiyum, Salman', 'Schutter, Bart De', 'Babuska, Robert', 'Belmans, Ronnie'], 'TI': 'Reinforcement Learning Applied to an Electric Water Heater: From Theory to Practice.', 'JO': 'CoRR', 'VL': 'abs/1512.00408', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1512.00408'}</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1409.0553 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/HaesaertBA14', 'AU': ['Haesaert, Sofie', 'Babuska, Robert', 'Abate, Alessandro'], 'TI': 'Sampling-based Approximations with Quantitative Performance for the Probabilistic Reach-Avoid Problem over General Markov Processes.', 'JO': 'CoRR', 'VL': 'abs/1409.0553', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1409.0553'}</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1206.3460 (2012).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1206-3460', 'AU': ['Simonetto, Andrea', 'Keviczky, Tamás', 'Babuska, Robert'], 'TI': 'Constrained Distributed Algebraic Connectivity Maximization in Robotic Networks', 'JO': 'CoRR', 'VL': 'abs/1206.3460', 'PY': '2012//', 'UR': 'http://arxiv.org/abs/1206.3460'}</t>
         </is>
       </c>
     </row>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1212.5524 (2012).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1212-5524', 'AU': ['Sprangers, Olivier', 'Lopes, Gabriel A. D.', 'Babuska, Robert'], 'TI': 'Energy-balancing passivity-based control through reinforcement learning', 'JO': 'CoRR', 'VL': 'abs/1212.5524', 'PY': '2012//', 'UR': 'http://arxiv.org/abs/1212.5524'}</t>
         </is>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1212.5525 (2012).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1212-5525', 'AU': ['Lopes, Gabriel Alexandre Delgado', 'Kersbergen, Bart', 'Schutter, Bart De', 'Boom, Ton J. J. van den', 'Babuska, Robert'], 'TI': 'Synchronization of a class of cyclic discrete-event systems describing legged locomotion', 'JO': 'CoRR', 'VL': 'abs/1212.5525', 'PY': '2012//', 'UR': 'http://arxiv.org/abs/1212.5525'}</t>
         </is>
       </c>
     </row>
@@ -16271,7 +16271,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2201.10516 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2201-10516', 'AU': ['Araújo, João', 'Chow, Choiwah', 'Janota, Mikolás'], 'TI': 'Boosting Isomorphic Model Filtering with Invariants.', 'JO': 'CoRR', 'VL': 'abs/2201.10516', 'PY': '2022//', 'UR': 'https://arxiv.org/abs/2201.10516'}</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2206.08768 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2206-08768', 'AU': ['Orvalho, Pedro', 'Janota, Mikolás', 'Manquinho, Vasco M.'], 'TI': 'C-Pack of IPAs: A C90 Program Benchmark of Introductory Programming Assignments.', 'JO': 'CoRR', 'VL': 'abs/2206.08768', 'PY': '2022//', 'DO': '10.48550/arXiv.2206.08768', 'UR': 'https://doi.org/10.48550/arXiv.2206.08768'}</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2206.14175 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2206-14175', 'AU': ['Orvalho, Pedro', 'Janota, Mikolás', 'Manquinho, Vasco M.'], 'TI': 'InvAASTCluster: On Applying Invariant-Based Program Clustering to Introductory Programming Assignments.', 'JO': 'CoRR', 'VL': 'abs/2206.14175', 'PY': '2022//', 'DO': '10.48550/arXiv.2206.14175', 'UR': 'https://doi.org/10.48550/arXiv.2206.14175'}</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2207.09509 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2207-09509', 'AU': ['Marques, Filipe', 'Morgado, António', 'Santos, José Fragoso', 'Janota, Mikolás'], 'TI': 'TestSelector: Automatic Test Suite Selection for Student Projects - Extended Version.', 'JO': 'CoRR', 'VL': 'abs/2207.09509', 'PY': '2022//', 'DO': '10.48550/arXiv.2207.09509', 'UR': 'https://doi.org/10.48550/arXiv.2207.09509'}</t>
         </is>
       </c>
     </row>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2105.13700 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2105-13700', 'AU': ['Janota, Mikolás', 'Barbosa, Haniel', 'Fontaine, Pascal', 'Reynolds, Andrew'], 'TI': 'Fair and Adventurous Enumeration of Quantifier Instantiations.', 'JO': 'CoRR', 'VL': 'abs/2105.13700', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2105.13700'}</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1901.00428 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1901-00428', 'AU': ['Cooksey, Simon', 'Harris, Sarah', 'Batty, Mark', 'Grigore, Radu', 'Janota, Mikolás'], 'TI': 'PrideMM: A Solver for Relaxed Memory Models.', 'JO': 'CoRR', 'VL': 'abs/1901.00428', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1901.00428'}</t>
         </is>
       </c>
     </row>
@@ -17021,7 +17021,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1704.01071 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/Janota17', 'AU': ['Janota, Mikolás'], 'TI': "An Achilles' Heel of Term-Resolution.", 'JO': 'CoRR', 'VL': 'abs/1704.01071', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1704.01071'}</t>
         </is>
       </c>
     </row>
@@ -17051,7 +17051,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1708.01745 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1708-01745', 'AU': ['Janota, Mikolas', 'Grigore, Radu', 'Manquinho, Vasco M.'], 'TI': 'On the Quest for an Acyclic Graph.', 'JO': 'CoRR', 'VL': 'abs/1708.01745', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1708.01745'}</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1710.02198 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1710-02198', 'AU': ['Janota, Mikolás'], 'TI': 'QFUN: Towards Machine Learning in QBF.', 'JO': 'CoRR', 'VL': 'abs/1710.02198', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1710.02198'}</t>
         </is>
       </c>
     </row>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informal Electron. Colloquium Comput. Complex. (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/eccc/BeyersdorffCJ16', 'AU': ['Beyersdorff, Olaf', 'Chew, Leroy', 'Janota, Mikolas'], 'TI': 'Extension Variables in QBF Resolution.', 'JO': 'Electron. Colloquium Comput. Complex.', 'VL': 'TR16', 'PY': '2016//', 'UR': 'https://eccc.weizmann.ac.il/report/2016/005'}</t>
         </is>
       </c>
     </row>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informal Electron. Colloquium Comput. Complex. (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/eccc/Janota16', 'AU': ['Janota, Mikolas'], 'TI': 'On Q-Resolution and CDCL QBF Solving.', 'JO': 'Electron. Colloquium Comput. Complex.', 'VL': 'TR16', 'PY': '2016//', 'UR': 'https://eccc.weizmann.ac.il/report/2016/043'}</t>
         </is>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1505.02405 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/NevesMJLM15', 'AU': ['Neves, Miguel', 'Martins, Ruben', 'Janota, Mikolás', 'Lynce, Inês', 'Manquinho, Vasco M.'], 'TI': 'Exploiting Resolution-based Representations for MaxSAT Solving.', 'JO': 'CoRR', 'VL': 'abs/1505.02405', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1505.02405'}</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1402.3011 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/Marques-SilvaJ14', 'AU': ['Marques-Silva, João', 'Janota, Mikolás'], 'TI': 'Computing Minimal Sets on Propositional Formulae I: Problems &amp; Reductions.', 'JO': 'CoRR', 'VL': 'abs/1402.3011', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1402.3011'}</t>
         </is>
       </c>
     </row>
@@ -17921,7 +17921,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1406.7838 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JanotaM14', 'AU': ['Janota, Mikolás', 'Marques-Silva, João'], 'TI': 'On Minimal Corrections in ASP.', 'JO': 'CoRR', 'VL': 'abs/1406.7838', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1406.7838'}</t>
         </is>
       </c>
     </row>
@@ -17951,7 +17951,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informal Electron. Colloquium Comput. Complex. (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/eccc/BeyersdorffCJ14', 'AU': ['Beyersdorff, Olaf', 'Chew, Leroy', 'Janota, Mikolas'], 'TI': 'Proof Complexity of Resolution-based QBF Calculi.', 'JO': 'Electron. Colloquium Comput. Complex.', 'VL': 'TR14', 'PY': '2014//', 'UR': 'https://eccc.weizmann.ac.il/report/2014/120'}</t>
         </is>
       </c>
     </row>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informal Electron. Colloquium Comput. Complex. (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/eccc/JanotaCB14', 'AU': ['Janota, Mikolas', 'Chew, Leroy', 'Beyersdorff, Olaf'], 'TI': 'On Unification of QBF Resolution-Based Calculi.', 'JO': 'Electron. Colloquium Comput. Complex.', 'VL': 'TR14', 'PY': '2014//', 'UR': 'https://eccc.weizmann.ac.il/report/2014/036'}</t>
         </is>
       </c>
     </row>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informal Electron. Colloquium Comput. Complex. (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/eccc/Marques-SilvaJ14', 'AU': ['Marques-Silva, João', 'Janota, Mikolás'], 'TI': 'On the Query Complexity of Selecting Few Minimal Sets.', 'JO': 'Electron. Colloquium Comput. Complex.', 'VL': 'TR14', 'PY': '2014//', 'UR': 'https://eccc.weizmann.ac.il/report/2014/031'}</t>
         </is>
       </c>
     </row>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1310.2491 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/JanotaGM13', 'AU': ['Janota, Mikolás', 'Grigore, Radu', 'Marques-Silva, João'], 'TI': 'On QBF Proofs and Preprocessing.', 'JO': 'CoRR', 'VL': 'abs/1310.2491', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1310.2491'}</t>
         </is>
       </c>
     </row>
@@ -18251,7 +18251,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informal Electron. Colloquium Comput. Complex. (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/eccc/JanotaM13', 'AU': ['Janota, Mikolás', 'Marques-Silva, João'], 'TI': 'On Propositional QBF Expansions and Q-Resolution.', 'JO': 'Electron. Colloquium Comput. Complex.', 'VL': 'TR13', 'PY': '2013//', 'UR': 'https://eccc.weizmann.ac.il/report/2013/097'}</t>
         </is>
       </c>
     </row>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1112.2313 (2011).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1112-2313', 'AU': ['Chen, Huan', 'Janota, Mikolás', 'Marques-Silva, João'], 'TI': 'QBF-Based Boolean Function Bi-Decomposition', 'JO': 'CoRR', 'VL': 'abs/1112.2313', 'PY': '2011//', 'UR': 'http://arxiv.org/abs/1112.2313'}</t>
         </is>
       </c>
     </row>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1006.5896 (2010).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1006-5896', 'AU': ['Janota, Mikolás', 'Marques-Silva, João', 'Grigore, Radu'], 'TI': 'Counterexample Guided Abstraction Refinement Algorithm for Propositional Circumscription', 'JO': 'CoRR', 'VL': 'abs/1006.5896', 'PY': '2010//', 'UR': 'http://arxiv.org/abs/1006.5896'}</t>
         </is>
       </c>
     </row>
@@ -18731,7 +18731,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/0910.0013 (2009).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-0910-0013', 'AU': ['Janota, Mikolás', 'Marques-Silva, João', 'Grigore, Radu'], 'TI': 'Algorithms for finding dispensable variables', 'JO': 'CoRR', 'VL': 'abs/0910.0013', 'PY': '2009//', 'UR': 'http://arxiv.org/abs/0910.0013'}</t>
         </is>
       </c>
     </row>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/0910.3913 (2009).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-0910-3913', 'AU': ['Janota, Mikolás', 'Botterweck, Goetz', 'Grigore, Radu', 'Marques-Silva, João'], 'TI': 'How to Complete an Interactive Configuration Process?', 'JO': 'CoRR', 'VL': 'abs/0910.3913', 'PY': '2009//', 'UR': 'http://arxiv.org/abs/0910.3913'}</t>
         </is>
       </c>
     </row>
@@ -19151,7 +19151,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.03529 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2102-03529', 'AU': ['Suda, Martin'], 'TI': 'Vampire With a Brain Is a Good ITP Hammer.', 'JO': 'CoRR', 'VL': 'abs/2102.03529', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2102.03529'}</t>
         </is>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.13564 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2102-13564', 'AU': ['Suda, Martin'], 'TI': 'New Techniques that Improve ENIGMA-style Clause Selection Guidance.', 'JO': 'CoRR', 'VL': 'abs/2102.13564', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2102.13564'}</t>
         </is>
       </c>
     </row>
@@ -19301,7 +19301,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.09705 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2001-09705', 'AU': ['Gleiss, Bernhard', 'Suda, Martin'], 'TI': 'Layered Clause Selection for Theory Reasoning.', 'JO': 'CoRR', 'VL': 'abs/2001.09705', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2001.09705'}</t>
         </is>
       </c>
     </row>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1702.00847 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/KieslSSTB17', 'AU': ['Kiesl, Benjamin', 'Suda, Martin', 'Seidl, Martina', 'Tompits, Hans', 'Biere, Armin'], 'TI': 'Blocked Clauses in First-Order Logic.', 'JO': 'CoRR', 'VL': 'abs/1702.00847', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1702.00847'}</t>
         </is>
       </c>
     </row>
@@ -19931,7 +19931,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1704.03391 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/Reger0V17', 'AU': ['Reger, Giles', 'Suda, Martin', 'Voronkov, Andrei'], 'TI': 'Testing a Saturation-Based Theorem Prover: Experiences and Challenges (Extended Version).', 'JO': 'CoRR', 'VL': 'abs/1704.03391', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1704.03391'}</t>
         </is>
       </c>
     </row>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1711.02503 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1711-02503', 'AU': ['Gleiss, Bernhard', 'Kovács, Laura', 'Suda, Martin'], 'TI': 'Splitting Proofs for Interpolation.', 'JO': 'CoRR', 'VL': 'abs/1711.02503', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1711.02503'}</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1604.08040 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/Reger0V16', 'AU': ['Reger, Giles', 'Suda, Martin', 'Voronkov, Andrei'], 'TI': 'Finding Finite Models in Multi-Sorted First Order Logic.', 'JO': 'CoRR', 'VL': 'abs/1604.08040', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1604.08040'}</t>
         </is>
       </c>
     </row>
@@ -20231,7 +20231,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1604.08055 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/Reger0VH16', 'AU': ['Reger, Giles', 'Suda, Martin', 'Voronkov, Andrei', 'Hoder, Krystof'], 'TI': 'Selecting the Selection.', 'JO': 'CoRR', 'VL': 'abs/1604.08055', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1604.08055'}</t>
         </is>
       </c>
     </row>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1604.08058 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/BeyersdorffCS016', 'AU': ['Beyersdorff, Olaf', 'Chew, Leroy', 'Schmidt, Renate A.', 'Suda, Martin'], 'TI': 'Lifting QBF Resolution Calculi to DQBF.', 'JO': 'CoRR', 'VL': 'abs/1604.08058', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1604.08058'}</t>
         </is>
       </c>
     </row>
@@ -20291,7 +20291,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t xml:space="preserve"> informal Electron. Colloquium Comput. Complex. (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/eccc/BeyersdorffCSS16', 'AU': ['Beyersdorff, Olaf', 'Chew, Leroy', 'Schmidt, Renate A.', 'Suda, Martin'], 'TI': 'Lifting QBF Resolution Calculi to DQBF.', 'JO': 'Electron. Colloquium Comput. Complex.', 'VL': 'TR16', 'PY': '2016//', 'UR': 'https://eccc.weizmann.ac.il/report/2016/048'}</t>
         </is>
       </c>
     </row>
@@ -20531,7 +20531,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1304.0897 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1304-0897', 'AU': ['Suda, Martin'], 'TI': 'Duality in STRIPS planning', 'JO': 'CoRR', 'VL': 'abs/1304.0897', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1304.0897'}</t>
         </is>
       </c>
     </row>
@@ -20561,7 +20561,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1306.5539 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/Suda13', 'AU': ['Suda, Martin'], 'TI': 'Variable and clause elimination for LTL satisfiability checking.', 'JO': 'CoRR', 'VL': 'abs/1306.5539', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1306.5539'}</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1307.4966 (2013).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/Suda13a', 'AU': ['Suda, Martin'], 'TI': 'Triggered Clause Pushing for IC3.', 'JO': 'CoRR', 'VL': 'abs/1307.4966', 'PY': '2013//', 'UR': 'http://arxiv.org/abs/1307.4966'}</t>
         </is>
       </c>
     </row>
@@ -20831,7 +20831,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2205.06640 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2205-06640', 'AU': ['Brown, Chad E.', 'Kaliszyk, Cezary'], 'TI': 'Lash 1.0 (System Description).', 'JO': 'CoRR', 'VL': 'abs/2205.06640', 'PY': '2022//', 'DO': '10.48550/arXiv.2205.06640', 'UR': 'https://doi.org/10.48550/arXiv.2205.06640'}</t>
         </is>
       </c>
     </row>
@@ -20951,7 +20951,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.09193 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1904-09193', 'AU': ['Pradic, Pierre', 'Brown, Chad E.'], 'TI': 'Cantor-Bernstein implies Excluded Middle.', 'JO': 'CoRR', 'VL': 'abs/1904.09193', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1904.09193'}</t>
         </is>
       </c>
     </row>
@@ -20981,7 +20981,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.08368 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1907-08368', 'AU': ['Brown, Chad E.', 'Pak, Karol'], 'TI': 'A Tale of Two Set Theories.', 'JO': 'CoRR', 'VL': 'abs/1907.08368', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1907.08368'}</t>
         </is>
       </c>
     </row>
@@ -21011,7 +21011,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1912.01525 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1912-01525', 'AU': ['Brown, Chad E.', 'Gauthier, Thibault'], 'TI': 'Self-Learned Formula Synthesis in Set Theory.', 'JO': 'CoRR', 'VL': 'abs/1912.01525', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1912.01525'}</t>
         </is>
       </c>
     </row>
@@ -21071,7 +21071,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1605.09293 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/FarberB16', 'AU': ['Färber, Michael', 'Brown, Chad E.'], 'TI': 'Internal Guidance for Satallax.', 'JO': 'CoRR', 'VL': 'abs/1605.09293', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1605.09293'}</t>
         </is>
       </c>
     </row>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1003.6096 (2010).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1003-6096', 'AU': ['Jakubuv, Jan', 'Wells, J. B.'], 'TI': 'Expressiveness of Generic Process Shape Types', 'JO': 'CoRR', 'VL': 'abs/1003.6096', 'PY': '2010//', 'UR': 'http://arxiv.org/abs/1003.6096'}</t>
         </is>
       </c>
     </row>
@@ -22301,7 +22301,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2202.11908 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2202-11908', 'AU': ['Gauthier, Thibault'], 'TI': 'Program Synthesis for the OEIS.', 'JO': 'CoRR', 'VL': 'abs/2202.11908', 'PY': '2022//', 'UR': 'https://arxiv.org/abs/2202.11908'}</t>
         </is>
       </c>
     </row>
@@ -22421,7 +22421,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.01827 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2009-01827', 'AU': ['Gauthier, Thibault'], 'TI': 'Tree Neural Networks in HOL4.', 'JO': 'CoRR', 'VL': 'abs/2009.01827', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2009.01827'}</t>
         </is>
       </c>
     </row>
@@ -22481,7 +22481,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.11797 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1910-11797', 'AU': ['Gauthier, Thibault'], 'TI': 'Deep Reinforcement Learning in HOL4.', 'JO': 'CoRR', 'VL': 'abs/1910.11797', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1910.11797'}</t>
         </is>
       </c>
     </row>
@@ -22601,7 +22601,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1509.03527 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/GauthierK15', 'AU': ['Gauthier, Thibault', 'Kaliszyk, Cezary'], 'TI': 'Sharing HOL4 and HOL Light proof knowledge.', 'JO': 'CoRR', 'VL': 'abs/1509.03527', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1509.03527'}</t>
         </is>
       </c>
     </row>
@@ -22631,7 +22631,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1509.03534 (2015).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/GauthierK15a', 'AU': ['Gauthier, Thibault', 'Kaliszyk, Cezary'], 'TI': 'Premise Selection and External Provers for HOL4.', 'JO': 'CoRR', 'VL': 'abs/1509.03534', 'PY': '2015//', 'UR': 'http://arxiv.org/abs/1509.03534'}</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1405.3906 (2014).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/GauthierK14', 'AU': ['Gauthier, Thibault', 'Kaliszyk, Cezary'], 'TI': 'Matching concepts across HOL libraries.', 'JO': 'CoRR', 'VL': 'abs/1405.3906', 'PY': '2014//', 'UR': 'http://arxiv.org/abs/1405.3906'}</t>
         </is>
       </c>
     </row>
@@ -23171,7 +23171,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.13243 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2005-13243', 'AU': ['Hurtík, Petr', 'Molek, Vojtech', 'Hula, Jan', 'Vajgl, Marek', 'Vlasánek, Pavel', 'Nejezchleba, Tomas'], 'TI': 'Poly-YOLO: higher speed, more precise detection and instance segmentation for YOLOv3.', 'JO': 'CoRR', 'VL': 'abs/2005.13243', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2005.13243'}</t>
         </is>
       </c>
     </row>
@@ -23291,7 +23291,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1905.06782 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1905-06782', 'AU': ['Long, Waren', 'Markovtsev, Vadim', 'Mougard, Hugo', 'Bulychev, Egor', 'Hula, Jan'], 'TI': 'Identifying collaborators in large codebases.', 'JO': 'CoRR', 'VL': 'abs/1905.06782', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1905.06782'}</t>
         </is>
       </c>
     </row>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.10860 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1812-10860', 'AU': ['Bowman, Samuel R.', 'Pavlick, Ellie', 'Grave, Edouard', 'Durme, Benjamin Van', 'Wang, Alex', 'Hula, Jan', 'Xia, Patrick', 'Pappagari, Raghavendra', 'McCoy, R. Thomas', 'Patel, Roma', 'Kim, Najoung', 'Tenney, Ian', 'Huang, Yinghui', 'Yu, Katherin', 'Jin, Shuning', 'Chen, Berlin'], 'TI': "Looking for ELMo's friends: Sentence-Level Pretraining Beyond Language Modeling.", 'JO': 'CoRR', 'VL': 'abs/1812.10860', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1812.10860'}</t>
         </is>
       </c>
     </row>
@@ -23741,7 +23741,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR cs.LO/0301026 (2003).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/cs-LO-0301026', 'AU': ['Beeson, Michael', 'Veroff, Robert', 'Wos, Larry'], 'TI': 'Double-Negation Elimination in Some Propositional Logics', 'JO': 'CoRR', 'VL': 'cs.LO/0301026', 'PY': '2003//', 'UR': 'http://arxiv.org/abs/cs/0301026'}</t>
         </is>
       </c>
     </row>
@@ -24221,7 +24221,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2004-08858', 'AU': ['Goertzel, Zarathustra Amadeus'], 'TI': 'Make E Smart Again.', 'JO': 'CoRR', 'VL': 'abs/2004.08858', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2004.08858'}</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2001-10834', 'AU': ['Nagashima, Yutaka'], 'TI': 'Smart Induction for Isabelle/HOL (System Description).', 'JO': 'CoRR', 'VL': 'abs/2001.10834', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2001.10834'}</t>
         </is>
       </c>
     </row>
@@ -24371,7 +24371,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2004-10667', 'AU': ['Nagashima, Yutaka'], 'TI': 'Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description).', 'JO': 'CoRR', 'VL': 'abs/2004.10667', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2004.10667'}</t>
         </is>
       </c>
     </row>
@@ -24401,7 +24401,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2005-12737', 'AU': ['Nagashima, Yutaka'], 'TI': 'Towards United Reasoning for Automatic Induction in Isabelle/HOL.', 'JO': 'CoRR', 'VL': 'abs/2005.12737', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2005.12737'}</t>
         </is>
       </c>
     </row>
@@ -24431,7 +24431,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2009-09215', 'AU': ['Nagashima, Yutaka'], 'TI': 'Faster Smarter Induction in Isabelle/HOL with SeLFiE.', 'JO': 'CoRR', 'VL': 'abs/2009.09215', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2009.09215'}</t>
         </is>
       </c>
     </row>
@@ -24461,7 +24461,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2010-10296', 'AU': ['Nagashima, Yutaka'], 'TI': 'SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL.', 'JO': 'CoRR', 'VL': 'abs/2010.10296', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2010.10296'}</t>
         </is>
       </c>
     </row>
@@ -24551,7 +24551,7 @@
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1904-08468', 'AU': ['Nagashima, Yutaka'], 'TI': 'Towards Evolutionary Theorem Proving for Isabelle/HOL.', 'JO': 'CoRR', 'VL': 'abs/1904.08468', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1904.08468'}</t>
         </is>
       </c>
     </row>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1906-08084', 'AU': ['Nagashima, Yutaka'], 'TI': 'LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL.', 'JO': 'CoRR', 'VL': 'abs/1906.08084', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1906.08084'}</t>
         </is>
       </c>
     </row>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1906-08549', 'AU': ['Nagashima, Yutaka'], 'TI': 'Designing Game of Theorems.', 'JO': 'CoRR', 'VL': 'abs/1906.08549', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1906.08549'}</t>
         </is>
       </c>
     </row>
@@ -24641,7 +24641,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1907-02594', 'AU': ['Nagashima, Yutaka'], 'TI': 'Domain-Specific Language to Encode Induction Heuristics.', 'JO': 'CoRR', 'VL': 'abs/1907.02594', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1907.02594'}</t>
         </is>
       </c>
     </row>
@@ -24731,7 +24731,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1806-04774', 'AU': ['Nagashima, Yutaka', 'Parsert, Julian'], 'TI': 'Goal-Oriented Conjecturing for Isabelle/HOL.', 'JO': 'CoRR', 'VL': 'abs/1806.04774', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1806.04774'}</t>
         </is>
       </c>
     </row>
@@ -24761,7 +24761,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1806-07239', 'AU': ['Nagashima, Yutaka', 'He, Yilun'], 'TI': 'PaMpeR: Proof Method Recommendation System for Isabelle/HOL.', 'JO': 'CoRR', 'VL': 'abs/1806.07239', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1806.07239'}</t>
         </is>
       </c>
     </row>
@@ -24791,7 +24791,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1812-04088', 'AU': ['Nagashima, Yutaka'], 'TI': 'Towards Machine Learning Mathematical Induction.', 'JO': 'CoRR', 'VL': 'abs/1812.04088', 'PY': '2018//', 'UR': 'http://arxiv.org/abs/1812.04088'}</t>
         </is>
       </c>
     </row>
@@ -24851,7 +24851,7 @@
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/Nagashima17', 'AU': ['Nagashima, Yutaka'], 'TI': 'Towards Smart Proof Search for Isabelle.', 'JO': 'CoRR', 'VL': 'abs/1701.03037', 'PY': '2017//', 'UR': 'http://arxiv.org/abs/1701.03037'}</t>
         </is>
       </c>
     </row>
@@ -24881,7 +24881,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs (2016)</t>
+          <t xml:space="preserve"> Arch. Formal Proofs 2016: (2016).</t>
         </is>
       </c>
     </row>
@@ -25001,7 +25001,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/OConnorRCALNSHK16', 'AU': ["O'Connor, Liam", 'Rizkallah, Christine', 'Chen, Zilin', 'Amani, Sidney', 'Lim, Japheth', 'Nagashima, Yutaka', 'Sewell, Thomas', 'Hixon, Alex', 'Keller, Gabriele', 'Murray, Toby C.', 'Klein, Gerwin'], 'TI': 'COGENT: Certified Compilation for a Functional Systems Language.', 'JO': 'CoRR', 'VL': 'abs/1601.05520', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1601.05520'}</t>
         </is>
       </c>
     </row>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/NagashimaK16', 'AU': ['Nagashima, Yutaka', 'Kumar, Ramana'], 'TI': 'A Proof Strategy Language and Proof Script Generation for Isabelle.', 'JO': 'CoRR', 'VL': 'abs/1606.02941', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1606.02941'}</t>
         </is>
       </c>
     </row>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/NagashimaO16', 'AU': ['Nagashima, Yutaka', "O'Connor, Liam"], 'TI': 'Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML.', 'JO': 'CoRR', 'VL': 'abs/1608.03350', 'PY': '2016//', 'UR': 'http://arxiv.org/abs/1608.03350'}</t>
         </is>
       </c>
     </row>
@@ -25091,7 +25091,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2302.12433 (2023).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2302-12433', 'AU': ['Azerbayev, Zhangir', 'Piotrowski, Bartosz', 'Schoelkopf, Hailey', 'Ayers, Edward W.', 'Radev, Dragomir', 'Avigad, Jeremy'], 'TI': 'ProofNet: Autoformalizing and Formally Proving Undergraduate-Level Mathematics.', 'JO': 'CoRR', 'VL': 'abs/2302.12433', 'PY': '2023//', 'DO': '10.48550/arXiv.2302.12433', 'UR': 'https://doi.org/10.48550/arXiv.2302.12433'}</t>
         </is>
       </c>
     </row>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2007-10085', 'AU': ['Kulich, Miroslav', 'Kubalík, Jirí', 'Preucil, Libor'], 'TI': 'An Integrated Approach to Goal Selection in Mobile Robot Exploration.', 'JO': 'CoRR', 'VL': 'abs/2007.10085', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2007.10085'}</t>
         </is>
       </c>
     </row>
@@ -26531,7 +26531,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2209-00526', 'AU': ['Nawala, Jakub', 'Janowski, Lucjan', 'Cmiel, Bogdan', 'Rusek, Krzysztof', 'Kastner, Marc A.', 'Zahálka, Jan'], 'TI': 'Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot.', 'JO': 'CoRR', 'VL': 'abs/2209.00526', 'PY': '2022//', 'DO': '10.48550/arXiv.2209.00526', 'UR': 'https://doi.org/10.48550/arXiv.2209.00526'}</t>
         </is>
       </c>
     </row>
@@ -26921,7 +26921,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2005-02149', 'AU': ['Zahálka, Jan', 'Worring, Marcel', 'Wijk, Jarke J. van'], 'TI': 'II-20: Intelligent and pragmatic analytic categorization of image collections.', 'JO': 'CoRR', 'VL': 'abs/2005.02149', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2005.02149'}</t>
         </is>
       </c>
     </row>
@@ -27011,7 +27011,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1904-08689', 'AU': ['Jónsson, Björn Þór', 'Khan, Omar Shahbaz', 'Ragnarsdóttir, Hanna', 'Þorleiksdóttir, Þórhildur', 'Zahálka, Jan', 'Rudinac, Stevan', 'Guðmundsson, Gylfi Þór', 'Amsaleg, Laurent', 'Worring, Marcel'], 'TI': 'Exquisitor: Interactive Learning at Large.', 'JO': 'CoRR', 'VL': 'abs/1904.08689', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1904.08689'}</t>
         </is>
       </c>
     </row>
@@ -27431,7 +27431,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1910-07501', 'AU': ['Benedikt, Ondrej', 'Alikoc, Baran', 'Sucha, Premysl', 'Celikovský, Sergej', 'Hanzálek, Zdenek'], 'TI': 'A scheduling and control approach for an industrial furnace to minimize idle energy consumption.', 'JO': 'CoRR', 'VL': 'abs/1910.07501', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1910.07501'}</t>
         </is>
       </c>
     </row>
@@ -27461,7 +27461,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1911-10359', 'AU': ['Alikoc, Baran', 'Hengster-Movric, Kristian'], 'TI': 'Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs.', 'JO': 'CoRR', 'VL': 'abs/1911.10359', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1911.10359'}</t>
         </is>
       </c>
     </row>
@@ -27581,7 +27581,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2102-05126', 'AU': ['Kulhánek, Jonás', 'Hudecek, Vojtech', 'Nekvinda, Tomás', 'Dusek, Ondrej'], 'TI': 'AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation.', 'JO': 'CoRR', 'VL': 'abs/2102.05126', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2102.05126'}</t>
         </is>
       </c>
     </row>
@@ -27641,7 +27641,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.03920 (2020).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2010-03920', 'AU': ['Vastl, Martin', 'Zeman, Daniel', 'Rosa, Rudolf'], 'TI': 'Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task.', 'JO': 'CoRR', 'VL': 'abs/2010.03920', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2010.03920'}</t>
         </is>
       </c>
     </row>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F907"/>
+  <dimension ref="A1:F908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25098,16 +25098,16 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -25116,54 +25116,54 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.00994 </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2304-00994', 'AU': ['Piotrowski, Bartosz', 'Mir, Ramon Fernández', 'Ayers, Edward W.'], 'TI': 'Machine-Learned Premise Selection for Lean.', 'JO': 'CoRR', 'VL': 'abs/2304.00994', 'PY': '2023//', 'DO': '10.48550/arXiv.2304.00994', 'UR': 'https://doi.org/10.48550/arXiv.2304.00994'}</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C824" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C825" t="n">
@@ -25176,7 +25176,7 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
@@ -25188,16 +25188,16 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -25206,12 +25206,12 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2007-10085', 'AU': ['Kulich, Miroslav', 'Kubalík, Jirí', 'Preucil, Libor'], 'TI': 'An Integrated Approach to Goal Selection in Mobile Robot Exploration.', 'JO': 'CoRR', 'VL': 'abs/2007.10085', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2007.10085'}</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -25227,7 +25227,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -25236,24 +25236,24 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2007-10085', 'AU': ['Kulich, Miroslav', 'Kubalík, Jirí', 'Preucil, Libor'], 'TI': 'An Integrated Approach to Goal Selection in Mobile Robot Exploration.', 'JO': 'CoRR', 'VL': 'abs/2007.10085', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2007.10085'}</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C828" t="n">
@@ -25266,28 +25266,28 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -25296,28 +25296,28 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -25326,24 +25326,24 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C831" t="n">
@@ -25356,28 +25356,28 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -25386,24 +25386,24 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C833" t="n">
@@ -25416,24 +25416,24 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C834" t="n">
@@ -25446,28 +25446,28 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C835" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -25476,24 +25476,24 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C836" t="n">
@@ -25506,24 +25506,24 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C837" t="n">
@@ -25536,24 +25536,24 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -25566,28 +25566,28 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -25596,24 +25596,24 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C840" t="n">
@@ -25626,24 +25626,24 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C841" t="n">
@@ -25656,24 +25656,24 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C842" t="n">
@@ -25686,28 +25686,28 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C843" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -25716,24 +25716,24 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -25746,24 +25746,24 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C845" t="n">
@@ -25776,24 +25776,24 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C846" t="n">
@@ -25806,24 +25806,24 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -25836,24 +25836,24 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C848" t="n">
@@ -25866,24 +25866,24 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C849" t="n">
@@ -25896,28 +25896,28 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C850" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -25926,12 +25926,12 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -25943,7 +25943,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C851" t="n">
@@ -25956,12 +25956,12 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -25973,7 +25973,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C852" t="n">
@@ -25986,24 +25986,24 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C853" t="n">
@@ -26016,28 +26016,28 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -26046,28 +26046,28 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -26076,28 +26076,28 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -26106,24 +26106,24 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C857" t="n">
@@ -26136,24 +26136,24 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C858" t="n">
@@ -26166,28 +26166,28 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C859" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -26196,24 +26196,24 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C860" t="n">
@@ -26226,28 +26226,28 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C861" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -26256,24 +26256,24 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C862" t="n">
@@ -26286,24 +26286,24 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C863" t="n">
@@ -26316,28 +26316,28 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -26346,28 +26346,28 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -26376,24 +26376,24 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C866" t="n">
@@ -26406,24 +26406,24 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -26441,23 +26441,23 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C868" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -26466,24 +26466,24 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C869" t="n">
@@ -26496,24 +26496,24 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -26526,28 +26526,28 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2209-00526', 'AU': ['Nawala, Jakub', 'Janowski, Lucjan', 'Cmiel, Bogdan', 'Rusek, Krzysztof', 'Kastner, Marc A.', 'Zahálka, Jan'], 'TI': 'Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot.', 'JO': 'CoRR', 'VL': 'abs/2209.00526', 'PY': '2022//', 'DO': '10.48550/arXiv.2209.00526', 'UR': 'https://doi.org/10.48550/arXiv.2209.00526'}</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C871" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -26556,24 +26556,24 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2209-00526', 'AU': ['Nawala, Jakub', 'Janowski, Lucjan', 'Cmiel, Bogdan', 'Rusek, Krzysztof', 'Kastner, Marc A.', 'Zahálka, Jan'], 'TI': 'Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot.', 'JO': 'CoRR', 'VL': 'abs/2209.00526', 'PY': '2022//', 'DO': '10.48550/arXiv.2209.00526', 'UR': 'https://doi.org/10.48550/arXiv.2209.00526'}</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -26586,24 +26586,24 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C873" t="n">
@@ -26616,24 +26616,24 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C874" t="n">
@@ -26646,24 +26646,24 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -26676,24 +26676,24 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -26706,24 +26706,24 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,28 +26736,28 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C878" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -26766,24 +26766,24 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -26796,24 +26796,24 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C880" t="n">
@@ -26826,24 +26826,24 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -26856,24 +26856,24 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,24 +26886,24 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C883" t="n">
@@ -26916,28 +26916,28 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2005-02149', 'AU': ['Zahálka, Jan', 'Worring, Marcel', 'Wijk, Jarke J. van'], 'TI': 'II-20: Intelligent and pragmatic analytic categorization of image collections.', 'JO': 'CoRR', 'VL': 'abs/2005.02149', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2005.02149'}</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C884" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -26946,24 +26946,24 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2005-02149', 'AU': ['Zahálka, Jan', 'Worring, Marcel', 'Wijk, Jarke J. van'], 'TI': 'II-20: Intelligent and pragmatic analytic categorization of image collections.', 'JO': 'CoRR', 'VL': 'abs/2005.02149', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2005.02149'}</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C885" t="n">
@@ -26976,24 +26976,24 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -27006,28 +27006,28 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1904-08689', 'AU': ['Jónsson, Björn Þór', 'Khan, Omar Shahbaz', 'Ragnarsdóttir, Hanna', 'Þorleiksdóttir, Þórhildur', 'Zahálka, Jan', 'Rudinac, Stevan', 'Guðmundsson, Gylfi Þór', 'Amsaleg, Laurent', 'Worring, Marcel'], 'TI': 'Exquisitor: Interactive Learning at Large.', 'JO': 'CoRR', 'VL': 'abs/1904.08689', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1904.08689'}</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C887" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -27036,28 +27036,28 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1904-08689', 'AU': ['Jónsson, Björn Þór', 'Khan, Omar Shahbaz', 'Ragnarsdóttir, Hanna', 'Þorleiksdóttir, Þórhildur', 'Zahálka, Jan', 'Rudinac, Stevan', 'Guðmundsson, Gylfi Þór', 'Amsaleg, Laurent', 'Worring, Marcel'], 'TI': 'Exquisitor: Interactive Learning at Large.', 'JO': 'CoRR', 'VL': 'abs/1904.08689', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1904.08689'}</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C888" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -27066,28 +27066,28 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C889" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -27096,24 +27096,24 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C890" t="n">
@@ -27126,24 +27126,24 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C891" t="n">
@@ -27156,28 +27156,28 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C892" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -27186,12 +27186,12 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
@@ -27203,7 +27203,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -27216,28 +27216,28 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C894" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -27246,12 +27246,12 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
@@ -27263,7 +27263,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -27276,24 +27276,24 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -27306,24 +27306,24 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C897" t="n">
@@ -27336,28 +27336,28 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -27366,28 +27366,28 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -27396,12 +27396,12 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
@@ -27413,11 +27413,11 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C900" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -27426,24 +27426,24 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1910-07501', 'AU': ['Benedikt, Ondrej', 'Alikoc, Baran', 'Sucha, Premysl', 'Celikovský, Sergej', 'Hanzálek, Zdenek'], 'TI': 'A scheduling and control approach for an industrial furnace to minimize idle energy consumption.', 'JO': 'CoRR', 'VL': 'abs/1910.07501', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1910.07501'}</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C901" t="n">
@@ -27456,28 +27456,28 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1911-10359', 'AU': ['Alikoc, Baran', 'Hengster-Movric, Kristian'], 'TI': 'Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs.', 'JO': 'CoRR', 'VL': 'abs/1911.10359', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1911.10359'}</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1910-07501', 'AU': ['Benedikt, Ondrej', 'Alikoc, Baran', 'Sucha, Premysl', 'Celikovský, Sergej', 'Hanzálek, Zdenek'], 'TI': 'A scheduling and control approach for an industrial furnace to minimize idle energy consumption.', 'JO': 'CoRR', 'VL': 'abs/1910.07501', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1910.07501'}</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C902" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -27486,28 +27486,28 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-1911-10359', 'AU': ['Alikoc, Baran', 'Hengster-Movric, Kristian'], 'TI': 'Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs.', 'JO': 'CoRR', 'VL': 'abs/1911.10359', 'PY': '2019//', 'UR': 'http://arxiv.org/abs/1911.10359'}</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C903" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -27516,28 +27516,28 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
         </is>
       </c>
       <c r="C904" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -27546,28 +27546,28 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
+          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
+          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
       <c r="C905" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -27576,24 +27576,24 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2102-05126', 'AU': ['Kulhánek, Jonás', 'Hudecek, Vojtech', 'Nekvinda, Tomás', 'Dusek, Ondrej'], 'TI': 'AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation.', 'JO': 'CoRR', 'VL': 'abs/2102.05126', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2102.05126'}</t>
+          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
         </is>
       </c>
       <c r="C906" t="n">
@@ -27606,40 +27606,70 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+          <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2102-05126', 'AU': ['Kulhánek, Jonás', 'Hudecek, Vojtech', 'Nekvinda, Tomás', 'Dusek, Ondrej'], 'TI': 'AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation.', 'JO': 'CoRR', 'VL': 'abs/2102.05126', 'PY': '2021//', 'UR': 'https://arxiv.org/abs/2102.05126'}</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
+          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
           <t xml:space="preserve">Martin Vastl, Daniel Zeman, Rudolf Rosa </t>
         </is>
       </c>
-      <c r="B907" t="inlineStr">
+      <c r="B908" t="inlineStr">
         <is>
           <t xml:space="preserve"> Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task. </t>
         </is>
       </c>
-      <c r="C907" t="n">
+      <c r="C908" t="n">
         <v>2020</v>
       </c>
-      <c r="D907" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E907" t="inlineStr">
+      <c r="D908" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://arxiv.org/abs/2010.03920 </t>
         </is>
       </c>
-      <c r="F907" t="inlineStr">
+      <c r="F908" t="inlineStr">
         <is>
           <t xml:space="preserve"> YAN TODO: Informal or Other Publication{'TY': 'Informal or Other Publication', 'ID': 'DBLP:journals/corr/abs-2010-03920', 'AU': ['Vastl, Martin', 'Zeman, Daniel', 'Rosa, Rudolf'], 'TI': 'Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task.', 'JO': 'CoRR', 'VL': 'abs/2010.03920', 'PY': '2020//', 'UR': 'https://arxiv.org/abs/2010.03920'}</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -8106,7 +8106,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.isca-speech.org/archive/interspeech_2014/i14_2635.html </t>
+          <t xml:space="preserve"> https://doi.org/10.21437/Interspeech.2014-564 </t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.isca-speech.org/archive/interspeech_2011/i11_0605.html </t>
+          <t xml:space="preserve"> https://doi.org/10.21437/Interspeech.2011-242 </t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.isca-speech.org/archive/interspeech_2011/i11_2877.html </t>
+          <t xml:space="preserve"> https://doi.org/10.21437/Interspeech.2011-720 </t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.isca-speech.org/archive/interspeech_2010/i10_1045.html </t>
+          <t xml:space="preserve"> https://doi.org/10.21437/Interspeech.2010-343 </t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.isca-speech.org/archive/interspeech_2008/i08_0739.html </t>
+          <t xml:space="preserve"> https://doi.org/10.21437/Interspeech.2008-230 </t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.isca-speech.org/archive/interspeech_2008/i08_0743.html </t>
+          <t xml:space="preserve"> https://doi.org/10.21437/Interspeech.2008-231 </t>
         </is>
       </c>
       <c r="F283" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -6576,7 +6576,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.isca-speech.org/archive/interspeech_2021/mikolov21_interspeech.html </t>
+          <t xml:space="preserve"> https://www.isca-speech.org/archive/interspeech_2021/mikolov21_interspeech.html </t>
         </is>
       </c>
       <c r="F205" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -15888,7 +15888,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t xml:space="preserve">D. Passaquay, M. Bross, Robert Babuska, S. Boverie, André Titli </t>
+          <t xml:space="preserve">D. Passaquay, M. Bross, Robert Babuska, Serge Boverie, André Titli </t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -23886,7 +23886,7 @@
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10817-021-09614-y </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114264018 </t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
@@ -24156,7 +24156,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s11225-005-8469-4 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114262834 </t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
@@ -24486,7 +24486,7 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/BF00244283 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114267080 </t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
@@ -24576,7 +24576,7 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/0004-3702(84)90054-7 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114262293 </t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
@@ -24636,7 +24636,7 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1305/ndjfl/1093870311 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114254310 </t>
         </is>
       </c>
       <c r="F807" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://ojs.aaai.org/index.php/AAAI/article/view/25930 </t>
+          <t xml:space="preserve"> https://doi.org/10.1609/aaai.v37i6.25930 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.aaai.org/ocs/index.php/AAAI/AAAI18/paper/view/16166 </t>
+          <t xml:space="preserve"> https://doi.org/10.1609/aaai.v32i1.11945 </t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.aaai.org/ocs/index.php/AAAI/AAAI18/paper/view/16945 </t>
+          <t xml:space="preserve"> https://doi.org/10.1609/aaai.v32i1.12208 </t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -17646,7 +17646,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.aaai.org/ocs/index.php/WS/AAAIW16/paper/view/12612 </t>
+          <t xml:space="preserve"> http://www.aaai.org/ocs/index.php//WS/AAAIW16/paper/view/12612 </t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.aaai.org/ocs/index.php/AAAI/AAAI15/paper/view/9419 </t>
+          <t xml:space="preserve"> https://doi.org/10.1609/aaai.v31i1.9750 </t>
         </is>
       </c>
       <c r="F582" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -12371,7 +12371,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2013 IEEE/RSJ International Conference on Intelligent Robots and Systems, Tokyo, Japan, November 3-7, 2013: 2288-2294 (2013).</t>
+          <t xml:space="preserve"> 2013 IEEE/RSJ International Conference on Intelligent Robots and Systems, IROS 2013, Tokyo, Japan, November 3-7, 2013: 2288-2294 (2013).</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17646,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.aaai.org/ocs/index.php//WS/AAAIW16/paper/view/12612 </t>
+          <t xml:space="preserve"> http://www.aaai.org/ocs/index.php/WS/AAAIW16/paper/view/12612 </t>
         </is>
       </c>
       <c r="F574" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F927"/>
+  <dimension ref="A1:F928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22313,11 +22313,11 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Relaxed Weighted Path Order in Theorem Proving. </t>
+          <t xml:space="preserve"> VizAR: Visualization of Automated Reasoning Proofs (System Description). </t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -22326,28 +22326,28 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482108 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-42753-4_22 </t>
         </is>
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Math. Comput. Sci. 14: 657-670 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 16th International Conference, CICM 2023, Cambridge, UK, September 5-8, 2023, Proceedings: 303-308 (2023).</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda </t>
+          <t xml:space="preserve">Jan Jakubuv, Cezary Kaliszyk </t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recursive Reductions of Action Dependencies for Coordination-Based Multiagent Planning. </t>
+          <t xml:space="preserve"> Relaxed Weighted Path Order in Theorem Proving. </t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -22356,24 +22356,24 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044865 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482108 </t>
         </is>
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trans. Comput. Collect. Intell. 28: 66-92 (2018).</t>
+          <t xml:space="preserve"> Math. Comput. Sci. 14: 657-670 (2020).</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Jakubuv, Cezary Kaliszyk </t>
+          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda </t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards a Unified Ordering for Superposition-Based Automated Reasoning. </t>
+          <t xml:space="preserve"> Recursive Reductions of Action Dependencies for Coordination-Based Multiagent Planning. </t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -22386,28 +22386,28 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482122 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044865 </t>
         </is>
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mathematical Software - ICMS 2018 - 6th International Conference, South Bend, IN, USA, July 24-27, 2018, Proceedings: 245-254 (2018).</t>
+          <t xml:space="preserve"> Trans. Comput. Collect. Intell. 28: 66-92 (2018).</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda, Michal Pechoucek </t>
+          <t xml:space="preserve">Jan Jakubuv, Cezary Kaliszyk </t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Privacy-concerned multiagent planning. </t>
+          <t xml:space="preserve"> Towards a Unified Ordering for Superposition-Based Automated Reasoning. </t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -22416,24 +22416,24 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044875 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482122 </t>
         </is>
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowl. Inf. Syst. 48: 581-618 (2016).</t>
+          <t xml:space="preserve"> Mathematical Software - ICMS 2018 - 6th International Conference, South Bend, IN, USA, July 24-27, 2018, Proceedings: 245-254 (2018).</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Martin Svatos, Antonín Komenda </t>
+          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recursive Polynomial Reductions for Classical Planning. </t>
+          <t xml:space="preserve"> Privacy-concerned multiagent planning. </t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -22446,24 +22446,24 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.aaai.org/ocs/index.php/ICAPS/ICAPS16/paper/view/13088 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044875 </t>
         </is>
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-Sixth International Conference on Automated Planning and Scheduling, ICAPS 2016, London, UK, June 12-17, 2016.: 317-325 (2016).</t>
+          <t xml:space="preserve"> Knowl. Inf. Syst. 48: 581-618 (2016).</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda </t>
+          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Martin Svatos, Antonín Komenda </t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recursive Reductions of Internal Dependencies in Multiagent Planning. </t>
+          <t xml:space="preserve"> Recursive Polynomial Reductions for Classical Planning. </t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -22476,28 +22476,28 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0005754901810191 </t>
+          <t xml:space="preserve"> http://www.aaai.org/ocs/index.php/ICAPS/ICAPS16/paper/view/13088 </t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 8th International Conference on Agents and Artificial Intelligence (ICAART 2016), Volume 2, Rome, Italy, February 24-26, 2016.: 181-191 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-Sixth International Conference on Automated Planning and Scheduling, ICAPS 2016, London, UK, June 12-17, 2016.: 317-325 (2016).</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Karel Durkota, Antonín Komenda </t>
+          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda </t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Extensibility Based Multiagent Planner with Plan Diversity Metrics. </t>
+          <t xml:space="preserve"> Recursive Reductions of Internal Dependencies in Multiagent Planning. </t>
         </is>
       </c>
       <c r="C736" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -22506,24 +22506,24 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044876 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0005754901810191 </t>
         </is>
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trans. Comput. Collect. Intell. 20: 117-139 (2015).</t>
+          <t xml:space="preserve"> Proceedings of the 8th International Conference on Agents and Artificial Intelligence (ICAART 2016), Volume 2, Rome, Italy, February 24-26, 2016.: 181-191 (2016).</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda </t>
+          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Karel Durkota, Antonín Komenda </t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t xml:space="preserve"> From Public Plans to Global Solutions in Multiagent Planning. </t>
+          <t xml:space="preserve"> Extensibility Based Multiagent Planner with Plan Diversity Metrics. </t>
         </is>
       </c>
       <c r="C737" t="n">
@@ -22536,24 +22536,24 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044872 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044876 </t>
         </is>
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multi-Agent Systems and Agreement Technologies - 13th European Conference, EUMAS 2015, and Third International Conference, AT 2015, Athens, Greece, December 17-18, 2015, Revised Selected Papers: 21-33 (2015).</t>
+          <t xml:space="preserve"> Trans. Comput. Collect. Intell. 20: 117-139 (2015).</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Jakubuv, Jan Tozicka, Antonín Komenda </t>
+          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda </t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiagent Planning by Plan Set Intersection and Plan Verification. </t>
+          <t xml:space="preserve"> From Public Plans to Global Solutions in Multiagent Planning. </t>
         </is>
       </c>
       <c r="C738" t="n">
@@ -22566,12 +22566,12 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044872 </t>
         </is>
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICAART 2015 - Proceedings of the International Conference on Agents and Artificial Intelligence, Volume 2, Lisbon, Portugal, 10-12 January, 2015.: 173-182 (2015).</t>
+          <t xml:space="preserve"> Multi-Agent Systems and Agreement Technologies - 13th European Conference, EUMAS 2015, and Third International Conference, AT 2015, Athens, Greece, December 17-18, 2015, Revised Selected Papers: 21-33 (2015).</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Using Process Calculi for Plan Verification in Multiagent Planning. </t>
+          <t xml:space="preserve"> Multiagent Planning by Plan Set Intersection and Plan Verification. </t>
         </is>
       </c>
       <c r="C739" t="n">
@@ -22596,28 +22596,28 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044878 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Agents and Artificial Intelligence - 7th International Conference, ICAART 2015, Lisbon, Portugal, January 10-12, 2015, Revised Selected Papers: 245-261 (2015).</t>
+          <t xml:space="preserve"> ICAART 2015 - Proceedings of the International Conference on Agents and Artificial Intelligence, Volume 2, Lisbon, Portugal, 10-12 January, 2015.: 173-182 (2015).</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda </t>
+          <t xml:space="preserve">Jan Jakubuv, Jan Tozicka, Antonín Komenda </t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generating Multi-Agent Plans by Distributed Intersection of Finite State Machines. </t>
+          <t xml:space="preserve"> Using Process Calculi for Plan Verification in Multiagent Planning. </t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -22626,24 +22626,24 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-419-0-1111 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044878 </t>
         </is>
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECAI 2014 - 21st European Conference on Artificial Intelligence, 18-22 August 2014, Prague, Czech Republic - Including Prestigious Applications of Intelligent Systems (PAIS 2014): 1111-1112 (2014).</t>
+          <t xml:space="preserve"> Agents and Artificial Intelligence - 7th International Conference, ICAART 2015, Lisbon, Portugal, January 10-12, 2015, Revised Selected Papers: 245-261 (2015).</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Karel Durkota, Antonín Komenda, Michal Pechoucek </t>
+          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Antonín Komenda </t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiagent Planning Supported by Plan Diversity Metrics and Landmark Actions. </t>
+          <t xml:space="preserve"> Generating Multi-Agent Plans by Distributed Intersection of Finite State Machines. </t>
         </is>
       </c>
       <c r="C741" t="n">
@@ -22656,28 +22656,28 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004918701780189 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-419-0-1111 </t>
         </is>
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICAART 2014 - Proceedings of the 6th International Conference on Agents and Artificial Intelligence, Volume 1, ESEO, Angers, Loire Valley, France, 6-8 March, 2014: 178-189 (2014).</t>
+          <t xml:space="preserve"> ECAI 2014 - 21st European Conference on Artificial Intelligence, 18-22 August 2014, Prague, Czech Republic - Including Prestigious Applications of Intelligent Systems (PAIS 2014): 1111-1112 (2014).</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Jakubuv, J. B. Wells </t>
+          <t xml:space="preserve">Jan Tozicka, Jan Jakubuv, Karel Durkota, Antonín Komenda, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Expressiveness of Generic Process Shape Types. </t>
+          <t xml:space="preserve"> Multiagent Planning Supported by Plan Diversity Metrics and Landmark Actions. </t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -22686,12 +22686,12 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044883 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004918701780189 </t>
         </is>
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trustworthly Global Computing - 5th International Symposium, TGC 2010, Munich, Germany, February 24-26, 2010, Revised Selected Papers: 103-119 (2010).</t>
+          <t xml:space="preserve"> ICAART 2014 - Proceedings of the 6th International Conference on Agents and Artificial Intelligence, Volume 1, ESEO, Angers, Loire Valley, France, 6-8 March, 2014: 178-189 (2014).</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Expressiveness of Generic Process Shape Types </t>
+          <t xml:space="preserve"> Expressiveness of Generic Process Shape Types. </t>
         </is>
       </c>
       <c r="C743" t="n">
@@ -22716,42 +22716,42 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1003.6096 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q62044883 </t>
         </is>
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1003.6096 (2010).</t>
+          <t xml:space="preserve"> Trustworthly Global Computing - 5th International Symposium, TGC 2010, Munich, Germany, February 24-26, 2010, Revised Selected Papers: 103-119 (2010).</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thibault Gauthier </t>
+          <t xml:space="preserve">Jan Jakubuv, J. B. Wells </t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Program Synthesis for the OEIS. </t>
+          <t xml:space="preserve"> Expressiveness of Generic Process Shape Types </t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2202.11908 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1003.6096 </t>
         </is>
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2202.11908 (2022).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1003.6096 (2010).</t>
         </is>
       </c>
     </row>
@@ -22763,11 +22763,11 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Learned Provability Likelihood for Tactical Search. </t>
+          <t xml:space="preserve"> Program Synthesis for the OEIS. </t>
         </is>
       </c>
       <c r="C745" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -22776,12 +22776,12 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2109.03234 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2202.11908 </t>
         </is>
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 9th International Symposium on Symbolic Computation in Software Science, SCSS 2021, Hagenberg, Austria, September 8-10, 2021.: 78-85 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2202.11908 (2022).</t>
         </is>
       </c>
     </row>
@@ -22793,11 +22793,11 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deep Reinforcement Learning for Synthesizing Functions in Higher-Order Logic. </t>
+          <t xml:space="preserve"> Learned Provability Likelihood for Tactical Search. </t>
         </is>
       </c>
       <c r="C746" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -22806,12 +22806,12 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.29007/7jmg </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2109.03234 </t>
         </is>
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LPAR 2020: 23rd International Conference on Logic for Programming, Artificial Intelligence and Reasoning, Alicante, Spain, May 22-27, 2020.: 230-248 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the 9th International Symposium on Symbolic Computation in Software Science, SCSS 2021, Hagenberg, Austria, September 8-10, 2021.: 78-85 (2021).</t>
         </is>
       </c>
     </row>
@@ -22823,7 +22823,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tree Neural Networks in HOL4. </t>
+          <t xml:space="preserve"> Deep Reinforcement Learning for Synthesizing Functions in Higher-Order Logic. </t>
         </is>
       </c>
       <c r="C747" t="n">
@@ -22836,12 +22836,12 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_18 </t>
+          <t xml:space="preserve"> https://doi.org/10.29007/7jmg </t>
         </is>
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 278-283 (2020).</t>
+          <t xml:space="preserve"> LPAR 2020: 23rd International Conference on Logic for Programming, Artificial Intelligence and Reasoning, Alicante, Spain, May 22-27, 2020.: 230-248 (2020).</t>
         </is>
       </c>
     </row>
@@ -22866,28 +22866,28 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.01827 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_18 </t>
         </is>
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.01827 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 278-283 (2020).</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thibault Gauthier, Cezary Kaliszyk </t>
+          <t xml:space="preserve">Thibault Gauthier </t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aligning concepts across proof assistant libraries. </t>
+          <t xml:space="preserve"> Tree Neural Networks in HOL4. </t>
         </is>
       </c>
       <c r="C749" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -22896,24 +22896,24 @@
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482111 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.01827 </t>
         </is>
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Symb. Comput. 90: 89-123 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.01827 (2020).</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thibault Gauthier </t>
+          <t xml:space="preserve">Thibault Gauthier, Cezary Kaliszyk </t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deep Reinforcement Learning in HOL4. </t>
+          <t xml:space="preserve"> Aligning concepts across proof assistant libraries. </t>
         </is>
       </c>
       <c r="C750" t="n">
@@ -22926,28 +22926,28 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.11797 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482111 </t>
         </is>
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.11797 (2019).</t>
+          <t xml:space="preserve"> J. Symb. Comput. 90: 89-123 (2019).</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dennis Müller, Thibault Gauthier, Cezary Kaliszyk, Michael Kohlhase, Florian Rabe </t>
+          <t xml:space="preserve">Thibault Gauthier </t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Classification of Alignments Between Concepts of Formal Mathematical Systems. </t>
+          <t xml:space="preserve"> Deep Reinforcement Learning in HOL4. </t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -22956,28 +22956,28 @@
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57389271 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.11797 </t>
         </is>
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 10th International Conference, CICM 2017, Edinburgh, UK, July 17-21, 2017, Proceedings: 83-98 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.11797 (2019).</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thibault Gauthier, Cezary Kaliszyk </t>
+          <t xml:space="preserve">Dennis Müller, Thibault Gauthier, Cezary Kaliszyk, Michael Kohlhase, Florian Rabe </t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Premise Selection and External Provers for HOL4. </t>
+          <t xml:space="preserve"> Classification of Alignments Between Concepts of Formal Mathematical Systems. </t>
         </is>
       </c>
       <c r="C752" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -22986,12 +22986,12 @@
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482158 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57389271 </t>
         </is>
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2015 Conference on Certified Programs and Proofs, CPP 2015, Mumbai, India, January 15-17, 2015: 49-57 (2015).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 10th International Conference, CICM 2017, Edinburgh, UK, July 17-21, 2017, Proceedings: 83-98 (2017).</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sharing HOL4 and HOL Light Proof Knowledge. </t>
+          <t xml:space="preserve"> Premise Selection and External Provers for HOL4. </t>
         </is>
       </c>
       <c r="C753" t="n">
@@ -23016,12 +23016,12 @@
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482162 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482158 </t>
         </is>
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logic for Programming, Artificial Intelligence, and Reasoning - 20th International Conference, LPAR-20 2015, Suva, Fiji, November 24-28, 2015, Proceedings: 372-386 (2015).</t>
+          <t xml:space="preserve"> Proceedings of the 2015 Conference on Certified Programs and Proofs, CPP 2015, Mumbai, India, January 15-17, 2015: 49-57 (2015).</t>
         </is>
       </c>
     </row>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sharing HOL4 and HOL Light proof knowledge. </t>
+          <t xml:space="preserve"> Sharing HOL4 and HOL Light Proof Knowledge. </t>
         </is>
       </c>
       <c r="C754" t="n">
@@ -23046,12 +23046,12 @@
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1509.03527 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482162 </t>
         </is>
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1509.03527 (2015).</t>
+          <t xml:space="preserve"> Logic for Programming, Artificial Intelligence, and Reasoning - 20th International Conference, LPAR-20 2015, Suva, Fiji, November 24-28, 2015, Proceedings: 372-386 (2015).</t>
         </is>
       </c>
     </row>
@@ -23063,7 +23063,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Premise Selection and External Provers for HOL4. </t>
+          <t xml:space="preserve"> Sharing HOL4 and HOL Light proof knowledge. </t>
         </is>
       </c>
       <c r="C755" t="n">
@@ -23076,28 +23076,28 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1509.03534 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1509.03527 </t>
         </is>
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1509.03534 (2015).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1509.03527 (2015).</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thibault Gauthier, Cezary Kaliszyk, Chantal Keller, Michael Norrish </t>
+          <t xml:space="preserve">Thibault Gauthier, Cezary Kaliszyk </t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beagle as a HOL4 external ATP method. </t>
+          <t xml:space="preserve"> Premise Selection and External Provers for HOL4. </t>
         </is>
       </c>
       <c r="C756" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -23106,24 +23106,24 @@
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.29007/8xbv </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1509.03534 </t>
         </is>
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4th Workshop on Practical Aspects of Automated Reasoning, PAAR@IJCAR 2014, Vienna, Austria, 2014: 50-59 (2014).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1509.03534 (2015).</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thibault Gauthier, Cezary Kaliszyk </t>
+          <t xml:space="preserve">Thibault Gauthier, Cezary Kaliszyk, Chantal Keller, Michael Norrish </t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Matching Concepts across HOL Libraries. </t>
+          <t xml:space="preserve"> Beagle as a HOL4 external ATP method. </t>
         </is>
       </c>
       <c r="C757" t="n">
@@ -23136,12 +23136,12 @@
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482167 </t>
+          <t xml:space="preserve"> https://doi.org/10.29007/8xbv </t>
         </is>
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - International Conference, CICM 2014, Coimbra, Portugal, July 7-11, 2014. Proceedings: 267-281 (2014).</t>
+          <t xml:space="preserve"> 4th Workshop on Practical Aspects of Automated Reasoning, PAAR@IJCAR 2014, Vienna, Austria, 2014: 50-59 (2014).</t>
         </is>
       </c>
     </row>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Matching concepts across HOL libraries. </t>
+          <t xml:space="preserve"> Matching Concepts across HOL Libraries. </t>
         </is>
       </c>
       <c r="C758" t="n">
@@ -23166,58 +23166,58 @@
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1405.3906 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q108482167 </t>
         </is>
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1405.3906 (2014).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - International Conference, CICM 2014, Coimbra, Portugal, July 7-11, 2014. Proceedings: 267-281 (2014).</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karel Chvalovský </t>
+          <t xml:space="preserve">Thibault Gauthier, Cezary Kaliszyk </t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Top-Down Neural Model For Formulae. </t>
+          <t xml:space="preserve"> Matching concepts across HOL libraries. </t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR, FM </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://openreview.net/forum?id=Byg5QhR5FQ </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1405.3906 </t>
         </is>
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7th International Conference on Learning Representations, ICLR 2019, New Orleans, LA, USA, May 6-9, 2019: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1405.3906 (2014).</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karel Chvalovský, Rostislav Horcík </t>
+          <t xml:space="preserve">Karel Chvalovský </t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Full Lambek Calculus with Contraction is Undecidable. </t>
+          <t xml:space="preserve"> Top-Down Neural Model For Formulae. </t>
         </is>
       </c>
       <c r="C760" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -23226,28 +23226,28 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1017/jsl.2015.18 </t>
+          <t xml:space="preserve"> https://openreview.net/forum?id=Byg5QhR5FQ </t>
         </is>
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Symb. Log. 81: 524-540 (2016).</t>
+          <t xml:space="preserve"> 7th International Conference on Learning Representations, ICLR 2019, New Orleans, LA, USA, May 6-9, 2019: (2019).</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karel Chvalovský </t>
+          <t xml:space="preserve">Karel Chvalovský, Rostislav Horcík </t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Undecidability of Consequence Relation in Full non-Associative Lambek Calculus. </t>
+          <t xml:space="preserve"> Full Lambek Calculus with Contraction is Undecidable. </t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -23256,12 +23256,12 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1017/jsl.2014.39 </t>
+          <t xml:space="preserve"> https://doi.org/10.1017/jsl.2015.18 </t>
         </is>
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Symb. Log. 80: 567-586 (2015).</t>
+          <t xml:space="preserve"> J. Symb. Log. 81: 524-540 (2016).</t>
         </is>
       </c>
     </row>
@@ -23273,11 +23273,11 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On the independence of axioms in BL and MTL. </t>
+          <t xml:space="preserve"> Undecidability of Consequence Relation in Full non-Associative Lambek Calculus. </t>
         </is>
       </c>
       <c r="C762" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -23286,24 +23286,24 @@
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.fss.2011.10.018 </t>
+          <t xml:space="preserve"> https://doi.org/10.1017/jsl.2014.39 </t>
         </is>
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fuzzy Sets Syst. 197: 123-129 (2012).</t>
+          <t xml:space="preserve"> J. Symb. Log. 80: 567-586 (2015).</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karel Chvalovský, Petr Cintula </t>
+          <t xml:space="preserve">Karel Chvalovský </t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Note on Deduction Theorems in contraction-free logics. </t>
+          <t xml:space="preserve"> On the independence of axioms in BL and MTL. </t>
         </is>
       </c>
       <c r="C763" t="n">
@@ -23316,12 +23316,12 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1002/malq.201110065 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.fss.2011.10.018 </t>
         </is>
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Math. Log. Q. 58: 236-243 (2012).</t>
+          <t xml:space="preserve"> Fuzzy Sets Syst. 197: 123-129 (2012).</t>
         </is>
       </c>
     </row>
@@ -23333,11 +23333,11 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Note on Deduction Theorems in Contraction-Free Logics. </t>
+          <t xml:space="preserve"> Note on Deduction Theorems in contraction-free logics. </t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -23346,54 +23346,54 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.29007/c66c </t>
+          <t xml:space="preserve"> https://doi.org/10.1002/malq.201110065 </t>
         </is>
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Short papers for 17th International Conference on Logic for Programming, Artificial intelligence, and Reasoning, LPAR-17-short, Yogyakarta, Indonesia, October 10-15, 2010: 26-29 (2010).</t>
+          <t xml:space="preserve"> Math. Log. Q. 58: 236-243 (2012).</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Hurtík, Vojtech Molek, Jan Hula, Marek Vajgl, Pavel Vlasánek, Tomas Nejezchleba </t>
+          <t xml:space="preserve">Karel Chvalovský, Petr Cintula </t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Poly-YOLO: higher speed, more precise detection and instance segmentation for YOLOv3. </t>
+          <t xml:space="preserve"> Note on Deduction Theorems in Contraction-Free Logics. </t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> AR, FM </t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s00521-021-05978-9 </t>
+          <t xml:space="preserve"> https://doi.org/10.29007/c66c </t>
         </is>
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Neural Comput. Appl. 34: 8275-8290 (2022).</t>
+          <t xml:space="preserve"> Short papers for 17th International Conference on Logic for Programming, Artificial intelligence, and Reasoning, LPAR-17-short, Yogyakarta, Indonesia, October 10-15, 2010: 26-29 (2010).</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Hurtík, Stefania Tomasiello, Jan Hula, David Hynar </t>
+          <t xml:space="preserve">Petr Hurtík, Vojtech Molek, Jan Hula, Marek Vajgl, Pavel Vlasánek, Tomas Nejezchleba </t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Binary cross-entropy with dynamical clipping. </t>
+          <t xml:space="preserve"> Poly-YOLO: higher speed, more precise detection and instance segmentation for YOLOv3. </t>
         </is>
       </c>
       <c r="C766" t="n">
@@ -23406,24 +23406,24 @@
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s00521-022-07091-x </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s00521-021-05978-9 </t>
         </is>
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Neural Comput. Appl. 34: 12029-12041 (2022).</t>
+          <t xml:space="preserve"> Neural Comput. Appl. 34: 8275-8290 (2022).</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Hula, David Mojzísek, David Adamczyk </t>
+          <t xml:space="preserve">Petr Hurtík, Stefania Tomasiello, Jan Hula, David Hynar </t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3D Shapes Classification Using Intermediate Parts Representation. </t>
+          <t xml:space="preserve"> Binary cross-entropy with dynamical clipping. </t>
         </is>
       </c>
       <c r="C767" t="n">
@@ -23436,24 +23436,24 @@
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-08974-9_34 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s00521-022-07091-x </t>
         </is>
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Processing and Management of Uncertainty in Knowledge-Based Systems - 19th International Conference, IPMU 2022, Milan, Italy, July 11-15, 2022, Proceedings, Part II: 431-442 (2022).</t>
+          <t xml:space="preserve"> Neural Comput. Appl. 34: 12029-12041 (2022).</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Mojzísek, Jan Hula </t>
+          <t xml:space="preserve">Jan Hula, David Mojzísek, David Adamczyk </t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Image Classifier with Dynamic Set of Known Classes. </t>
+          <t xml:space="preserve"> 3D Shapes Classification Using Intermediate Parts Representation. </t>
         </is>
       </c>
       <c r="C768" t="n">
@@ -23466,24 +23466,24 @@
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://ceur-ws.org/Vol-3226/paper8.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-08974-9_34 </t>
         </is>
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 22nd Conference Information Technologies - Applications and Theory (ITAT 2022), Zuberec, Slovakia, September 23-27, 2022.: 68-74 (2022).</t>
+          <t xml:space="preserve"> Information Processing and Management of Uncertainty in Knowledge-Based Systems - 19th International Conference, IPMU 2022, Milan, Italy, July 11-15, 2022, Proceedings, Part II: 431-442 (2022).</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xinying Chen, Jan Hula, Antonín Dvorák </t>
+          <t xml:space="preserve">David Mojzísek, Jan Hula </t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of the Semantic Vector Space Induced by a Neural Language Model and a Corpus. </t>
+          <t xml:space="preserve"> Image Classifier with Dynamic Set of Known Classes. </t>
         </is>
       </c>
       <c r="C769" t="n">
@@ -23496,28 +23496,28 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://ceur-ws.org/Vol-3226/paper12.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-3226/paper8.pdf </t>
         </is>
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 22nd Conference Information Technologies - Applications and Theory (ITAT 2022), Zuberec, Slovakia, September 23-27, 2022.: 103-110 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 22nd Conference Information Technologies - Applications and Theory (ITAT 2022), Zuberec, Slovakia, September 23-27, 2022.: 68-74 (2022).</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Hula, David Adamczyk, David Mojzísek, Vojtech Molek </t>
+          <t xml:space="preserve">Xinying Chen, Jan Hula, Antonín Dvorák </t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Segmenting out Generic Objects in Monocular Videos. </t>
+          <t xml:space="preserve"> Analysis of the Semantic Vector Space Induced by a Neural Language Model and a Corpus. </t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -23526,28 +23526,28 @@
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://ceur-ws.org/Vol-2962/paper49.pdf </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-3226/paper12.pdf </t>
         </is>
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st Conference Information Technologies - Applications and Theory (ITAT 2021), Hotel Heľpa, Nízke Tatry and Muránska planina, Slovakia, September 24-28, 2021.: 123-129 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 22nd Conference Information Technologies - Applications and Theory (ITAT 2022), Zuberec, Slovakia, September 23-27, 2022.: 103-110 (2022).</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Hurtík, Vojtech Molek, Jan Hula </t>
+          <t xml:space="preserve">Jan Hula, David Adamczyk, David Mojzísek, Vojtech Molek </t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Data Preprocessing Technique for Neural Networks Based on Image Represented by a Fuzzy Function. </t>
+          <t xml:space="preserve"> Segmenting out Generic Objects in Monocular Videos. </t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -23556,24 +23556,24 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TFUZZ.2019.2911494 </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2962/paper49.pdf </t>
         </is>
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Fuzzy Syst. 28: 1195-1204 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the 21st Conference Information Technologies - Applications and Theory (ITAT 2021), Hotel Heľpa, Nízke Tatry and Muránska planina, Slovakia, September 24-28, 2021.: 123-129 (2021).</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Hula, David Mojzísek, David Adamczyk, Radek Cech </t>
+          <t xml:space="preserve">Petr Hurtík, Vojtech Molek, Jan Hula </t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Acquiring Custom OCR System with Minimal Manual Annotation. </t>
+          <t xml:space="preserve"> Data Preprocessing Technique for Neural Networks Based on Image Represented by a Fuzzy Function. </t>
         </is>
       </c>
       <c r="C772" t="n">
@@ -23586,24 +23586,24 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/DSMP47368.2020.9204229 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TFUZZ.2019.2911494 </t>
         </is>
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Third International Conference on Data Stream Mining, Processing, DSMP 2020, Lviv, Ukraine, August 21-25, 2020: 231-236 (2020).</t>
+          <t xml:space="preserve"> IEEE Trans. Fuzzy Syst. 28: 1195-1204 (2020).</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Hula </t>
+          <t xml:space="preserve">Jan Hula, David Mojzísek, David Adamczyk, Radek Cech </t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Unsupervised Object-aware Learning from Videos. </t>
+          <t xml:space="preserve"> Acquiring Custom OCR System with Minimal Manual Annotation. </t>
         </is>
       </c>
       <c r="C773" t="n">
@@ -23616,24 +23616,24 @@
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/DSMP47368.2020.9204219 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/DSMP47368.2020.9204229 </t>
         </is>
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Third International Conference on Data Stream Mining, Processing, DSMP 2020, Lviv, Ukraine, August 21-25, 2020: 237-242 (2020).</t>
+          <t xml:space="preserve"> IEEE Third International Conference on Data Stream Mining, Processing, DSMP 2020, Lviv, Ukraine, August 21-25, 2020: 231-236 (2020).</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Adamczyk, Jan Hula </t>
+          <t xml:space="preserve">Jan Hula </t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keypoints Selection Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Unsupervised Object-aware Learning from Videos. </t>
         </is>
       </c>
       <c r="C774" t="n">
@@ -23646,24 +23646,24 @@
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://ceur-ws.org/Vol-2718/paper30.pdf </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/DSMP47368.2020.9204219 </t>
         </is>
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 20th Conference Information Technologies - Applications and Theory (ITAT 2020), Hotel Tyrapol, Oravská Lesná, Slovakia, September 18-22, 2020.: 186-191 (2020).</t>
+          <t xml:space="preserve"> IEEE Third International Conference on Data Stream Mining, Processing, DSMP 2020, Lviv, Ukraine, August 21-25, 2020: 237-242 (2020).</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Hurtík, Vojtech Molek, Jan Hula, Marek Vajgl, Pavel Vlasánek, Tomas Nejezchleba </t>
+          <t xml:space="preserve">David Adamczyk, Jan Hula </t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Poly-YOLO: higher speed, more precise detection and instance segmentation for YOLOv3. </t>
+          <t xml:space="preserve"> Keypoints Selection Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C775" t="n">
@@ -23676,28 +23676,28 @@
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.13243 </t>
+          <t xml:space="preserve"> https://ceur-ws.org/Vol-2718/paper30.pdf </t>
         </is>
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.13243 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the 20th Conference Information Technologies - Applications and Theory (ITAT 2020), Hotel Tyrapol, Oravská Lesná, Slovakia, September 18-22, 2020.: 186-191 (2020).</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Hula, Miroslav Kubát, Radek Cech, Xinying Chen, David Cíz, Katerina Pelegrinová, Jirí Milicka </t>
+          <t xml:space="preserve">Petr Hurtík, Vojtech Molek, Jan Hula, Marek Vajgl, Pavel Vlasánek, Tomas Nejezchleba </t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context Specificity of Lemma. Diachronic Analysis. </t>
+          <t xml:space="preserve"> Poly-YOLO: higher speed, more precise detection and instance segmentation for YOLOv3. </t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -23706,24 +23706,24 @@
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ram-verlag.eu/wp-content/uploads/2019/04/g45zeit-1.pdf </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.13243 </t>
         </is>
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Glottometrics 45: 7-23 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.13243 (2020).</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radek Cech, Jan Hula, Miroslav Kubát, Xinying Chen, Jirí Milicka </t>
+          <t xml:space="preserve">Jan Hula, Miroslav Kubát, Radek Cech, Xinying Chen, David Cíz, Katerina Pelegrinová, Jirí Milicka </t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Development of Context Specificity of Lemma. A Word Embeddings Approach. </t>
+          <t xml:space="preserve"> Context Specificity of Lemma. Diachronic Analysis. </t>
         </is>
       </c>
       <c r="C777" t="n">
@@ -23736,24 +23736,24 @@
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1080/09296174.2018.1491748 </t>
+          <t xml:space="preserve"> https://www.ram-verlag.eu/wp-content/uploads/2019/04/g45zeit-1.pdf </t>
         </is>
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Quant. Linguistics 26: 187-204 (2019).</t>
+          <t xml:space="preserve"> Glottometrics 45: 7-23 (2019).</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alex Wang, Jan Hula, Patrick Xia, Raghavendra Pappagari, R. Thomas McCoy, Roma Patel, Najoung Kim, Ian Tenney, Yinghui Huang, Katherin Yu, Shuning Jin, Berlin Chen, Benjamin Van Durme, Edouard Grave, Ellie Pavlick, Samuel R. Bowman </t>
+          <t xml:space="preserve">Radek Cech, Jan Hula, Miroslav Kubát, Xinying Chen, Jirí Milicka </t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Can You Tell Me How to Get Past Sesame Street? Sentence-Level Pretraining Beyond Language Modeling. </t>
+          <t xml:space="preserve"> The Development of Context Specificity of Lemma. A Word Embeddings Approach. </t>
         </is>
       </c>
       <c r="C778" t="n">
@@ -23766,24 +23766,24 @@
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://aclanthology.org/P19-1439/ </t>
+          <t xml:space="preserve"> https://doi.org/10.1080/09296174.2018.1491748 </t>
         </is>
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 57th Conference of the Association for Computational Linguistics, ACL 2019, Florence, Italy, July 28- August 2, 2019, Volume 1: Long Papers: 4465-4476 (2019).</t>
+          <t xml:space="preserve"> J. Quant. Linguistics 26: 187-204 (2019).</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t xml:space="preserve">Waren Long, Vadim Markovtsev, Hugo Mougard, Egor Bulychev, Jan Hula </t>
+          <t xml:space="preserve">Alex Wang, Jan Hula, Patrick Xia, Raghavendra Pappagari, R. Thomas McCoy, Roma Patel, Najoung Kim, Ian Tenney, Yinghui Huang, Katherin Yu, Shuning Jin, Berlin Chen, Benjamin Van Durme, Edouard Grave, Ellie Pavlick, Samuel R. Bowman </t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Identifying collaborators in large codebases. </t>
+          <t xml:space="preserve"> Can You Tell Me How to Get Past Sesame Street? Sentence-Level Pretraining Beyond Language Modeling. </t>
         </is>
       </c>
       <c r="C779" t="n">
@@ -23796,28 +23796,28 @@
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1905.06782 </t>
+          <t xml:space="preserve"> https://aclanthology.org/P19-1439/ </t>
         </is>
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1905.06782 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 57th Conference of the Association for Computational Linguistics, ACL 2019, Florence, Italy, July 28- August 2, 2019, Volume 1: Long Papers: 4465-4476 (2019).</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samuel R. Bowman, Ellie Pavlick, Edouard Grave, Benjamin Van Durme, Alex Wang, Jan Hula, Patrick Xia, Raghavendra Pappagari, R. Thomas McCoy, Roma Patel, Najoung Kim, Ian Tenney, Yinghui Huang, Katherin Yu, Shuning Jin, Berlin Chen </t>
+          <t xml:space="preserve">Waren Long, Vadim Markovtsev, Hugo Mougard, Egor Bulychev, Jan Hula </t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Looking for ELMo's friends: Sentence-Level Pretraining Beyond Language Modeling. </t>
+          <t xml:space="preserve"> Identifying collaborators in large codebases. </t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -23826,28 +23826,28 @@
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.10860 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1905.06782 </t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.10860 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1905.06782 (2019).</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Hula, Irina Perfilieva, Ali Ahsan Muhummad Muzaheed </t>
+          <t xml:space="preserve">Samuel R. Bowman, Ellie Pavlick, Edouard Grave, Benjamin Van Durme, Alex Wang, Jan Hula, Patrick Xia, Raghavendra Pappagari, R. Thomas McCoy, Roma Patel, Najoung Kim, Ian Tenney, Yinghui Huang, Katherin Yu, Shuning Jin, Berlin Chen </t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Visual Training Set Generation Framework. </t>
+          <t xml:space="preserve"> Looking for ELMo's friends: Sentence-Level Pretraining Beyond Language Modeling. </t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -23856,58 +23856,58 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-59147-6_63 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.10860 </t>
         </is>
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Computational Intelligence - 14th International Work-Conference on Artificial Neural Networks, IWANN 2017, Cadiz, Spain, June 14-16, 2017, Proceedings, Part II: 747-758 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.10860 (2018).</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Jan Hula, Irina Perfilieva, Ali Ahsan Muhummad Muzaheed </t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Wos Challenge Met. </t>
+          <t xml:space="preserve"> Towards Visual Training Set Generation Framework. </t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AR </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114264018 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-59147-6_63 </t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 66: 565-574 (2022).</t>
+          <t xml:space="preserve"> Advances in Computational Intelligence - 14th International Work-Conference on Artificial Neural Networks, IWANN 2017, Cadiz, Spain, June 14-16, 2017, Proceedings, Part II: 747-758 (2017).</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stepan Holub, Robert Veroff </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Formalizing a Fragment of Combinatorics on Words. </t>
+          <t xml:space="preserve"> A Wos Challenge Met. </t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -23916,28 +23916,28 @@
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-58741-7_3 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114264018 </t>
         </is>
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Unveiling Dynamics and Complexity - 13th Conference on Computability in Europe, CiE 2017, Turku, Finland, June 12-16, 2017, Proceedings: 24-31 (2017).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 66: 565-574 (2022).</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ranganathan Padmanabhan, Robert Veroff </t>
+          <t xml:space="preserve">Stepan Holub, Robert Veroff </t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Geometric Procedure with Prover9. </t>
+          <t xml:space="preserve"> Formalizing a Fragment of Combinatorics on Words. </t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -23946,24 +23946,24 @@
       </c>
       <c r="E784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-36675-8_7 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-58741-7_3 </t>
         </is>
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning and Mathematics - Essays in Memory of William W. McCune: 139-150 (2013).</t>
+          <t xml:space="preserve"> Unveiling Dynamics and Complexity - 13th Conference on Computability in Europe, CiE 2017, Turku, Finland, June 12-16, 2017, Proceedings: 24-31 (2017).</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michael K. Kinyon, Robert Veroff, Petr Vojtechovský </t>
+          <t xml:space="preserve">Ranganathan Padmanabhan, Robert Veroff </t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Loops with Abelian Inner Mapping Groups: An Application of Automated Deduction. </t>
+          <t xml:space="preserve"> A Geometric Procedure with Prover9. </t>
         </is>
       </c>
       <c r="C785" t="n">
@@ -23976,28 +23976,28 @@
       </c>
       <c r="E785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-36675-8_8 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-36675-8_7 </t>
         </is>
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning and Mathematics - Essays in Memory of William W. McCune: 151-164 (2013).</t>
+          <t xml:space="preserve"> Automated Reasoning and Mathematics - Essays in Memory of William W. McCune: 139-150 (2013).</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francesco Paoli, Matthew Spinks, Robert Veroff </t>
+          <t xml:space="preserve">Michael K. Kinyon, Robert Veroff, Petr Vojtechovský </t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abelian Logic and the Logics of Pointed Lattice-Ordered Varieties. </t>
+          <t xml:space="preserve"> Loops with Abelian Inner Mapping Groups: An Application of Automated Deduction. </t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -24006,24 +24006,24 @@
       </c>
       <c r="E786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s11787-008-0034-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-36675-8_8 </t>
         </is>
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logica Universalis 2: 209-233 (2008).</t>
+          <t xml:space="preserve"> Automated Reasoning and Mathematics - Essays in Memory of William W. McCune: 151-164 (2013).</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matthew Spinks, Robert Veroff </t>
+          <t xml:space="preserve">Francesco Paoli, Matthew Spinks, Robert Veroff </t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constructive Logic with Strong Negation is a Substructural Logic. I. </t>
+          <t xml:space="preserve"> Abelian Logic and the Logics of Pointed Lattice-Ordered Varieties. </t>
         </is>
       </c>
       <c r="C787" t="n">
@@ -24036,12 +24036,12 @@
       </c>
       <c r="E787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s11225-008-9113-x </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s11787-008-0034-2 </t>
         </is>
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stud Logica 88: 325-348 (2008).</t>
+          <t xml:space="preserve"> Logica Universalis 2: 209-233 (2008).</t>
         </is>
       </c>
     </row>
@@ -24053,7 +24053,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constructive Logic with Strong Negation is a Substructural Logic. II. </t>
+          <t xml:space="preserve"> Constructive Logic with Strong Negation is a Substructural Logic. I. </t>
         </is>
       </c>
       <c r="C788" t="n">
@@ -24066,28 +24066,28 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s11225-008-9138-1 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s11225-008-9113-x </t>
         </is>
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stud Logica 89: 401-425 (2008).</t>
+          <t xml:space="preserve"> Stud Logica 88: 325-348 (2008).</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frank Gilfeather, Vikas Hamine, Paul Helman, Julie Hutt, Terry Loring, C. Rick Lyons, Robert Veroff </t>
+          <t xml:space="preserve">Matthew Spinks, Robert Veroff </t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Learning and modeling biosignatures from tissue images. </t>
+          <t xml:space="preserve"> Constructive Logic with Strong Negation is a Substructural Logic. II. </t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -24096,28 +24096,28 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q33282059 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s11225-008-9138-1 </t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Biol. Medicine 37: 1539-1552 (2007).</t>
+          <t xml:space="preserve"> Stud Logica 89: 401-425 (2008).</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff, Matthew Spinks </t>
+          <t xml:space="preserve">Frank Gilfeather, Vikas Hamine, Paul Helman, Julie Hutt, Terry Loring, C. Rick Lyons, Robert Veroff </t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Axiomatizing the Skew Boolean Propositional Calculus. </t>
+          <t xml:space="preserve"> Learning and modeling biosignatures from tissue images. </t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -24126,28 +24126,28 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10817-006-9029-y </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q33282059 </t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 37: 3-20 (2006).</t>
+          <t xml:space="preserve"> Comput. Biol. Medicine 37: 1539-1552 (2007).</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michael Beeson, Robert Veroff, Larry Wos </t>
+          <t xml:space="preserve">Robert Veroff, Matthew Spinks </t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Double-Negation Elimination in Some Propositional Logics. </t>
+          <t xml:space="preserve"> Axiomatizing the Skew Boolean Propositional Calculus. </t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -24156,28 +24156,28 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114262834 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10817-006-9029-y </t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stud Logica 80: 195-234 (2005).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 37: 3-20 (2006).</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paul Helman, Robert Veroff, Susan R. Atlas, Cheryl Willman </t>
+          <t xml:space="preserve">Michael Beeson, Robert Veroff, Larry Wos </t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Bayesian Network Classification Methodology for Gene Expression Data. </t>
+          <t xml:space="preserve"> Double-Negation Elimination in Some Propositional Logics. </t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -24186,28 +24186,28 @@
       </c>
       <c r="E792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q33209551 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114262834 </t>
         </is>
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Comput. Biol. 11: 581-615 (2004).</t>
+          <t xml:space="preserve"> Stud Logica 80: 195-234 (2005).</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Paul Helman, Robert Veroff, Susan R. Atlas, Cheryl Willman </t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Shortest 2-Basis for Boolean Algebra in Terms of the Sheffer Stroke. </t>
+          <t xml:space="preserve"> A Bayesian Network Classification Methodology for Gene Expression Data. </t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -24216,24 +24216,24 @@
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1023/A:1027322305654 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q33209551 </t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 31: 1-9 (2003).</t>
+          <t xml:space="preserve"> J. Comput. Biol. 11: 581-615 (2004).</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michael Beeson, Robert Veroff, Larry Wos </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Double-Negation Elimination in Some Propositional Logics </t>
+          <t xml:space="preserve"> A Shortest 2-Basis for Boolean Algebra in Terms of the Sheffer Stroke. </t>
         </is>
       </c>
       <c r="C794" t="n">
@@ -24246,28 +24246,28 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/cs/0301026 </t>
+          <t xml:space="preserve"> https://doi.org/10.1023/A:1027322305654 </t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR cs.LO/0301026 (2003).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 31: 1-9 (2003).</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t xml:space="preserve">William McCune, Robert Veroff, Branden Fitelson, Kenneth Harris, Andrew Feist, Larry Wos </t>
+          <t xml:space="preserve">Michael Beeson, Robert Veroff, Larry Wos </t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Short Single Axioms for Boolean Algebra. </t>
+          <t xml:space="preserve"> Double-Negation Elimination in Some Propositional Logics </t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -24276,28 +24276,28 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q60061107 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/cs/0301026 </t>
         </is>
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 29: 1-16 (2002).</t>
+          <t xml:space="preserve"> arXiv CoRR cs.LO/0301026 (2003).</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paul Helman, Robert Veroff </t>
+          <t xml:space="preserve">William McCune, Robert Veroff, Branden Fitelson, Kenneth Harris, Andrew Feist, Larry Wos </t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The application of automated reasoning to formal models of combinatorial optimization. </t>
+          <t xml:space="preserve"> Short Single Axioms for Boolean Algebra. </t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -24306,24 +24306,24 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/S0096-3003(99)00249-0 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q60061107 </t>
         </is>
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Math. Comput. 120: 175-194 (2001).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 29: 1-16 (2002).</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Paul Helman, Robert Veroff </t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Finding Shortest Proofs: An Application of Linked Inference Rules. </t>
+          <t xml:space="preserve"> The application of automated reasoning to formal models of combinatorial optimization. </t>
         </is>
       </c>
       <c r="C797" t="n">
@@ -24336,12 +24336,12 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1023/A:1010635625063 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/S0096-3003(99)00249-0 </t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 27: 123-139 (2001).</t>
+          <t xml:space="preserve"> Appl. Math. Comput. 120: 175-194 (2001).</t>
         </is>
       </c>
     </row>
@@ -24353,7 +24353,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving Open Questions and Other Challenge Problems Using Proof Sketches. </t>
+          <t xml:space="preserve"> Finding Shortest Proofs: An Application of Linked Inference Rules. </t>
         </is>
       </c>
       <c r="C798" t="n">
@@ -24366,28 +24366,28 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1023/A:1010639725972 </t>
+          <t xml:space="preserve"> https://doi.org/10.1023/A:1010635625063 </t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 27: 157-174 (2001).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 27: 123-139 (2001).</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gregory H. Chisholm, Steven T. Eckmann, Christopher M. Lain, Robert Veroff </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Understanding Integrated Circuits. </t>
+          <t xml:space="preserve"> Solving Open Questions and Other Challenge Problems Using Proof Sketches. </t>
         </is>
       </c>
       <c r="C799" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -24396,28 +24396,28 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/54.765201 </t>
+          <t xml:space="preserve"> https://doi.org/10.1023/A:1010639725972 </t>
         </is>
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Des. Test Comput. 16: 26-37 (1999).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 27: 157-174 (2001).</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Gregory H. Chisholm, Steven T. Eckmann, Christopher M. Lain, Robert Veroff </t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Using Hints to Increase the Effectiveness of an Automated Reasoning Program: Case Studies. </t>
+          <t xml:space="preserve"> Understanding Integrated Circuits. </t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -24426,28 +24426,28 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/BF00252178 </t>
+          <t xml:space="preserve"> http://doi.ieeecomputersociety.org/10.1109/54.765201 </t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 16: 223-239 (1996).</t>
+          <t xml:space="preserve"> IEEE Des. Test Comput. 16: 26-37 (1999).</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t xml:space="preserve">Larry Wos, Robert Veroff </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logical basis for the automation of reasoning: Case studies. </t>
+          <t xml:space="preserve"> Using Hints to Increase the Effectiveness of an Automated Reasoning Program: Case Studies. </t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -24456,28 +24456,28 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/BF00252178 </t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Handbook of Logic in Artificial Intelligence and Logic Programming, Volume2, Deduction Methodologies: 1-40 (1994).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 16: 223-239 (1996).</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff </t>
+          <t xml:space="preserve">Larry Wos, Robert Veroff </t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Linked Inference Principle, I: The Formal Treatment. </t>
+          <t xml:space="preserve"> Logical basis for the automation of reasoning: Case studies. </t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -24486,28 +24486,28 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114267080 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 8: 213-274 (1992).</t>
+          <t xml:space="preserve"> Handbook of Logic in Artificial Intelligence and Logic Programming, Volume2, Deduction Methodologies: 1-40 (1994).</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paul Helman, Robert Veroff, Frank R. Carrano </t>
+          <t xml:space="preserve">Robert Veroff </t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intermediate problem solving and data structures - walls and mirrors (2. ed.). </t>
+          <t xml:space="preserve"> The Linked Inference Principle, I: The Formal Treatment. </t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -24516,28 +24516,28 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114267080 </t>
         </is>
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Benjamin/Cummings series in computer science, Benjamin/Cummings (1991).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 8: 213-274 (1992).</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paul Helman, Robert Veroff </t>
+          <t xml:space="preserve">Paul Helman, Robert Veroff, Frank R. Carrano </t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Deductive Databases. </t>
+          <t xml:space="preserve"> Intermediate problem solving and data structures - walls and mirrors (2. ed.). </t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -24546,28 +24546,28 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/BF00244512 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J. Autom. Reason. 4: 29-68 (1988).</t>
+          <t xml:space="preserve"> Benjamin/Cummings series in computer science, Benjamin/Cummings (1991).</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t xml:space="preserve">Larry Wos, Steve Winker, Barry Smith, Robert Veroff, Lawrence J. Henschen </t>
+          <t xml:space="preserve">Paul Helman, Robert Veroff </t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A New Use of an Automated Reasoning Assistant: Open Questions in Equivalential Calculus and the Study of Infinite Domains. </t>
+          <t xml:space="preserve"> Designing Deductive Databases. </t>
         </is>
       </c>
       <c r="C805" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -24576,24 +24576,24 @@
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114262293 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/BF00244512 </t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. 22: 303-356 (1984).</t>
+          <t xml:space="preserve"> J. Autom. Reason. 4: 29-68 (1988).</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t xml:space="preserve">Larry Wos, Robert Veroff, Barry Smith, William McCune </t>
+          <t xml:space="preserve">Larry Wos, Steve Winker, Barry Smith, Robert Veroff, Lawrence J. Henschen </t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Linked Inference Principle, II: The User's Viewpoint. </t>
+          <t xml:space="preserve"> A New Use of an Automated Reasoning Assistant: Open Questions in Equivalential Calculus and the Study of Infinite Domains. </t>
         </is>
       </c>
       <c r="C806" t="n">
@@ -24606,28 +24606,28 @@
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-0-387-34768-4_19 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114262293 </t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7th International Conference on Automated Deduction, Napa, California, USA, May 14-16, 1984, Proceedings: 316-332 (1984).</t>
+          <t xml:space="preserve"> Artif. Intell. 22: 303-356 (1984).</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t xml:space="preserve">Larry Henschen, Barry Smith, Robert Veroff, Steve Winker, Larry Wos </t>
+          <t xml:space="preserve">Larry Wos, Robert Veroff, Barry Smith, William McCune </t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Questions concerning possible shortest single axioms for the equivalential calculus: an application of automated theorem proving to infinite domains. </t>
+          <t xml:space="preserve"> The Linked Inference Principle, II: The User's Viewpoint. </t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -24636,28 +24636,28 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114254310 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-0-387-34768-4_19 </t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Notre Dame J. Formal Log. 24: 205-223 (1983).</t>
+          <t xml:space="preserve"> 7th International Conference on Automated Deduction, Napa, California, USA, May 14-16, 1984, Proceedings: 316-332 (1984).</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t xml:space="preserve">Robert Veroff, Lawrence J. Henschen </t>
+          <t xml:space="preserve">Larry Henschen, Barry Smith, Robert Veroff, Steve Winker, Larry Wos </t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Automatic Transformations to Program Verification. </t>
+          <t xml:space="preserve"> Questions concerning possible shortest single axioms for the equivalential calculus: an application of automated theorem proving to infinite domains. </t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -24666,28 +24666,28 @@
       </c>
       <c r="E808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://ijcai.org/Proceedings/81-1/Papers/087.pdf </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q114254310 </t>
         </is>
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 7th International Joint Conference on Artificial Intelligence, IJCAI '81, Vancouver, BC, Canada, August 24-28, 1981: 472-479 (1981).</t>
+          <t xml:space="preserve"> Notre Dame J. Formal Log. 24: 205-223 (1983).</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zarathustra Amadeus Goertzel </t>
+          <t xml:space="preserve">Robert Veroff, Lawrence J. Henschen </t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make E Smart Again (Short Paper). </t>
+          <t xml:space="preserve"> Application of Automatic Transformations to Program Verification. </t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>2020</v>
+        <v>1981</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -24696,12 +24696,12 @@
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-51054-1_26 </t>
+          <t xml:space="preserve"> http://ijcai.org/Proceedings/81-1/Papers/087.pdf </t>
         </is>
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning - 10th International Joint Conference, IJCAR 2020, Paris, France, July 1-4, 2020, Proceedings, Part II: 408-415 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the 7th International Joint Conference on Artificial Intelligence, IJCAI '81, Vancouver, BC, Canada, August 24-28, 1981: 472-479 (1981).</t>
         </is>
       </c>
     </row>
@@ -24713,7 +24713,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make E Smart Again. </t>
+          <t xml:space="preserve"> Make E Smart Again (Short Paper). </t>
         </is>
       </c>
       <c r="C810" t="n">
@@ -24726,28 +24726,28 @@
       </c>
       <c r="E810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.08858 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-51054-1_26 </t>
         </is>
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
+          <t xml:space="preserve"> Automated Reasoning - 10th International Joint Conference, IJCAR 2020, Paris, France, July 1-4, 2020, Proceedings, Part II: 408-415 (2020).</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Zarathustra Amadeus Goertzel </t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Make E Smart Again. </t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -24756,12 +24756,12 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.08858 </t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
         </is>
       </c>
     </row>
@@ -24773,11 +24773,11 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
+          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -24786,12 +24786,12 @@
       </c>
       <c r="E812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
+          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
         </is>
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
         </is>
       </c>
       <c r="C813" t="n">
@@ -24816,12 +24816,12 @@
       </c>
       <c r="E813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
+          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
         </is>
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
+          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
         </is>
       </c>
     </row>
@@ -24833,7 +24833,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C814" t="n">
@@ -24846,12 +24846,12 @@
       </c>
       <c r="E814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
         </is>
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
         </is>
       </c>
     </row>
@@ -24863,7 +24863,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
         </is>
       </c>
       <c r="C815" t="n">
@@ -24876,12 +24876,12 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
         </is>
       </c>
     </row>
@@ -24893,7 +24893,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
         </is>
       </c>
       <c r="C816" t="n">
@@ -24906,12 +24906,12 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
         </is>
       </c>
     </row>
@@ -24923,7 +24923,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
+          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C817" t="n">
@@ -24936,12 +24936,12 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
         </is>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
         </is>
       </c>
       <c r="C818" t="n">
@@ -24966,12 +24966,12 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
         </is>
       </c>
     </row>
@@ -24983,11 +24983,11 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -24996,12 +24996,12 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
         </is>
       </c>
     </row>
@@ -25013,7 +25013,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C820" t="n">
@@ -25026,12 +25026,12 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
+          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
         </is>
       </c>
     </row>
@@ -25043,7 +25043,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
         </is>
       </c>
       <c r="C821" t="n">
@@ -25056,12 +25056,12 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
         </is>
       </c>
     </row>
@@ -25073,7 +25073,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C822" t="n">
@@ -25086,12 +25086,12 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
         </is>
       </c>
     </row>
@@ -25103,7 +25103,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Game of Theorems. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C823" t="n">
@@ -25116,12 +25116,12 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
         </is>
       </c>
     </row>
@@ -25133,7 +25133,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
+          <t xml:space="preserve"> Designing Game of Theorems. </t>
         </is>
       </c>
       <c r="C824" t="n">
@@ -25146,28 +25146,28 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -25176,24 +25176,24 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C826" t="n">
@@ -25206,12 +25206,12 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
         </is>
       </c>
     </row>
@@ -25236,24 +25236,24 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C828" t="n">
@@ -25266,24 +25266,24 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
+          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C829" t="n">
@@ -25296,28 +25296,28 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -25326,24 +25326,24 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C831" t="n">
@@ -25356,12 +25356,12 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
         </is>
       </c>
     </row>
@@ -25373,11 +25373,11 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proof Strategy Language. </t>
+          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -25386,24 +25386,24 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs 2016: (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
+          <t xml:space="preserve"> Proof Strategy Language. </t>
         </is>
       </c>
       <c r="C833" t="n">
@@ -25416,24 +25416,24 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
+          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
+          <t xml:space="preserve"> Arch. Formal Proofs 2016: (2016).</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
+          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
+          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
         </is>
       </c>
       <c r="C834" t="n">
@@ -25446,24 +25446,24 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
+          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
+          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
         </is>
       </c>
       <c r="C835" t="n">
@@ -25476,24 +25476,24 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
+          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
+          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
         </is>
       </c>
       <c r="C836" t="n">
@@ -25506,24 +25506,24 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
+          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
         </is>
       </c>
       <c r="C837" t="n">
@@ -25536,24 +25536,24 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -25566,54 +25566,54 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zhangir Azerbayev, Bartosz Piotrowski, Hailey Schoelkopf, Edward W. Ayers, Dragomir Radev, Jeremy Avigad </t>
+          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ProofNet: Autoformalizing and Formally Proving Undergraduate-Level Mathematics. </t>
+          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2302.12433 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2302.12433 (2023).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
+          <t xml:space="preserve">Zhangir Azerbayev, Bartosz Piotrowski, Hailey Schoelkopf, Edward W. Ayers, Dragomir Radev, Jeremy Avigad </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
+          <t xml:space="preserve"> ProofNet: Autoformalizing and Formally Proving Undergraduate-Level Mathematics. </t>
         </is>
       </c>
       <c r="C840" t="n">
@@ -25626,28 +25626,28 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.00994 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2302.12433 </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2304.00994 (2023).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2302.12433 (2023).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
         </is>
       </c>
       <c r="C841" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -25656,58 +25656,58 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.00994 </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2304.00994 (2023).</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erik Derner, Kristina Batistic </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beyond the Safeguards: Exploring the Security Risks of ChatGPT. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2305.08005 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2305.08005 (2023).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Erik Derner, Kristina Batistic </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Beyond the Safeguards: Exploring the Security Risks of ChatGPT. </t>
         </is>
       </c>
       <c r="C843" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -25716,24 +25716,24 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2305.08005 </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2305.08005 (2023).</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
@@ -25758,16 +25758,16 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C845" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -25776,12 +25776,12 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -25797,7 +25797,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -25806,24 +25806,24 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -25836,28 +25836,28 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C848" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -25866,28 +25866,28 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -25896,24 +25896,24 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C850" t="n">
@@ -25926,28 +25926,28 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -25956,24 +25956,24 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C852" t="n">
@@ -25986,24 +25986,24 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C853" t="n">
@@ -26016,28 +26016,28 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -26046,24 +26046,24 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C855" t="n">
@@ -26076,24 +26076,24 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C856" t="n">
@@ -26106,24 +26106,24 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C857" t="n">
@@ -26136,28 +26136,28 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C858" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -26166,24 +26166,24 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C859" t="n">
@@ -26196,24 +26196,24 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C860" t="n">
@@ -26226,24 +26226,24 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C861" t="n">
@@ -26256,28 +26256,28 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C862" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -26286,24 +26286,24 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C863" t="n">
@@ -26316,24 +26316,24 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C864" t="n">
@@ -26346,24 +26346,24 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C865" t="n">
@@ -26376,24 +26376,24 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C866" t="n">
@@ -26406,24 +26406,24 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -26436,24 +26436,24 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C868" t="n">
@@ -26466,28 +26466,28 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -26496,12 +26496,12 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -26526,12 +26526,12 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -26543,7 +26543,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,24 +26556,24 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -26586,28 +26586,28 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C873" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -26616,28 +26616,28 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C874" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -26646,28 +26646,28 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C875" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -26676,24 +26676,24 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -26706,24 +26706,24 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,28 +26736,28 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C878" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -26766,24 +26766,24 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -26796,28 +26796,28 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -26826,24 +26826,24 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -26856,24 +26856,24 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,28 +26886,28 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -26916,28 +26916,28 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C884" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -26946,24 +26946,24 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C885" t="n">
@@ -26976,24 +26976,24 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -27011,23 +27011,23 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C887" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -27036,24 +27036,24 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C888" t="n">
@@ -27066,24 +27066,24 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C889" t="n">
@@ -27096,28 +27096,28 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C890" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -27126,24 +27126,24 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C891" t="n">
@@ -27156,24 +27156,24 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -27186,24 +27186,24 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -27216,24 +27216,24 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C894" t="n">
@@ -27246,24 +27246,24 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -27276,24 +27276,24 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -27306,28 +27306,28 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -27336,24 +27336,24 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C898" t="n">
@@ -27366,24 +27366,24 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C899" t="n">
@@ -27396,24 +27396,24 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C900" t="n">
@@ -27426,24 +27426,24 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C901" t="n">
@@ -27456,24 +27456,24 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C902" t="n">
@@ -27486,28 +27486,28 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C903" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -27516,24 +27516,24 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C904" t="n">
@@ -27546,24 +27546,24 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C905" t="n">
@@ -27576,28 +27576,28 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -27606,28 +27606,28 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C907" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -27636,28 +27636,28 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C908" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -27666,24 +27666,24 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C909" t="n">
@@ -27696,24 +27696,24 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C910" t="n">
@@ -27726,28 +27726,28 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C911" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -27756,12 +27756,12 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
@@ -27773,7 +27773,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C912" t="n">
@@ -27786,28 +27786,28 @@
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C913" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -27816,12 +27816,12 @@
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
@@ -27833,7 +27833,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C914" t="n">
@@ -27846,24 +27846,24 @@
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C915" t="n">
@@ -27876,24 +27876,24 @@
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C916" t="n">
@@ -27906,28 +27906,28 @@
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C917" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -27936,28 +27936,28 @@
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C918" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -27966,12 +27966,12 @@
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
@@ -27983,11 +27983,11 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C919" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -27996,24 +27996,24 @@
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C920" t="n">
@@ -28026,28 +28026,28 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C921" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -28056,28 +28056,28 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C922" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -28086,28 +28086,28 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
         </is>
       </c>
       <c r="C923" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -28116,28 +28116,28 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
+          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
+          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
       <c r="C924" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -28146,28 +28146,28 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
+          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
+          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
+          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
         </is>
       </c>
       <c r="C925" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -28176,24 +28176,24 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
         </is>
       </c>
       <c r="C926" t="n">
@@ -28206,40 +28206,70 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
         </is>
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
+          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
           <t xml:space="preserve">Martin Vastl, Daniel Zeman, Rudolf Rosa </t>
         </is>
       </c>
-      <c r="B927" t="inlineStr">
+      <c r="B928" t="inlineStr">
         <is>
           <t xml:space="preserve"> Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task. </t>
         </is>
       </c>
-      <c r="C927" t="n">
+      <c r="C928" t="n">
         <v>2020</v>
       </c>
-      <c r="D927" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E927" t="inlineStr">
+      <c r="D928" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://arxiv.org/abs/2010.03920 </t>
         </is>
       </c>
-      <c r="F927" t="inlineStr">
+      <c r="F928" t="inlineStr">
         <is>
           <t xml:space="preserve"> arXiv CoRR abs/2010.03920 (2020).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -17886,7 +17886,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1609/aaai.v31i1.9750 </t>
+          <t xml:space="preserve"> https://doi.org/10.1609/aaai.v29i1.9750 </t>
         </is>
       </c>
       <c r="F582" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F934"/>
+  <dimension ref="A1:F935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24858,16 +24858,16 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zarathustra Amadeus Goertzel </t>
+          <t xml:space="preserve">Sergey Rodionov, Zarathustra Amadeus Goertzel, Ben Goertzel </t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make E Smart Again (Short Paper). </t>
+          <t xml:space="preserve"> An Evaluation of GPT-4 on the ETHICS Dataset. </t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -24876,12 +24876,12 @@
       </c>
       <c r="E815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-51054-1_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2309.10492 </t>
         </is>
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning - 10th International Joint Conference, IJCAR 2020, Paris, France, July 1-4, 2020, Proceedings, Part II: 408-415 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2309.10492 (2023).</t>
         </is>
       </c>
     </row>
@@ -24893,7 +24893,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make E Smart Again. </t>
+          <t xml:space="preserve"> Make E Smart Again (Short Paper). </t>
         </is>
       </c>
       <c r="C816" t="n">
@@ -24906,28 +24906,28 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.08858 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-51054-1_26 </t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
+          <t xml:space="preserve"> Automated Reasoning - 10th International Joint Conference, IJCAR 2020, Paris, France, July 1-4, 2020, Proceedings, Part II: 408-415 (2020).</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Zarathustra Amadeus Goertzel </t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Make E Smart Again. </t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -24936,12 +24936,12 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.08858 </t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
         </is>
       </c>
     </row>
@@ -24953,11 +24953,11 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
+          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -24966,12 +24966,12 @@
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
+          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
         </is>
       </c>
     </row>
@@ -24983,7 +24983,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
         </is>
       </c>
       <c r="C819" t="n">
@@ -24996,12 +24996,12 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
+          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
+          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
         </is>
       </c>
     </row>
@@ -25013,7 +25013,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C820" t="n">
@@ -25026,12 +25026,12 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
         </is>
       </c>
     </row>
@@ -25043,7 +25043,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
         </is>
       </c>
       <c r="C821" t="n">
@@ -25056,12 +25056,12 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
         </is>
       </c>
     </row>
@@ -25073,7 +25073,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
         </is>
       </c>
       <c r="C822" t="n">
@@ -25086,12 +25086,12 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
         </is>
       </c>
     </row>
@@ -25103,7 +25103,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
+          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C823" t="n">
@@ -25116,12 +25116,12 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
         </is>
       </c>
     </row>
@@ -25133,7 +25133,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
         </is>
       </c>
       <c r="C824" t="n">
@@ -25146,12 +25146,12 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
         </is>
       </c>
     </row>
@@ -25163,11 +25163,11 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -25176,12 +25176,12 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C826" t="n">
@@ -25206,12 +25206,12 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
+          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
         </is>
       </c>
     </row>
@@ -25223,7 +25223,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
         </is>
       </c>
       <c r="C827" t="n">
@@ -25236,12 +25236,12 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
         </is>
       </c>
     </row>
@@ -25253,7 +25253,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C828" t="n">
@@ -25266,12 +25266,12 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
         </is>
       </c>
     </row>
@@ -25283,7 +25283,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Game of Theorems. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C829" t="n">
@@ -25296,12 +25296,12 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
         </is>
       </c>
     </row>
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
+          <t xml:space="preserve"> Designing Game of Theorems. </t>
         </is>
       </c>
       <c r="C830" t="n">
@@ -25326,28 +25326,28 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -25356,24 +25356,24 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C832" t="n">
@@ -25386,12 +25386,12 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
         </is>
       </c>
     </row>
@@ -25416,24 +25416,24 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C834" t="n">
@@ -25446,24 +25446,24 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
+          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C835" t="n">
@@ -25476,28 +25476,28 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -25506,24 +25506,24 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C837" t="n">
@@ -25536,12 +25536,12 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
         </is>
       </c>
     </row>
@@ -25553,11 +25553,11 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proof Strategy Language. </t>
+          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
         </is>
       </c>
       <c r="C838" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -25566,24 +25566,24 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs 2016: (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
+          <t xml:space="preserve"> Proof Strategy Language. </t>
         </is>
       </c>
       <c r="C839" t="n">
@@ -25596,24 +25596,24 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
+          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
+          <t xml:space="preserve"> Arch. Formal Proofs 2016: (2016).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
+          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
+          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
         </is>
       </c>
       <c r="C840" t="n">
@@ -25626,24 +25626,24 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
+          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
+          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
         </is>
       </c>
       <c r="C841" t="n">
@@ -25656,24 +25656,24 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
+          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
+          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
         </is>
       </c>
       <c r="C842" t="n">
@@ -25686,24 +25686,24 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
+          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
         </is>
       </c>
       <c r="C843" t="n">
@@ -25716,24 +25716,24 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -25746,54 +25746,54 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
+          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
+          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
         </is>
       </c>
       <c r="C845" t="n">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-43513-3_10 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning with Analytic Tableaux and Related Methods - 32nd International Conference, TABLEAUX 2023, Prague, Czech Republic, September 18-21, 2023, Proceedings: 175-186 (2023).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zhangir Azerbayev, Bartosz Piotrowski, Hailey Schoelkopf, Edward W. Ayers, Dragomir Radev, Jeremy Avigad </t>
+          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ProofNet: Autoformalizing and Formally Proving Undergraduate-Level Mathematics. </t>
+          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
         </is>
       </c>
       <c r="C846" t="n">
@@ -25806,24 +25806,24 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2302.12433 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-43513-3_10 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2302.12433 (2023).</t>
+          <t xml:space="preserve"> Automated Reasoning with Analytic Tableaux and Related Methods - 32nd International Conference, TABLEAUX 2023, Prague, Czech Republic, September 18-21, 2023, Proceedings: 175-186 (2023).</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
+          <t xml:space="preserve">Zhangir Azerbayev, Bartosz Piotrowski, Hailey Schoelkopf, Edward W. Ayers, Dragomir Radev, Jeremy Avigad </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
+          <t xml:space="preserve"> ProofNet: Autoformalizing and Formally Proving Undergraduate-Level Mathematics. </t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -25836,28 +25836,28 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.00994 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2302.12433 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2304.00994 (2023).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2302.12433 (2023).</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
         </is>
       </c>
       <c r="C848" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -25866,58 +25866,58 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.00994 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2304.00994 (2023).</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erik Derner, Kristina Batistic </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beyond the Safeguards: Exploring the Security Risks of ChatGPT. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2305.08005 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2305.08005 (2023).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Erik Derner, Kristina Batistic </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Beyond the Safeguards: Exploring the Security Risks of ChatGPT. </t>
         </is>
       </c>
       <c r="C850" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -25926,24 +25926,24 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2305.08005 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2305.08005 (2023).</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C851" t="n">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
@@ -25968,16 +25968,16 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -25986,12 +25986,12 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -26016,24 +26016,24 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C854" t="n">
@@ -26046,28 +26046,28 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -26076,28 +26076,28 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -26106,24 +26106,24 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C857" t="n">
@@ -26136,28 +26136,28 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C858" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -26166,24 +26166,24 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C859" t="n">
@@ -26196,24 +26196,24 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C860" t="n">
@@ -26226,28 +26226,28 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C861" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -26256,24 +26256,24 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C862" t="n">
@@ -26286,24 +26286,24 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C863" t="n">
@@ -26316,24 +26316,24 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C864" t="n">
@@ -26346,28 +26346,28 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -26376,24 +26376,24 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C866" t="n">
@@ -26406,24 +26406,24 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -26436,24 +26436,24 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C868" t="n">
@@ -26466,28 +26466,28 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -26496,24 +26496,24 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -26526,24 +26526,24 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,24 +26556,24 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -26586,24 +26586,24 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C873" t="n">
@@ -26616,24 +26616,24 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C874" t="n">
@@ -26646,24 +26646,24 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -26676,28 +26676,28 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C876" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -26706,12 +26706,12 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -26723,7 +26723,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,12 +26736,12 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -26753,7 +26753,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -26766,24 +26766,24 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -26796,28 +26796,28 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -26826,28 +26826,28 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C881" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -26856,28 +26856,28 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C882" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -26886,24 +26886,24 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C883" t="n">
@@ -26916,24 +26916,24 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C884" t="n">
@@ -26946,28 +26946,28 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C885" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -26976,24 +26976,24 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -27006,28 +27006,28 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C887" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -27036,24 +27036,24 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C888" t="n">
@@ -27066,24 +27066,24 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C889" t="n">
@@ -27096,28 +27096,28 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C890" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -27126,28 +27126,28 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C891" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -27156,24 +27156,24 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -27186,24 +27186,24 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -27221,23 +27221,23 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C894" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -27246,24 +27246,24 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -27276,24 +27276,24 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -27306,28 +27306,28 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -27336,24 +27336,24 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C898" t="n">
@@ -27366,24 +27366,24 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C899" t="n">
@@ -27396,24 +27396,24 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C900" t="n">
@@ -27426,24 +27426,24 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C901" t="n">
@@ -27456,24 +27456,24 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C902" t="n">
@@ -27486,24 +27486,24 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C903" t="n">
@@ -27516,28 +27516,28 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C904" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -27546,24 +27546,24 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C905" t="n">
@@ -27576,24 +27576,24 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C906" t="n">
@@ -27606,24 +27606,24 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C907" t="n">
@@ -27636,24 +27636,24 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C908" t="n">
@@ -27666,24 +27666,24 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C909" t="n">
@@ -27696,28 +27696,28 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C910" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -27726,24 +27726,24 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C911" t="n">
@@ -27756,24 +27756,24 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C912" t="n">
@@ -27786,28 +27786,28 @@
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C913" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -27816,28 +27816,28 @@
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C914" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -27846,28 +27846,28 @@
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C915" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -27876,24 +27876,24 @@
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C916" t="n">
@@ -27906,24 +27906,24 @@
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C917" t="n">
@@ -27936,28 +27936,28 @@
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C918" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -27966,12 +27966,12 @@
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
@@ -27983,7 +27983,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C919" t="n">
@@ -27996,28 +27996,28 @@
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C920" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -28026,12 +28026,12 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
@@ -28043,7 +28043,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C921" t="n">
@@ -28056,24 +28056,24 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C922" t="n">
@@ -28086,24 +28086,24 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C923" t="n">
@@ -28116,28 +28116,28 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C924" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -28146,28 +28146,28 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C925" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -28176,12 +28176,12 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C926" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -28206,24 +28206,24 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C927" t="n">
@@ -28236,28 +28236,28 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C928" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -28266,28 +28266,28 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C929" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -28296,28 +28296,28 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
         </is>
       </c>
       <c r="C930" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -28326,28 +28326,28 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
         </is>
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
+          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
+          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
       <c r="C931" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -28356,28 +28356,28 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
+          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
+          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
+          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
         </is>
       </c>
       <c r="C932" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -28386,24 +28386,24 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
         </is>
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
         </is>
       </c>
       <c r="C933" t="n">
@@ -28416,40 +28416,70 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
         </is>
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
+          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
           <t xml:space="preserve">Martin Vastl, Daniel Zeman, Rudolf Rosa </t>
         </is>
       </c>
-      <c r="B934" t="inlineStr">
+      <c r="B935" t="inlineStr">
         <is>
           <t xml:space="preserve"> Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task. </t>
         </is>
       </c>
-      <c r="C934" t="n">
+      <c r="C935" t="n">
         <v>2020</v>
       </c>
-      <c r="D934" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E934" t="inlineStr">
+      <c r="D935" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://arxiv.org/abs/2010.03920 </t>
         </is>
       </c>
-      <c r="F934" t="inlineStr">
+      <c r="F935" t="inlineStr">
         <is>
           <t xml:space="preserve"> arXiv CoRR abs/2010.03920 (2020).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -18096,7 +18096,7 @@
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1609/aaai.v29i1.9750 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q113739715 </t>
         </is>
       </c>
       <c r="F589" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -21546,7 +21546,7 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.2478/forma-2019-0027 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q123021496 </t>
         </is>
       </c>
       <c r="F704" t="inlineStr">

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F938"/>
+  <dimension ref="A1:F939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28368,12 +28368,12 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc </t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Stability analysis of multiple time-delay systems and design of time-delay filters (Çoklu zaman gecikmeli sistemlerin kararlılık analizi ve gecikme tabanlı filtre tasarımı) </t>
         </is>
       </c>
       <c r="C932" t="n">
@@ -28386,28 +28386,28 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> https://tez.yok.gov.tr/UlusalTezMerkezi/tezDetay.jsp?id=gLpBbQbOR-wukzWI3gxnEA&amp;no=wMc2iygZhjj_Ym6dqKnlyw </t>
         </is>
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> Thesis (2017).</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C933" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -28416,28 +28416,28 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
         </is>
       </c>
       <c r="C934" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -28446,28 +28446,28 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
         </is>
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
+          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
+          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
       <c r="C935" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -28476,28 +28476,28 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
+          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
+          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
+          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
         </is>
       </c>
       <c r="C936" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -28506,24 +28506,24 @@
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
         </is>
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
         </is>
       </c>
       <c r="C937" t="n">
@@ -28536,40 +28536,70 @@
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
         </is>
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
+          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+        </is>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
           <t xml:space="preserve">Martin Vastl, Daniel Zeman, Rudolf Rosa </t>
         </is>
       </c>
-      <c r="B938" t="inlineStr">
+      <c r="B939" t="inlineStr">
         <is>
           <t xml:space="preserve"> Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task. </t>
         </is>
       </c>
-      <c r="C938" t="n">
+      <c r="C939" t="n">
         <v>2020</v>
       </c>
-      <c r="D938" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E938" t="inlineStr">
+      <c r="D939" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://arxiv.org/abs/2010.03920 </t>
         </is>
       </c>
-      <c r="F938" t="inlineStr">
+      <c r="F939" t="inlineStr">
         <is>
           <t xml:space="preserve"> arXiv CoRR abs/2010.03920 (2020).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F939"/>
+  <dimension ref="A1:F940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24978,16 +24978,16 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zarathustra Amadeus Goertzel </t>
+          <t xml:space="preserve">Ben Goertzel, Vitaly Bogdanov, Michael Duncan, Deborah Duong, Zarathustra Amadeus Goertzel, Jan Horlings, Matthew Iklé, Lucius Gregory Meredith, Alexey Potapov, Andre Luiz de Senna, Hedra Seid, Andres Suarez, Adam Vandervorst, Robert Werko </t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make E Smart Again (Short Paper). </t>
+          <t xml:space="preserve"> OpenCog Hyperon: A Framework for AGI at the Human Level and Beyond. </t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -24996,12 +24996,12 @@
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-51054-1_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2310.18318 </t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning - 10th International Joint Conference, IJCAR 2020, Paris, France, July 1-4, 2020, Proceedings, Part II: 408-415 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2310.18318 (2023).</t>
         </is>
       </c>
     </row>
@@ -25013,7 +25013,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make E Smart Again. </t>
+          <t xml:space="preserve"> Make E Smart Again (Short Paper). </t>
         </is>
       </c>
       <c r="C820" t="n">
@@ -25026,28 +25026,28 @@
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.08858 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-51054-1_26 </t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
+          <t xml:space="preserve"> Automated Reasoning - 10th International Joint Conference, IJCAR 2020, Paris, France, July 1-4, 2020, Proceedings, Part II: 408-415 (2020).</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Zarathustra Amadeus Goertzel </t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Make E Smart Again. </t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -25056,12 +25056,12 @@
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.08858 </t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.08858 (2020).</t>
         </is>
       </c>
     </row>
@@ -25073,11 +25073,11 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
+          <t xml:space="preserve"> Faster Smarter Proof by Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -25086,12 +25086,12 @@
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
+          <t xml:space="preserve"> https://doi.org/10.24963/ijcai.2021/273 </t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Thirtieth International Joint Conference on Artificial Intelligence, IJCAI 2021, Virtual Event / Montreal, Canada, 19-27 August 2021.: 1981-1988 (2021).</t>
         </is>
       </c>
     </row>
@@ -25103,7 +25103,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (Tool Paper). </t>
         </is>
       </c>
       <c r="C823" t="n">
@@ -25116,12 +25116,12 @@
       </c>
       <c r="E823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
+          <t xml:space="preserve"> https://doi.org/10.34727/2020/isbn.978-3-85448-042-6_32 </t>
         </is>
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
+          <t xml:space="preserve"> 2020 Formal Methods in Computer Aided Design, FMCAD 2020, Haifa, Israel, September 21-24, 2020: 245-254 (2020).</t>
         </is>
       </c>
     </row>
@@ -25133,7 +25133,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C824" t="n">
@@ -25146,12 +25146,12 @@
       </c>
       <c r="E824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-53518-6_21 </t>
         </is>
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 13th International Conference, CICM 2020, Bertinoro, Italy, July 26-31, 2020, Proceedings: 297-302 (2020).</t>
         </is>
       </c>
     </row>
@@ -25163,7 +25163,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
+          <t xml:space="preserve"> Smart Induction for Isabelle/HOL (System Description). </t>
         </is>
       </c>
       <c r="C825" t="n">
@@ -25176,12 +25176,12 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2001.10834 </t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2001.10834 (2020).</t>
         </is>
       </c>
     </row>
@@ -25193,7 +25193,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Simple Dataset for Proof Method Recommendation in Isabelle/HOL (Dataset Description). </t>
         </is>
       </c>
       <c r="C826" t="n">
@@ -25206,12 +25206,12 @@
       </c>
       <c r="E826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2004.10667 </t>
         </is>
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2004.10667 (2020).</t>
         </is>
       </c>
     </row>
@@ -25223,7 +25223,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
+          <t xml:space="preserve"> Towards United Reasoning for Automatic Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C827" t="n">
@@ -25236,12 +25236,12 @@
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.12737 </t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.12737 (2020).</t>
         </is>
       </c>
     </row>
@@ -25253,7 +25253,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
+          <t xml:space="preserve"> Faster Smarter Induction in Isabelle/HOL with SeLFiE. </t>
         </is>
       </c>
       <c r="C828" t="n">
@@ -25266,12 +25266,12 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2009.09215 </t>
         </is>
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2009.09215 (2020).</t>
         </is>
       </c>
     </row>
@@ -25283,11 +25283,11 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> SeLFiE: Modular Semantic Reasoning for Induction in Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -25296,12 +25296,12 @@
       </c>
       <c r="E829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2010.10296 </t>
         </is>
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2010.10296 (2020).</t>
         </is>
       </c>
     </row>
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C830" t="n">
@@ -25326,12 +25326,12 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-34175-6_14 </t>
         </is>
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
+          <t xml:space="preserve"> Programming Languages and Systems - 17th Asian Symposium, APLAS 2019, Nusa Dua, Bali, Indonesia, December 1-4, 2019, Proceedings: 266-287 (2019).</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards evolutionary theorem proving for isabelle/HOL. </t>
         </is>
       </c>
       <c r="C831" t="n">
@@ -25356,12 +25356,12 @@
       </c>
       <c r="E831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3319619.3321921 </t>
         </is>
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the Genetic and Evolutionary Computation Conference Companion, GECCO 2019, Prague, Czech Republic, July 13-17, 2019.: 419-420 (2019).</t>
         </is>
       </c>
     </row>
@@ -25373,7 +25373,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Evolutionary Theorem Proving for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C832" t="n">
@@ -25386,12 +25386,12 @@
       </c>
       <c r="E832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08468 </t>
         </is>
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08468 (2019).</t>
         </is>
       </c>
     </row>
@@ -25403,7 +25403,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Designing Game of Theorems. </t>
+          <t xml:space="preserve"> LiFtEr: Language to Encode Induction Heuristics for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C833" t="n">
@@ -25416,12 +25416,12 @@
       </c>
       <c r="E833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08084 </t>
         </is>
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08084 (2019).</t>
         </is>
       </c>
     </row>
@@ -25433,7 +25433,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
+          <t xml:space="preserve"> Designing Game of Theorems. </t>
         </is>
       </c>
       <c r="C834" t="n">
@@ -25446,28 +25446,28 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1906.08549 </t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1906.08549 (2019).</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Domain-Specific Language to Encode Induction Heuristics. </t>
         </is>
       </c>
       <c r="C835" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -25476,24 +25476,24 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1907.02594 </t>
         </is>
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1907.02594 (2019).</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
+          <t xml:space="preserve"> PaMpeR: proof method recommendation system for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C836" t="n">
@@ -25506,12 +25506,12 @@
       </c>
       <c r="E836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3238147.3238210 </t>
         </is>
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the 33rd ACM/IEEE International Conference on Automated Software Engineering, ASE 2018, Montpellier, France, September 3-7, 2018: 362-372 (2018).</t>
         </is>
       </c>
     </row>
@@ -25536,24 +25536,24 @@
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-96812-4_19 </t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
+          <t xml:space="preserve"> Intelligent Computer Mathematics - 11th International Conference, CICM 2018, Hagenberg, Austria, August 13-17, 2018, Proceedings: 225-231 (2018).</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
+          <t xml:space="preserve">Yutaka Nagashima, Julian Parsert </t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Goal-Oriented Conjecturing for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -25566,24 +25566,24 @@
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.04774 </t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.04774 (2018).</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Yilun He </t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
+          <t xml:space="preserve"> PaMpeR: Proof Method Recommendation System for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C839" t="n">
@@ -25596,28 +25596,28 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1806.07239 </t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1806.07239 (2018).</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
+          <t xml:space="preserve"> Towards Machine Learning Mathematical Induction. </t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -25626,24 +25626,24 @@
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1812.04088 </t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1812.04088 (2018).</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle/HOL. </t>
         </is>
       </c>
       <c r="C841" t="n">
@@ -25656,12 +25656,12 @@
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-63046-5_32 </t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
+          <t xml:space="preserve"> Automated Deduction - CADE 26 - 26th International Conference on Automated Deduction, Gothenburg, Sweden, August 6-11, 2017, Proceedings: 528-545 (2017).</t>
         </is>
       </c>
     </row>
@@ -25673,11 +25673,11 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proof Strategy Language. </t>
+          <t xml:space="preserve"> Towards Smart Proof Search for Isabelle. </t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -25686,24 +25686,24 @@
       </c>
       <c r="E842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1701.03037 </t>
         </is>
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arch. Formal Proofs 2016: (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1701.03037 (2017).</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
+          <t xml:space="preserve">Yutaka Nagashima </t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
+          <t xml:space="preserve"> Proof Strategy Language. </t>
         </is>
       </c>
       <c r="C843" t="n">
@@ -25716,24 +25716,24 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
+          <t xml:space="preserve"> https://www.isa-afp.org/entries/Proof_Strategy_Language.shtml </t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
+          <t xml:space="preserve"> Arch. Formal Proofs 2016: (2016).</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
+          <t xml:space="preserve">Sidney Amani, Alex Hixon, Zilin Chen, Christine Rizkallah, Peter Chubb, Liam O'Connor, Joel Beeren, Yutaka Nagashima, Japheth Lim, Thomas Sewell, Joseph Tuong, Gabriele Keller, Toby C. Murray, Gerwin Klein, Gernot Heiser </t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
+          <t xml:space="preserve"> CoGENT: Verifying High-Assurance File System Implementations. </t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -25746,24 +25746,24 @@
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2980024.2872404 </t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the Twenty-First International Conference on Architectural Support for Programming Languages and Operating Systems, ASPLOS 2016, Atlanta, GA, USA, April 2-6, 2016: 175-188 (2016).</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
+          <t xml:space="preserve">Liam O'Connor, Zilin Chen, Christine Rizkallah, Sidney Amani, Japheth Lim, Toby C. Murray, Yutaka Nagashima, Thomas Sewell, Gerwin Klein </t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
+          <t xml:space="preserve"> Refinement through restraint: bringing down the cost of verification. </t>
         </is>
       </c>
       <c r="C845" t="n">
@@ -25776,24 +25776,24 @@
       </c>
       <c r="E845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3022670.2951940 </t>
         </is>
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 21st ACM SIGPLAN International Conference on Functional Programming, ICFP 2016, Nara, Japan, September 18-22, 2016: 89-102 (2016).</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
+          <t xml:space="preserve">Christine Rizkallah, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Zilin Chen, Liam O'Connor, Toby C. Murray, Gabriele Keller, Gerwin Klein </t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
+          <t xml:space="preserve"> A Framework for the Automatic Formal Verification of Refinement from Cogent to C. </t>
         </is>
       </c>
       <c r="C846" t="n">
@@ -25806,24 +25806,24 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-43144-4_20 </t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
+          <t xml:space="preserve"> Interactive Theorem Proving - 7th International Conference, ITP 2016, Nancy, France, August 22-25, 2016, Proceedings: 323-340 (2016).</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
+          <t xml:space="preserve">Liam O'Connor, Christine Rizkallah, Zilin Chen, Sidney Amani, Japheth Lim, Yutaka Nagashima, Thomas Sewell, Alex Hixon, Gabriele Keller, Toby C. Murray, Gerwin Klein </t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
+          <t xml:space="preserve"> COGENT: Certified Compilation for a Functional Systems Language. </t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -25836,24 +25836,24 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1601.05520 </t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1601.05520 (2016).</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
+          <t xml:space="preserve">Yutaka Nagashima, Ramana Kumar </t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
+          <t xml:space="preserve"> A Proof Strategy Language and Proof Script Generation for Isabelle. </t>
         </is>
       </c>
       <c r="C848" t="n">
@@ -25866,54 +25866,54 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1606.02941 </t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1606.02941 (2016).</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
+          <t xml:space="preserve">Yutaka Nagashima, Liam O'Connor </t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
+          <t xml:space="preserve"> Close Encounters of the Higher Kind Emulating Constructor Classes in Standard ML. </t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FM </t>
+          <t xml:space="preserve"> AR </t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-43513-3_10 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1608.03350 </t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Automated Reasoning with Analytic Tableaux and Related Methods - 32nd International Conference, TABLEAUX 2023, Prague, Czech Republic, September 18-21, 2023, Proceedings: 175-186 (2023).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1608.03350 (2016).</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zhangir Azerbayev, Bartosz Piotrowski, Hailey Schoelkopf, Edward W. Ayers, Dragomir Radev, Jeremy Avigad </t>
+          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ProofNet: Autoformalizing and Formally Proving Undergraduate-Level Mathematics. </t>
+          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
         </is>
       </c>
       <c r="C850" t="n">
@@ -25926,24 +25926,24 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2302.12433 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-031-43513-3_10 </t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2302.12433 (2023).</t>
+          <t xml:space="preserve"> Automated Reasoning with Analytic Tableaux and Related Methods - 32nd International Conference, TABLEAUX 2023, Prague, Czech Republic, September 18-21, 2023, Proceedings: 175-186 (2023).</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
+          <t xml:space="preserve">Zhangir Azerbayev, Bartosz Piotrowski, Hailey Schoelkopf, Edward W. Ayers, Dragomir Radev, Jeremy Avigad </t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
+          <t xml:space="preserve"> ProofNet: Autoformalizing and Formally Proving Undergraduate-Level Mathematics. </t>
         </is>
       </c>
       <c r="C851" t="n">
@@ -25956,28 +25956,28 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.00994 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2302.12433 </t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2304.00994 (2023).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2302.12433 (2023).</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
+          <t xml:space="preserve">Bartosz Piotrowski, Ramon Fernández Mir, Edward W. Ayers </t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
+          <t xml:space="preserve"> Machine-Learned Premise Selection for Lean. </t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -25986,58 +25986,58 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.00994 </t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2304.00994 (2023).</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erik Derner, Kristina Batistic </t>
+          <t xml:space="preserve">Bartosz Pawel Piotrowski, Miron Bartosz Kursa </t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beyond the Safeguards: Exploring the Security Risks of ChatGPT. </t>
+          <t xml:space="preserve"> Fully Automatic Classification of Flow Cytometry Data. </t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FM </t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2305.08005 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q112319718 </t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2305.08005 (2023).</t>
+          <t xml:space="preserve"> Foundations of Intelligent Systems - 24th International Symposium, ISMIS 2018, Limassol, Cyprus, October 29-31, 2018, Proceedings: 3-12 (2018).</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Erik Derner, Kristina Batistic </t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Beyond the Safeguards: Exploring the Security Risks of ChatGPT. </t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -26046,24 +26046,24 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2305.08005 </t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2305.08005 (2023).</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C855" t="n">
@@ -26076,7 +26076,7 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
@@ -26088,16 +26088,16 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -26106,12 +26106,12 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -26127,7 +26127,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -26136,24 +26136,24 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C858" t="n">
@@ -26166,28 +26166,28 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C859" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -26196,28 +26196,28 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C860" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -26226,24 +26226,24 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C861" t="n">
@@ -26256,28 +26256,28 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C862" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -26286,24 +26286,24 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C863" t="n">
@@ -26316,24 +26316,24 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C864" t="n">
@@ -26346,28 +26346,28 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -26376,24 +26376,24 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C866" t="n">
@@ -26406,24 +26406,24 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -26436,24 +26436,24 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C868" t="n">
@@ -26466,28 +26466,28 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -26496,24 +26496,24 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -26526,24 +26526,24 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,24 +26556,24 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -26586,28 +26586,28 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C873" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -26616,24 +26616,24 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C874" t="n">
@@ -26646,24 +26646,24 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -26676,24 +26676,24 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -26706,24 +26706,24 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,24 +26736,24 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -26766,24 +26766,24 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -26796,28 +26796,28 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C880" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -26826,12 +26826,12 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -26843,7 +26843,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -26856,12 +26856,12 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -26873,7 +26873,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,24 +26886,24 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C883" t="n">
@@ -26916,28 +26916,28 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C884" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -26946,28 +26946,28 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C885" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -26976,28 +26976,28 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C886" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -27006,24 +27006,24 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C887" t="n">
@@ -27036,24 +27036,24 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C888" t="n">
@@ -27066,28 +27066,28 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C889" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -27096,24 +27096,24 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C890" t="n">
@@ -27126,28 +27126,28 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C891" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -27156,24 +27156,24 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -27186,24 +27186,24 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -27216,28 +27216,28 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C894" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -27246,28 +27246,28 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C895" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -27276,24 +27276,24 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -27306,24 +27306,24 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C897" t="n">
@@ -27341,23 +27341,23 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -27366,24 +27366,24 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C899" t="n">
@@ -27396,24 +27396,24 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C900" t="n">
@@ -27426,28 +27426,28 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C901" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -27456,24 +27456,24 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C902" t="n">
@@ -27486,24 +27486,24 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C903" t="n">
@@ -27516,24 +27516,24 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C904" t="n">
@@ -27546,24 +27546,24 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C905" t="n">
@@ -27576,24 +27576,24 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C906" t="n">
@@ -27606,24 +27606,24 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C907" t="n">
@@ -27636,28 +27636,28 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C908" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -27666,24 +27666,24 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C909" t="n">
@@ -27696,24 +27696,24 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C910" t="n">
@@ -27726,24 +27726,24 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C911" t="n">
@@ -27756,24 +27756,24 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C912" t="n">
@@ -27786,24 +27786,24 @@
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C913" t="n">
@@ -27816,28 +27816,28 @@
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C914" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -27846,24 +27846,24 @@
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C915" t="n">
@@ -27876,24 +27876,24 @@
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C916" t="n">
@@ -27906,28 +27906,28 @@
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C917" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -27936,28 +27936,28 @@
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C918" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -27966,28 +27966,28 @@
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C919" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -27996,24 +27996,24 @@
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C920" t="n">
@@ -28026,24 +28026,24 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C921" t="n">
@@ -28056,28 +28056,28 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C922" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -28086,12 +28086,12 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
@@ -28103,7 +28103,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C923" t="n">
@@ -28116,28 +28116,28 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C924" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -28146,12 +28146,12 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
@@ -28163,7 +28163,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C925" t="n">
@@ -28176,24 +28176,24 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C926" t="n">
@@ -28206,24 +28206,24 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C927" t="n">
@@ -28236,28 +28236,28 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C928" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -28266,28 +28266,28 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C929" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -28296,12 +28296,12 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
@@ -28313,11 +28313,11 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C930" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -28326,24 +28326,24 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C931" t="n">
@@ -28356,28 +28356,28 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stability analysis of multiple time-delay systems and design of time-delay filters (Çoklu zaman gecikmeli sistemlerin kararlılık analizi ve gecikme tabanlı filtre tasarımı) </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C932" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -28386,24 +28386,24 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://tez.yok.gov.tr/UlusalTezMerkezi/tezDetay.jsp?id=gLpBbQbOR-wukzWI3gxnEA&amp;no=wMc2iygZhjj_Ym6dqKnlyw </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thesis (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc </t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Stability analysis of multiple time-delay systems and design of time-delay filters (Çoklu zaman gecikmeli sistemlerin kararlılık analizi ve gecikme tabanlı filtre tasarımı) </t>
         </is>
       </c>
       <c r="C933" t="n">
@@ -28416,28 +28416,28 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> https://tez.yok.gov.tr/UlusalTezMerkezi/tezDetay.jsp?id=gLpBbQbOR-wukzWI3gxnEA&amp;no=wMc2iygZhjj_Ym6dqKnlyw </t>
         </is>
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> Thesis (2017).</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C934" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -28446,28 +28446,28 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
         </is>
       </c>
       <c r="C935" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -28476,28 +28476,28 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
         </is>
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
+          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
+          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
       <c r="C936" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -28506,28 +28506,28 @@
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
+          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
+          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
+          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
         </is>
       </c>
       <c r="C937" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -28536,24 +28536,24 @@
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
         </is>
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
         </is>
       </c>
       <c r="C938" t="n">
@@ -28566,40 +28566,70 @@
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
         </is>
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
+          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
           <t xml:space="preserve">Martin Vastl, Daniel Zeman, Rudolf Rosa </t>
         </is>
       </c>
-      <c r="B939" t="inlineStr">
+      <c r="B940" t="inlineStr">
         <is>
           <t xml:space="preserve"> Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task. </t>
         </is>
       </c>
-      <c r="C939" t="n">
+      <c r="C940" t="n">
         <v>2020</v>
       </c>
-      <c r="D939" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E939" t="inlineStr">
+      <c r="D940" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://arxiv.org/abs/2010.03920 </t>
         </is>
       </c>
-      <c r="F939" t="inlineStr">
+      <c r="F940" t="inlineStr">
         <is>
           <t xml:space="preserve"> arXiv CoRR abs/2010.03920 (2020).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F942"/>
+  <dimension ref="A1:F944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26088,12 +26088,12 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erik Derner, Kristina Batistic </t>
+          <t xml:space="preserve">Barbora Hudcová, Jakub Krásenský </t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beyond the Safeguards: Exploring the Security Risks of ChatGPT. </t>
+          <t xml:space="preserve"> Simulation Limitations of Affine Cellular Automata. </t>
         </is>
       </c>
       <c r="C856" t="n">
@@ -26101,33 +26101,33 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ML </t>
+          <t xml:space="preserve"> FAI </t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2305.08005 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2311.14477 </t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2305.08005 (2023).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2311.14477 (2023).</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Erik Derner, Kristina Batistic </t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Beyond the Safeguards: Exploring the Security Risks of ChatGPT. </t>
         </is>
       </c>
       <c r="C857" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -26136,24 +26136,24 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2305.08005 </t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2305.08005 (2023).</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C858" t="n">
@@ -26166,7 +26166,7 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F858" t="inlineStr">
@@ -26178,16 +26178,16 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C859" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -26196,12 +26196,12 @@
       </c>
       <c r="E859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -26217,7 +26217,7 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -26226,24 +26226,24 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C861" t="n">
@@ -26256,28 +26256,28 @@
       </c>
       <c r="E861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C862" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -26286,28 +26286,28 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C863" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -26316,24 +26316,24 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C864" t="n">
@@ -26346,28 +26346,28 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -26376,24 +26376,24 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C866" t="n">
@@ -26406,24 +26406,24 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C867" t="n">
@@ -26436,28 +26436,28 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C868" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -26466,24 +26466,24 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C869" t="n">
@@ -26496,24 +26496,24 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C870" t="n">
@@ -26526,24 +26526,24 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,28 +26556,28 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C872" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -26586,24 +26586,24 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C873" t="n">
@@ -26616,24 +26616,24 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C874" t="n">
@@ -26646,24 +26646,24 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -26676,28 +26676,28 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C876" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -26706,24 +26706,24 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,24 +26736,24 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -26766,24 +26766,24 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -26796,24 +26796,24 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C880" t="n">
@@ -26826,24 +26826,24 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -26856,24 +26856,24 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,28 +26886,28 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -26916,12 +26916,12 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -26933,7 +26933,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C884" t="n">
@@ -26946,12 +26946,12 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -26963,7 +26963,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C885" t="n">
@@ -26976,24 +26976,24 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -27006,28 +27006,28 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
+          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
         </is>
       </c>
       <c r="C887" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -27036,28 +27036,28 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
+          <t xml:space="preserve"> Ninth International Conference on Intelligent Systems Design and Applications, ISDA 2009, Pisa, Italy , November 30-December 2, 2009: 1450-1455 (2009).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi, Stefan Biffl </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> Multiobjective Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C888" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -27066,28 +27066,28 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-78604-7_19 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization, 8th European Conference, EvoCOP 2008, Naples, Italy, March 26-28, 2008. Proceedings: 218-229 (2008).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Richard Mordinyi </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Optimizing Events Traffic in Event-based Systems by means of Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C889" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -27096,24 +27096,24 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ARES.2007.113 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
+          <t xml:space="preserve"> Proceedings of the The Second International Conference on Availability, Reliability and Security, ARES 2007, The International Dependability Conference - Bridging Theory and Practice, April 10-13 2007, Vienna, Austria: 1101-1107 (2007).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Real-Parameter Optimization by Iterative Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C890" t="n">
@@ -27126,24 +27126,24 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/CEC.2006.1688543 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
+          <t xml:space="preserve"> IEEE International Conference on Evolutionary Computation, CEC 2006, part of WCCI 2006, Vancouver, BC, Canada, 16-21 July 2006: 1932-1938 (2006).</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Faigl </t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
+          <t xml:space="preserve"> Iterative Prototype Optimisation with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C891" t="n">
@@ -27156,28 +27156,28 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11729976_14 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
+          <t xml:space="preserve"> Genetic Programming, 9th European Conference, EuroGP 2006, Budapest, Hungary, April 10-12, 2006, Proceedings: 154-165 (2006).</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Posík, Jan Herold </t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
+          <t xml:space="preserve"> A Selecto-recombinative Genetic Algorithm with Continuous Chromosome Reconfiguration. </t>
         </is>
       </c>
       <c r="C892" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -27186,24 +27186,24 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/11844297_97 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
+          <t xml:space="preserve"> Parallel Problem Solving from Nature - PPSN IX, 9th International Conference, Reykjavik, Iceland, September 9-13, 2006, Procedings: 959-968 (2006).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Lenka Lhotská </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
+          <t xml:space="preserve"> Optimized model tuning in medical systems. </t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -27216,28 +27216,28 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51984282 </t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
+          <t xml:space="preserve"> Comput. Methods Programs Biomed. 80: S17-S28 (2005).</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
+          <t xml:space="preserve">Jan Suchý, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
+          <t xml:space="preserve"> Inducing Diverse Decision Forests with Genetic Programing. </t>
         </is>
       </c>
       <c r="C894" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -27246,24 +27246,24 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-31989-4_27 </t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
+          <t xml:space="preserve"> Genetic Programming, 8th European Conference, EuroGP2005, Lausanne, Switzerland, March 30 - April 1, 2005, Proceedings: 301-310 (2005).</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Kléma, Miroslav Kulich </t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Rescue Operation Planning. </t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -27276,24 +27276,24 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-540-24844-6_139 </t>
         </is>
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
+          <t xml:space="preserve"> Artificial Intelligence and Soft Computing - ICAISC 2004, 7th International Conference, Zakopane, Poland, June 7-11, 2004, Proceedings: 897-902 (2004).</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
+          <t xml:space="preserve">Milan Rollo, Petr Novák, Jirí Kubalík, Michal Pechoucek </t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
+          <t xml:space="preserve"> Alarm Root Cause Detection System. </t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -27306,28 +27306,28 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_12 </t>
         </is>
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 109-116 (2004).</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
+          <t xml:space="preserve">Jirí Kubalík, Marcel Jirina, Oldrich Starý, Lenka Lhotská, Jan Suchý </t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
+          <t xml:space="preserve"> Application of Soft Computing Techniques to Classification of Licensed Subjects. </t>
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -27336,28 +27336,28 @@
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/0-387-22829-2_52 </t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
+          <t xml:space="preserve"> Emerging Solutions for Future Manufacturing Systems, IFIP TC5 / WG5.5 Sixth IFIP International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services, 27-29 September 2004, Vienna, Austria: 481-488 (2004).</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
+          <t xml:space="preserve">Jirí Kubalík, Jan Koutník, Léon J. M. Rothkrantz </t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
+          <t xml:space="preserve"> Grammatical Evolution with Bidirectional Representation. </t>
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -27366,24 +27366,24 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/3-540-36599-0_33 </t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
+          <t xml:space="preserve"> Genetic Programming, 6th European Conference, EuroGP 2003, Essex, UK, April 14-16, 2003. Proceedings: 354-363 (2003).</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
+          <t xml:space="preserve">Jirí Kléma, Jirí Kubalík, Jiri Palous </t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
+          <t xml:space="preserve"> Optimized Model Tuning in Medical Systems. </t>
         </is>
       </c>
       <c r="C899" t="n">
@@ -27396,24 +27396,24 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/CBMS.2002.1011355 </t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
+          <t xml:space="preserve"> 15th IEEE Symposium on Computer-Based Medical Systems (CBMS 2002), 4-7 June 2002, Maribor, Slovenia: 59-64 (2002).</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
+          <t xml:space="preserve">Jirí Kubalík, Jirí Lazanský, Petr Zikl </t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
+          <t xml:space="preserve"> Layout Problem Optimization Using Genetic Algorithms. </t>
         </is>
       </c>
       <c r="C900" t="n">
@@ -27431,23 +27431,23 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
+          <t xml:space="preserve"> Knowledge and Technology Integration in Production and Services: Balancing Knowledge in Product and Service Life Cycle, IFIP TC5/WG5.3 Fifth IFIP/IEEE International Conference on Information Technology for Balanced Automation Systems in Manufacturing and Services (BASYS'02), September 25-27, 2002, Cancun, Mexico: 493-500 (2002).</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Jirí Kubalík, Léon J. M. Rothkrantz, Jirí Lazanský </t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
+          <t xml:space="preserve"> Genetic Algorithm with Limited Convergence. </t>
         </is>
       </c>
       <c r="C901" t="n">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -27456,28 +27456,28 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
+          <t>  </t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
+          <t xml:space="preserve"> Proceedings of the 6th Joint Conference on Information Science, March 8-13, 2002, Research Triangle Park, North Carolina, USA: 610-613 (2002).</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Jan Zahálka </t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
+          <t xml:space="preserve"> Trainwreck: A damaging adversarial attack on image classifiers. </t>
         </is>
       </c>
       <c r="C902" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -27486,24 +27486,24 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2311.14772 </t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2311.14772 (2023).</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Kim I. Schild, Alexandra M. Bagi, Magnus Holm Mamsen, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
+          <t xml:space="preserve"> XQM: Search-Oriented vs. Classifier-Oriented Relevance Feedback on Mobile Phones. </t>
         </is>
       </c>
       <c r="C903" t="n">
@@ -27516,28 +27516,28 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_39 </t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 458-464 (2022).</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Ujjwal Sharma, Björn Þór Jónsson, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2022. </t>
         </is>
       </c>
       <c r="C904" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -27546,28 +27546,28 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-98355-0_47 </t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 28th International Conference, MMM 2022, Phu Quoc, Vietnam, June 6-10, 2022, Proceedings, Part II: 511-517 (2022).</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by $p$-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C905" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -27576,24 +27576,24 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2209.00526 </t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2209.00526 (2022).</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C906" t="n">
@@ -27606,24 +27606,24 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q100732326 </t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
+          <t xml:space="preserve"> IEEE Trans. Vis. Comput. Graph. 27: 422-431 (2021).</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Aaron Duane, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C907" t="n">
@@ -27636,24 +27636,24 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3463948.3469255 </t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
+          <t xml:space="preserve"> Proceedings of the 4th Annual on Lifelog Search Challenge, LSC@ICMR 2021, Taipei, Taiwan, 21 August 2021: 3-6 (2021).</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
+          <t xml:space="preserve"> Impact of Interaction Strategies on User Relevance Feedback. </t>
         </is>
       </c>
       <c r="C908" t="n">
@@ -27666,24 +27666,24 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3460426.3463663 </t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
+          <t xml:space="preserve"> ICMR '21: International Conference on Multimedia Retrieval, Taipei, Taiwan, August 21-24, 2021: 590-598 (2021).</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
+          <t xml:space="preserve">Serhan Gül, Sebastian Bosse, Dimitri Podborski, Thomas Schierl, Cornelius Hellge, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Kalman Filter-Based Head Motion Prediction for Cloud-Based Mixed Reality. </t>
         </is>
       </c>
       <c r="C909" t="n">
@@ -27696,24 +27696,24 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477936 </t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3619-3621 (2021).</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Jakub Nawala, Lucjan Janowski, Bogdan Cmiel, Krzysztof Rusek, Marc A. Kastner, Jan Zahálka </t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Describing Subjective Experiment Consistency by p-Value P-P Plot. </t>
         </is>
       </c>
       <c r="C910" t="n">
@@ -27726,28 +27726,28 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3474085.3477935 </t>
         </is>
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
+          <t xml:space="preserve"> MM '21: ACM Multimedia Conference, Virtual Event, China, October 20 - 24, 2021: 3627-3629 (2021).</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Alexandra M. Bagi, Kim I. Schild, Omar Shahbaz Khan, Jan Zahálka, Björn Þór Jónsson </t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
+          <t xml:space="preserve"> XQM: Interactive Learning on Mobile Phones. </t>
         </is>
       </c>
       <c r="C911" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -27756,28 +27756,28 @@
       </c>
       <c r="E911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_24 </t>
         </is>
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 281-293 (2021).</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2021: Relationships Between Semantic Classifiers. </t>
         </is>
       </c>
       <c r="C912" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -27786,24 +27786,24 @@
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-67835-7_37 </t>
         </is>
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 27th International Conference, MMM 2021, Prague, Czech Republic, June 22-24, 2021, Proceedings, Part II: 410-416 (2021).</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Stevan Rudinac, Jan Zahálka, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
+          <t xml:space="preserve"> Interactive Learning for Multimedia at Large. </t>
         </is>
       </c>
       <c r="C913" t="n">
@@ -27816,24 +27816,24 @@
       </c>
       <c r="E913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-45439-5_33 </t>
         </is>
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
+          <t xml:space="preserve"> Advances in Information Retrieval - 42nd European Conference on IR Research, ECIR 2020, Lisbon, Portugal, April 14-17, 2020, Proceedings, Part I: 495-510 (2020).</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Mathias Dybkjær Larsen, Liam Alex Sonto Poulsen, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2020. </t>
         </is>
       </c>
       <c r="C914" t="n">
@@ -27846,24 +27846,24 @@
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3379172.3391718 </t>
         </is>
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
+          <t xml:space="preserve"> Proceedings of the Third ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2020, Dublin, Ireland, June 8-11, 2020.: 19-22 (2020).</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
+          <t xml:space="preserve">Xin Wang, Bo Wu, Yueqi Zhong, Wei Hu, Jan Zahálka </t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Outfit Compatibility Prediction and Diagnosis with Multi-Layered Comparison Network. </t>
         </is>
       </c>
       <c r="C915" t="n">
@@ -27876,24 +27876,24 @@
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414812 </t>
         </is>
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4439-4443 (2020).</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
+          <t xml:space="preserve">Tuan Hoang, Thanh-Toan Do, Ngai-Man Cheung, Michael Riegler, Jan Zahálka </t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
+          <t xml:space="preserve"> Reproducibility Companion Paper: Selective Deep Convolutional Features for Image Retrieval. </t>
         </is>
       </c>
       <c r="C916" t="n">
@@ -27906,28 +27906,28 @@
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3394171.3414814 </t>
         </is>
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
+          <t xml:space="preserve"> MM '20: The 28th ACM International Conference on Multimedia, Virtual Event / Seattle, WA, USA, October 12-16, 2020: 4448-4452 (2020).</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Dennis C. Koelma, Stevan Rudinac, Marcel Worring, Jan Zahálka </t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
+          <t xml:space="preserve"> Exquisitor at the Video Browser Showdown 2020. </t>
         </is>
       </c>
       <c r="C917" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -27936,28 +27936,28 @@
       </c>
       <c r="E917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-37734-2_72 </t>
         </is>
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 26th International Conference, MMM 2020, Daejeon, South Korea, January 5-8, 2020, Proceedings, Part II: 796-802 (2020).</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring, Jarke J. van Wijk </t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
+          <t xml:space="preserve"> II-20: Intelligent and pragmatic analytic categorization of image collections. </t>
         </is>
       </c>
       <c r="C918" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -27966,24 +27966,24 @@
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2005.02149 </t>
         </is>
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2005.02149 (2020).</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
+          <t xml:space="preserve">Omar Shahbaz Khan, Björn Þór Jónsson, Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
+          <t xml:space="preserve"> Exquisitor at the Lifelog Search Challenge 2019. </t>
         </is>
       </c>
       <c r="C919" t="n">
@@ -27996,28 +27996,28 @@
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3326460.3329156 </t>
         </is>
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
+          <t xml:space="preserve"> Proceedings of the ACM Workshop on Lifelog Search Challenge, LSC@ICMR 2019, Ottawa, ON, Canada, 10 June 2019.: 7-11 (2019).</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Omar Shahbaz Khan, Björn Þór Jónsson, Gylfi Þór Guðmundsson, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
+          <t xml:space="preserve"> Exquisitor: Breaking the Interaction Barrier for Exploration of 100 Million Images. </t>
         </is>
       </c>
       <c r="C920" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -28026,28 +28026,28 @@
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/3343031.3350580 </t>
         </is>
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
+          <t xml:space="preserve"> Proceedings of the 27th ACM International Conference on Multimedia, MM 2019, Nice, France, October 21-25, 2019: 1029-1031 (2019).</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Omar Shahbaz Khan, Hanna Ragnarsdóttir, Þórhildur Þorleiksdóttir, Jan Zahálka, Stevan Rudinac, Gylfi Þór Guðmundsson, Laurent Amsaleg, Marcel Worring </t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
+          <t xml:space="preserve"> Exquisitor: Interactive Learning at Large. </t>
         </is>
       </c>
       <c r="C921" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -28056,28 +28056,28 @@
       </c>
       <c r="E921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1904.08689 </t>
         </is>
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1904.08689 (2019).</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
+          <t xml:space="preserve"> Blackthorn: Large-Scale Interactive Multimodal Learning. </t>
         </is>
       </c>
       <c r="C922" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -28086,28 +28086,28 @@
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2017.2755986 </t>
         </is>
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 20: 687-698 (2018).</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
+          <t xml:space="preserve">Stevan Rudinac, Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
+          <t xml:space="preserve"> Discovering Geographic Regions in the City Using Social Multimedia and Open Data. </t>
         </is>
       </c>
       <c r="C923" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -28116,24 +28116,24 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-51814-5_13 </t>
         </is>
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 23rd International Conference, MMM 2017, Reykjavik, Iceland, January 4-6, 2017, Proceedings, Part II: 148-159 (2017).</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
+          <t xml:space="preserve">Marcel Worring, Dennis C. Koelma, Jan Zahálka </t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
+          <t xml:space="preserve"> Multimedia Pivot Tables for Multimedia Analytics on Image Collections. </t>
         </is>
       </c>
       <c r="C924" t="n">
@@ -28146,28 +28146,28 @@
       </c>
       <c r="E924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2016.2614380 </t>
         </is>
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 18: 2217-2227 (2016).</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Björn Þór Jónsson, Dennis C. Koelma, Marcel Worring </t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning on 100 Million Images. </t>
         </is>
       </c>
       <c r="C925" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -28176,28 +28176,28 @@
       </c>
       <c r="E925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2911996.2912062 </t>
         </is>
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
+          <t xml:space="preserve"> Proceedings of the 2016 ACM on International Conference on Multimedia Retrieval, ICMR 2016, New York, New York, USA, June 6-9, 2016: 333-337 (2016).</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Björn Þór Jónsson, Marcel Worring, Jan Zahálka, Stevan Rudinac, Laurent Amsaleg </t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
+          <t xml:space="preserve"> Ten Research Questions for Scalable Multimedia Analytics. </t>
         </is>
       </c>
       <c r="C926" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -28206,28 +28206,28 @@
       </c>
       <c r="E926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-27674-8_26 </t>
         </is>
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
+          <t xml:space="preserve"> MultiMedia Modeling - 22nd International Conference, MMM 2016, Miami, FL, USA, January 4-6, 2016, Proceedings, Part II: 290-302 (2016).</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Interactive Multimodal Learning for Venue Recommendation. </t>
         </is>
       </c>
       <c r="C927" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -28236,28 +28236,28 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TMM.2015.2480007 </t>
         </is>
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
+          <t xml:space="preserve"> IEEE Trans. Multim. 17: 2235-2244 (2015).</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
+          <t xml:space="preserve"> Analytic Quality: Evaluation of Performance and Insight in Multimedia Collection Analysis. </t>
         </is>
       </c>
       <c r="C928" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -28266,24 +28266,24 @@
       </c>
       <c r="E928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2733373.2806279 </t>
         </is>
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
+          <t xml:space="preserve"> Proceedings of the 23rd Annual ACM Conference on Multimedia Conference, MM '15, Brisbane, Australia, October 26 - 30, 2015: 231-240 (2015).</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
+          <t xml:space="preserve"> Knowledge-based Subtractive Integration of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C929" t="n">
@@ -28296,24 +28296,24 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004752200310039 </t>
         </is>
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
+          <t xml:space="preserve"> BIOINFORMATICS 2014 - Proceedings of the International Conference on Bioinformatics Models, Methods and Algorithms, ESEO, Angers, Loire Valley, France, 3-6 March, 2014: 31-39 (2014).</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
+          <t xml:space="preserve">Jirí Kléma, Jan Zahálka, Michael Andel, Zdenek Krejcík </t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
+          <t xml:space="preserve"> Interaction-Based Aggregation of mRNA and miRNA Expression Profiles to Differentiate Myelodysplastic Syndrome. </t>
         </is>
       </c>
       <c r="C930" t="n">
@@ -28326,28 +28326,28 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-26129-4_11 </t>
         </is>
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
+          <t xml:space="preserve"> Biomedical Engineering Systems and Technologies - 7th International Joint Conference, BIOSTEC 2014, Angers, France, March 3-6, 2014, Revised Selected Papers: 165-180 (2014).</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
+          <t xml:space="preserve">Jan Zahálka, Marcel Worring </t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
+          <t xml:space="preserve"> Towards interactive, intelligent, and integrated multimedia analytics. </t>
         </is>
       </c>
       <c r="C931" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -28356,28 +28356,28 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
+          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/VAST.2014.7042476 </t>
         </is>
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
+          <t xml:space="preserve"> 9th IEEE Conference on Visual Analytics Science and Technology, IEEE VAST 2014, Paris, France, October 25-31, 2014: 3-12 (2014).</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Stevan Rudinac, Marcel Worring </t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
+          <t xml:space="preserve"> New Yorker Melange: Interactive Brew of Personalized Venue Recommendations. </t>
         </is>
       </c>
       <c r="C932" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -28386,28 +28386,28 @@
       </c>
       <c r="E932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2647868.2656403 </t>
         </is>
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
+          <t xml:space="preserve"> Proceedings of the ACM International Conference on Multimedia, MM '14, Orlando, FL, USA, November 03 - 07, 2014: 205-208 (2014).</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
+          <t xml:space="preserve">Jan Zahálka, Filip Zelezný </t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
+          <t xml:space="preserve"> An experimental test of Occam's razor in classification. </t>
         </is>
       </c>
       <c r="C933" t="n">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -28416,28 +28416,28 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10994-010-5227-2 </t>
         </is>
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
+          <t xml:space="preserve"> Mach. Learn. 82: 475-481 (2011).</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
+          <t xml:space="preserve"> A polynomial-time scheduling approach to minimise idle energy consumption: An application to an industrial furnace. </t>
         </is>
       </c>
       <c r="C934" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -28446,28 +28446,28 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.cor.2020.105167 </t>
         </is>
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
+          <t xml:space="preserve"> Comput. Oper. Res. 128: (2021).</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc </t>
+          <t xml:space="preserve">Ondrej Benedikt, Baran Alikoc, Premysl Sucha, Sergej Celikovský, Zdenek Hanzálek </t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stability analysis of multiple time-delay systems and design of time-delay filters (Çoklu zaman gecikmeli sistemlerin kararlılık analizi ve gecikme tabanlı filtre tasarımı) </t>
+          <t xml:space="preserve"> A scheduling and control approach for an industrial furnace to minimize idle energy consumption. </t>
         </is>
       </c>
       <c r="C935" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -28476,28 +28476,28 @@
       </c>
       <c r="E935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://tez.yok.gov.tr/UlusalTezMerkezi/tezDetay.jsp?id=gLpBbQbOR-wukzWI3gxnEA&amp;no=wMc2iygZhjj_Ym6dqKnlyw </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1910.07501 </t>
         </is>
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thesis (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1910.07501 (2019).</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
+          <t xml:space="preserve">Baran Alikoc, Kristian Hengster-Movric </t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
+          <t xml:space="preserve"> Robust cooperative synchronization of homogeneous agents with delays on directed communication graphs. </t>
         </is>
       </c>
       <c r="C936" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -28506,28 +28506,28 @@
       </c>
       <c r="E936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
+          <t xml:space="preserve"> http://arxiv.org/abs/1911.10359 </t>
         </is>
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/1911.10359 (2019).</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc </t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
+          <t xml:space="preserve"> Stability analysis of multiple time-delay systems and design of time-delay filters (Çoklu zaman gecikmeli sistemlerin kararlılık analizi ve gecikme tabanlı filtre tasarımı) </t>
         </is>
       </c>
       <c r="C937" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -28536,28 +28536,28 @@
       </c>
       <c r="E937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
+          <t xml:space="preserve"> https://tez.yok.gov.tr/UlusalTezMerkezi/tezDetay.jsp?id=gLpBbQbOR-wukzWI3gxnEA&amp;no=wMc2iygZhjj_Ym6dqKnlyw </t>
         </is>
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
+          <t xml:space="preserve"> Thesis (2017).</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
+          <t xml:space="preserve">Baran Alikoc, Ali Fuat Ergenç </t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
+          <t xml:space="preserve"> A Polynomial Method for Stability Analysis of LTI Systems Independent of Delays. </t>
         </is>
       </c>
       <c r="C938" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -28566,28 +28566,28 @@
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
+          <t xml:space="preserve"> https://doi.org/10.1137/16M1077726 </t>
         </is>
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
+          <t xml:space="preserve"> SIAM J. Control. Optim. 55: 2661-2683 (2017).</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
+          <t xml:space="preserve">Deniz Engules, Murat Hot, Baran Alikoc </t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
+          <t xml:space="preserve"> Level control of a coupled-tank system via eigenvalue assignment and LQG control. </t>
         </is>
       </c>
       <c r="C939" t="n">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -28596,28 +28596,28 @@
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/MED.2015.7158918 </t>
         </is>
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
+          <t xml:space="preserve"> 23rd Mediterranean Conference on Control and Automation, MED 2015, Torremolinos, Malaga, Spain, June 16-19, 2015: 1198-1203 (2015).</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
+          <t xml:space="preserve">Ali Fuat Ergenç, Baran Alikoc </t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
+          <t xml:space="preserve"> Reduced order digital controller design for plants with large time delays. </t>
         </is>
       </c>
       <c r="C940" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -28626,28 +28626,28 @@
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISCCSP.2014.6877865 </t>
         </is>
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
+          <t xml:space="preserve"> 6th International Symposium on Communications, Control and Signal Processing, ISCCSP 2014, Athens, Greece, May 21-23, 2014: 266-269 (2014).</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+          <t xml:space="preserve">Jonás Kulhánek, Torsten Sattler </t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+          <t xml:space="preserve"> Tetra-NeRF: Representing Neural Radiance Fields Using Tetrahedra. </t>
         </is>
       </c>
       <c r="C941" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -28656,40 +28656,100 @@
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2304.09987 </t>
         </is>
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2304.09987 (2023).</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
+          <t xml:space="preserve">Jonás Kulhánek, Vojtech Hudecek, Tomás Nekvinda, Ondrej Dusek </t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AuGPT: Dialogue with Pre-trained Language Models and Data Augmentation. </t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://arxiv.org/abs/2102.05126 </t>
+        </is>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> arXiv CoRR abs/2102.05126 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niyati Bafna, Martin Vastl, Ondrej Bojar </t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Constrained Decoding for Technical Term Retention in English-Hindi MT. </t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://aclanthology.org/2021.icon-main.1 </t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proceedings of the 18th International Conference on Natural Language Processing (ICON 2021), National Institute of Technology Silchar, Silchar, India, December 16 - 19, 2021.: 1-6 (2021).</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
           <t xml:space="preserve">Martin Vastl, Daniel Zeman, Rudolf Rosa </t>
         </is>
       </c>
-      <c r="B942" t="inlineStr">
+      <c r="B944" t="inlineStr">
         <is>
           <t xml:space="preserve"> Predicting Typological Features in WALS using Language Embeddings and Conditional Probabilities: ÚFAL Submission to the SIGTYP 2020 Shared Task. </t>
         </is>
       </c>
-      <c r="C942" t="n">
+      <c r="C944" t="n">
         <v>2020</v>
       </c>
-      <c r="D942" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ML </t>
-        </is>
-      </c>
-      <c r="E942" t="inlineStr">
+      <c r="D944" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ML </t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://arxiv.org/abs/2010.03920 </t>
         </is>
       </c>
-      <c r="F942" t="inlineStr">
+      <c r="F944" t="inlineStr">
         <is>
           <t xml:space="preserve"> arXiv CoRR abs/2010.03920 (2020).</t>
         </is>

--- a/docs/download/publications.xlsx
+++ b/docs/download/publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F950"/>
+  <dimension ref="A1:F951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26328,16 +26328,16 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Erik Derner, Dalibor Kucera, Nuria Oliver, Jan Zahálka </t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
+          <t xml:space="preserve"> Can ChatGPT Read Who You Are? </t>
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -26346,24 +26346,24 @@
       </c>
       <c r="E864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
+          <t xml:space="preserve"> https://doi.org/10.48550/arXiv.2312.16070 </t>
         </is>
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2312.16070 (2023).</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
+          <t xml:space="preserve">Clara Gómez, Alejandra C. Hernández, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
+          <t xml:space="preserve"> Semantic Localization through Propagation of Scene Information in a Hierarchical Model. </t>
         </is>
       </c>
       <c r="C865" t="n">
@@ -26376,7 +26376,7 @@
       </c>
       <c r="E865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870972 </t>
         </is>
       </c>
       <c r="F865" t="inlineStr">
@@ -26388,16 +26388,16 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
+          <t xml:space="preserve">Alejandra C. Hernández, Clara Gómez, Erik Derner, Ramón Barber </t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
+          <t xml:space="preserve"> Indoor Scene Recognition based on Weighted Voting Schemes. </t>
         </is>
       </c>
       <c r="C866" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -26406,12 +26406,12 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ECMR.2019.8870931 </t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
+          <t xml:space="preserve"> 2019 European Conference on Mobile Robots, ECMR 2019, Prague, Czech Republic, September 4-6, 2019: 1-6 (2019).</t>
         </is>
       </c>
     </row>
@@ -26427,7 +26427,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -26436,24 +26436,24 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
+          <t xml:space="preserve"> https://arxiv.org/abs/2007.10085 </t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sensors 19: (2019).</t>
+          <t xml:space="preserve"> arXiv CoRR abs/2007.10085 (2020).</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
+          <t xml:space="preserve">Miroslav Kulich, Jirí Kubalík, Libor Preucil </t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
+          <t xml:space="preserve"> An Integrated Approach to Goal Selection in Mobile Robot Exploration. </t>
         </is>
       </c>
       <c r="C868" t="n">
@@ -26466,28 +26466,28 @@
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q64068119 </t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
+          <t xml:space="preserve"> Sensors 19: (2019).</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Kadera, Václav Jirkovský, Lukás Kurilla, Simon Prokop </t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
+          <t xml:space="preserve"> Plant Layout Optimization Using Evolutionary Algorithms. </t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -26496,28 +26496,28 @@
       </c>
       <c r="E869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-030-27878-6_14 </t>
         </is>
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
+          <t xml:space="preserve"> Industrial Applications of Holonic and Multi-Agent Systems - 9th International Conference, HoloMAS 2019, Linz, Austria, August 26-29, 2019, Proceedings: 173-188 (2019).</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
+          <t xml:space="preserve">Frantisek Hruska, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
+          <t xml:space="preserve"> Selection Hyper-Heuristic Using a Portfolio of Derivative Heuristics. </t>
         </is>
       </c>
       <c r="C870" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -26526,24 +26526,24 @@
       </c>
       <c r="E870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2739482.2764686 </t>
         </is>
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2015, Madrid, Spain, July 11-15, 2015, Companion Material Proceedings: 1401-1402 (2015).</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
+          <t xml:space="preserve">Jirí Kubalík, Michal Snizek </t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
+          <t xml:space="preserve"> A novel evolutionary algorithm with indirect representation and extended nearest neighbor constructive procedure for solving routing problems. </t>
         </is>
       </c>
       <c r="C871" t="n">
@@ -26556,28 +26556,28 @@
       </c>
       <c r="E871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/ISDA.2014.7066254 </t>
         </is>
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
+          <t xml:space="preserve"> 14th International Conference on Intelligent Systems Design and Applications, ISDA 2014, Okinawa, Japan, November 28-30, 2014: 156-161 (2014).</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Jaroslav Pokorný, Martin Víta, Peter Vojtás </t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
+          <t xml:space="preserve"> Generic Private Social Network for Knowledge Management. </t>
         </is>
       </c>
       <c r="C872" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -26586,24 +26586,24 @@
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-319-20370-6_3 </t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
+          <t xml:space="preserve"> Web Information Systems Engineering - WISE 2014 Workshops - 15th International Workshops IWCSN 2014, Org2 2014, PCS 2014, and QUAT 2014, Thessaloniki, Greece, October 12-14, 2014, Revised Selected Papers: 27-41 (2014).</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
+          <t xml:space="preserve"> Co-evolutionary Approach to Design of Robotic Gait. </t>
         </is>
       </c>
       <c r="C873" t="n">
@@ -26616,24 +26616,24 @@
       </c>
       <c r="E873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-37192-9_55 </t>
         </is>
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
+          <t xml:space="preserve"> Applications of Evolutionary Computation - 16th European Conference, EvoApplications 2013, Vienna, Austria, April 3-5, 2013. Proceedings: 550-559 (2013).</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
+          <t xml:space="preserve">Jaromír Mlejnek, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
+          <t xml:space="preserve"> Evolutionary hyperheuristic for capacitated vehicle routing problem. </t>
         </is>
       </c>
       <c r="C874" t="n">
@@ -26646,28 +26646,28 @@
       </c>
       <c r="E874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2464576.2464684 </t>
         </is>
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO '13, Amsterdam, The Netherlands, July 6-10, 2013, Companion Material Proceedings: 219-220 (2013).</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Ján Cerný, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
+          <t xml:space="preserve"> Analysis of Co-evolutionary Approach for Robotic Gait Generation. </t>
         </is>
       </c>
       <c r="C875" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -26676,24 +26676,24 @@
       </c>
       <c r="E875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
+          <t xml:space="preserve"> https://doi.org/10.5220/0004554900370046 </t>
         </is>
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
+          <t xml:space="preserve"> IJCCI 2013 - Proceedings of the 5th International Joint Conference on Computational Intelligence, Vilamoura, Algarve, Portugal, 20-22 September, 2013: 37-46 (2013).</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
+          <t xml:space="preserve"> Experimental Comparison of Six Population-Based Algorithms for Continuous Black Box Optimization. </t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -26706,24 +26706,24 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q51353740 </t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
+          <t xml:space="preserve"> Evol. Comput. 20: 483-508 (2012).</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
+          <t xml:space="preserve">Kamil Matousek, Jirí Kubalík, Martin Necaský, Peter Vojtás </t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
+          <t xml:space="preserve"> Exploiting Potential of the Professional Social Network Portal "SitIT". </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26736,24 +26736,24 @@
       </c>
       <c r="E877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-32518-2_28 </t>
         </is>
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
+          <t xml:space="preserve"> New Trends in Databases and Information Systems, Workshop Proceedings of the 16th East European Conference, ADBIS 2012, Poznań, Poland, September 17-21, 2012: 295-304 (2012).</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Michal Kopecky, Jaroslav Pokorný, Peter Vojtás, Jirí Kubalík, Kamil Matousek, Milos Maryska, Ota Novotný, Ladislav Peska </t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
+          <t xml:space="preserve"> Testing and Evaluating Software in a Social Network Creating Baseline Knowledge. </t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -26766,28 +26766,28 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
+          <t xml:space="preserve"> https://doi.org/10.3233/978-1-61499-177-9-127 </t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
+          <t xml:space="preserve"> Information Modelling and Knowledge Bases XXIV, 22nd European-Japanese Conference on Information Modelling and Knowledge Bases (EJC 2012), Prague, Czech Republic, June, 4-9, 2012: 127-141 (2012).</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Hyper-Heuristic Based on Iterated Local Search Driven by Evolutionary Algorithm. </t>
         </is>
       </c>
       <c r="C879" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -26796,24 +26796,24 @@
       </c>
       <c r="E879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-29124-1_13 </t>
         </is>
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
+          <t xml:space="preserve"> Evolutionary Computation in Combinatorial Optimization - 12th European Conference, EvoCOP 2012, Málaga, Spain, April 11-13, 2012. Proceedings: 148-159 (2012).</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochastic optimisation algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C880" t="n">
@@ -26826,24 +26826,24 @@
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/s10462-010-9181-y </t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
+          <t xml:space="preserve"> Artif. Intell. Rev. 35: 19-36 (2011).</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
+          <t xml:space="preserve"> Software project portfolio optimization with advanced multiobjective evolutionary algorithms. </t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -26856,24 +26856,24 @@
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
+          <t xml:space="preserve"> https://doi.org/10.1016/j.asoc.2010.04.013 </t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
+          <t xml:space="preserve"> Appl. Soft Comput. 11: 1416-1426 (2011).</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Peter Vojtás, Jaroslav Pokorný, Martin Necaský, Tomás Skopal, Kamil Matousek, Jirí Kubalík, Ota Novotný, Milos Maryska </t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> SoSIReČR - IT professional social network. </t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -26886,28 +26886,28 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
+          <t xml:space="preserve"> https://www.wikidata.org/entity/Q57240537 </t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
+          <t xml:space="preserve"> International Conference on Computational Aspects of Social Networks, CASoN 2011, Salamanca, Spain, October 19-21, 2011: 108-113 (2011).</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
+          <t xml:space="preserve"> Evolutionary-based iterative local search algorithm for the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -26916,24 +26916,24 @@
       </c>
       <c r="E883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/2001576.2001620 </t>
         </is>
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
+          <t xml:space="preserve"> 13th Annual Genetic and Evolutionary Computation Conference, GECCO 2011, Proceedings, Dublin, Ireland, July 12-16, 2011: 315-322 (2011).</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
+          <t xml:space="preserve">Jirí Kubalík, Pavel Tichý, Radek Sindelár, Raymond J. Staron </t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Clustering Methods for Agent Distribution Optimization. </t>
         </is>
       </c>
       <c r="C884" t="n">
@@ -26946,24 +26946,24 @@
       </c>
       <c r="E884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
+          <t xml:space="preserve"> https://doi.org/10.1109/TSMCC.2009.2031093 </t>
         </is>
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
+          <t xml:space="preserve"> IEEE Trans. Syst. Man Cybern. Part C 40: 78-86 (2010).</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík, Petr Buryan, Libor Wagner </t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
+          <t xml:space="preserve"> Solving the DNA fragment assembly problem efficiently using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C885" t="n">
@@ -26976,24 +26976,24 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830522 </t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 213-214 (2010).</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
+          <t xml:space="preserve"> Efficient stochastic local search algorithm for solving the shortest common supersequence problem. </t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -27006,24 +27006,24 @@
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830529 </t>
         </is>
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 249-256 (2010).</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
+          <t xml:space="preserve">Petr Buryan, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
+          <t xml:space="preserve"> Context-sensitive refinements for stochasticoptimization algorithms in inductive logic programming. </t>
         </is>
       </c>
       <c r="C887" t="n">
@@ -27036,24 +27036,24 @@
       </c>
       <c r="E887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830680 </t>
         </is>
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1071-1072 (2010).</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Thomas Kremmel, Jirí Kubalík, Stefan Biffl </t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
+          <t xml:space="preserve"> Multiobjective evolutionary algorithm for software project portfolio optimization. </t>
         </is>
       </c>
       <c r="C888" t="n">
@@ -27066,24 +27066,24 @@
       </c>
       <c r="E888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830483.1830738 </t>
         </is>
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010: 1389-1390 (2010).</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of two variants of the POEMS algorithm on the noiseless testbed. </t>
         </is>
       </c>
       <c r="C889" t="n">
@@ -27096,28 +27096,28 @@
       </c>
       <c r="E889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830774 </t>
         </is>
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1567-1574 (2010).</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jirí Kubalík </t>
+          <t xml:space="preserve">Petr Posík, Jirí Kubalík </t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
+          <t xml:space="preserve"> Comparison of cauchy EDA and pPOEMS algorithms on the BBOB noiseless testbed. </t>
         </is>
       </c>
       <c r="C890" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -27126,12 +27126,12 @@
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1830761.1830792 </t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2010, Proceedings, Portland, Oregon, USA, July 7-11, 2010, Companion Material: 1703-1710 (2010).</t>
         </is>
       </c>
     </row>
@@ -27143,7 +27143,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
+          <t xml:space="preserve"> Solving the sorting network problem using iterative optimization with evolved hypermutations. </t>
         </is>
       </c>
       <c r="C891" t="n">
@@ -27156,12 +27156,12 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1569901.1569944 </t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009: 301-308 (2009).</t>
         </is>
       </c>
     </row>
@@ -27173,7 +27173,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
+          <t xml:space="preserve"> Black-box optimization benchmarking of prototype optimization with evolved improvement steps for noiseless function testbed. </t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -27186,24 +27186,24 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
+          <t xml:space="preserve"> https://doi.org/10.1145/1570256.1570321 </t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adaptive and Natural Computing Algorithms, 9th International Conference, ICANNGA 2009, Kuopio, Finland, April 23-25, 2009, Revised Selected Papers: 183-192 (2009).</t>
+          <t xml:space="preserve"> Genetic and Evolutionary Computation Conference, GECCO 2009, Proceedings, Montreal, Québec, Canada, July 8-12, 2009, Companion Material: 2303-2308 (2009).</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petr Buryan, Jirí Kubalík, Katsumi Inoue </t>
+          <t xml:space="preserve">Jirí Kubalík </t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grammatical Concept Representation for Randomised Optimisation Algorithms in Relational Learning. </t>
+          <t xml:space="preserve"> Solving the Multiple Sequence Alignment Problem Using Prototype Optimization with Evolved Improvement Steps. </t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -27216,28 +27216,28 @@
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://doi.ieeecomputersociety.org/10.1109/ISDA.2009.156 </t>
+          <t xml:space="preserve"> https://doi.org/10.1007/978-3-642-04921-7_19 </t>
         </is>
      